--- a/examples/ex001.Interpolation.xlsx
+++ b/examples/ex001.Interpolation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF0806D-5179-4F9A-B926-A9BCA83E0FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A8B2E5-3BDF-4AB5-B2D4-CE7F0B839446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36450" yWindow="1260" windowWidth="27990" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interpolation" sheetId="1" r:id="rId1"/>
@@ -8793,15 +8793,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>32302</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>55907</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>213277</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>122582</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8940,7 +8940,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB0394-F197-463D-B278-643E3E52B9E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9124,7 +9124,7 @@
         <xdr:cNvPr id="6" name="Стрелка: влево 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34F219E-D95B-4B32-B840-767281EB4B5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9206,7 +9206,7 @@
         <xdr:cNvPr id="9" name="Стрелка: влево 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBCE222-CB88-455C-8051-EB0B13352B28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9283,7 +9283,7 @@
         <xdr:cNvPr id="7" name="Выноска: стрелка вниз 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B8BDED-EA90-41E8-88CE-5622B8A61974}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9384,7 +9384,7 @@
         <xdr:cNvPr id="11" name="Выноска: стрелка вниз 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B30189-E65E-45CC-BAEF-8B7902CCEFA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9493,7 +9493,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64509D3-F326-42A8-A0D0-EEB61AF92BAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9952,7 +9952,7 @@
   <dimension ref="A1:AI230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/ex001.Interpolation.xlsx
+++ b/examples/ex001.Interpolation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A8B2E5-3BDF-4AB5-B2D4-CE7F0B839446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83CCF9A-9FDE-43BD-8679-09D1F4A0E420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36450" yWindow="1260" windowWidth="27990" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18645" yWindow="5460" windowWidth="19290" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interpolation" sheetId="1" r:id="rId1"/>
@@ -9676,7 +9676,7 @@
       <definedName name="crv_interpolation"/>
       <definedName name="crv_intersection"/>
       <definedName name="crv_solve"/>
-      <definedName name="getUFVersion"/>
+      <definedName name="unf_Version"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -9952,7 +9952,7 @@
   <dimension ref="A1:AI230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9970,8 +9970,8 @@
         <v>0</v>
       </c>
       <c r="G1" t="str">
-        <f>[1]!getUFVersion()</f>
-        <v>7.17</v>
+        <f>[1]!unf_Version()</f>
+        <v>7.23</v>
       </c>
       <c r="AC1" s="14" t="s">
         <v>12</v>

--- a/examples/ex001.Interpolation.xlsx
+++ b/examples/ex001.Interpolation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83CCF9A-9FDE-43BD-8679-09D1F4A0E420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DCEEAA-EE6C-423A-9611-742AC794CF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18645" yWindow="5460" windowWidth="19290" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="780" windowWidth="28410" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interpolation" sheetId="1" r:id="rId1"/>
@@ -9952,7 +9952,7 @@
   <dimension ref="A1:AI230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/ex001.Interpolation.xlsx
+++ b/examples/ex001.Interpolation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DCEEAA-EE6C-423A-9611-742AC794CF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F1EE5-3624-46F8-B68C-F832D71B33A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="780" windowWidth="28410" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37200" yWindow="1005" windowWidth="32295" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interpolation" sheetId="1" r:id="rId1"/>
@@ -9952,7 +9952,7 @@
   <dimension ref="A1:AI230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!unf_Version()</f>
-        <v>7.23</v>
+        <v>7.25</v>
       </c>
       <c r="AC1" s="14" t="s">
         <v>12</v>

--- a/examples/ex001.Interpolation.xlsx
+++ b/examples/ex001.Interpolation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F1EE5-3624-46F8-B68C-F832D71B33A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6B8CC-5038-4CD2-93EC-1950782F4301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37200" yWindow="1005" windowWidth="32295" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="1575" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interpolation" sheetId="1" r:id="rId1"/>
@@ -9952,7 +9952,7 @@
   <dimension ref="A1:AI230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/ex001.Interpolation.xlsx
+++ b/examples/ex001.Interpolation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6B8CC-5038-4CD2-93EC-1950782F4301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19105EC-246B-4390-A1CD-CEC67B52212A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1575" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interpolation" sheetId="1" r:id="rId1"/>
@@ -1153,604 +1153,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0966666666666667</c:v>
+                  <c:v>0.95867500000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1933333333333334</c:v>
+                  <c:v>0.93136666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29</c:v>
+                  <c:v>0.91807499999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3866666666666667</c:v>
+                  <c:v>0.91880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4833333333333334</c:v>
+                  <c:v>0.93354166666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.58</c:v>
+                  <c:v>0.96230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6766666666666667</c:v>
+                  <c:v>1.0050750000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7733333333333334</c:v>
+                  <c:v>1.0618666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.87</c:v>
+                  <c:v>1.1326750000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9666666666666668</c:v>
+                  <c:v>1.2175000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0633333333333335</c:v>
+                  <c:v>1.3163416666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.16</c:v>
+                  <c:v>1.4292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2566666666666668</c:v>
+                  <c:v>1.5560750000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3533333333333335</c:v>
+                  <c:v>1.696966666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>1.8518750000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5466666666666669</c:v>
+                  <c:v>2.0208000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6433333333333335</c:v>
+                  <c:v>2.2037416666666672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.74</c:v>
+                  <c:v>2.4007000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>2.6116750000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.8366666666666669</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9333333333333336</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.09</c:v>
+                  <c:v>3.0771634977272724</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.379999999999999</c:v>
+                  <c:v>3.3512067090909081</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.6699999999999982</c:v>
+                  <c:v>3.653183862878786</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9599999999999973</c:v>
+                  <c:v>3.9690158545454515</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2499999999999964</c:v>
+                  <c:v>4.2846235795454506</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5399999999999956</c:v>
+                  <c:v>4.5859279333333287</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.8299999999999947</c:v>
+                  <c:v>4.8588498113636316</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0299999999999985</c:v>
+                  <c:v>5.0934352727272678</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1024999999999983</c:v>
+                  <c:v>5.3160755227272674</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.174999999999998</c:v>
+                  <c:v>5.5342431818181756</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2474999999999978</c:v>
+                  <c:v>5.7479382499999936</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.3199999999999976</c:v>
+                  <c:v>5.9571607272727203</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.3924999999999974</c:v>
+                  <c:v>6.1619106136363566</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.4649999999999972</c:v>
+                  <c:v>6.3621879090909017</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.537499999999997</c:v>
+                  <c:v>6.5579926136363555</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.6099999999999968</c:v>
+                  <c:v>6.749324727272719</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.6824999999999966</c:v>
+                  <c:v>6.9361842499999913</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.7549999999999963</c:v>
+                  <c:v>7.1185711818181723</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.8274999999999961</c:v>
+                  <c:v>7.2964855227272629</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.8999999999999959</c:v>
+                  <c:v>7.4699272727272632</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.9724999999999957</c:v>
+                  <c:v>7.6388964318181714</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.0449999999999955</c:v>
+                  <c:v>7.80339299999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.1174999999999953</c:v>
+                  <c:v>7.9634169772727166</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.1899999999999951</c:v>
+                  <c:v>8.1189683636363537</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.2624999999999948</c:v>
+                  <c:v>8.2700471590908986</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3349999999999946</c:v>
+                  <c:v>8.4166533636363532</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.4074999999999944</c:v>
+                  <c:v>8.5587869772727156</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.4799999999999942</c:v>
+                  <c:v>8.6964479999999895</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.552499999999994</c:v>
+                  <c:v>8.8296364318181713</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6249999999999938</c:v>
+                  <c:v>8.9583522727272609</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.6974999999999936</c:v>
+                  <c:v>9.0825955227272619</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.7699999999999934</c:v>
+                  <c:v>9.2023661818181708</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.8424999999999931</c:v>
+                  <c:v>9.3176642499999893</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.9149999999999929</c:v>
+                  <c:v>9.4284897272727157</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.9874999999999927</c:v>
+                  <c:v>9.5348426136363535</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.0599999999999925</c:v>
+                  <c:v>9.6367229090908992</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.1324999999999923</c:v>
+                  <c:v>9.7341306136363528</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.2049999999999921</c:v>
+                  <c:v>9.8270657272727178</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.2774999999999919</c:v>
+                  <c:v>9.9155282499999906</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.3499999999999917</c:v>
+                  <c:v>9.9995181818181713</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.4224999999999914</c:v>
+                  <c:v>10.079035522727263</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.4949999999999912</c:v>
+                  <c:v>10.154080272727263</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.567499999999991</c:v>
+                  <c:v>10.224652431818173</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.6399999999999908</c:v>
+                  <c:v>10.290751999999992</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.7124999999999906</c:v>
+                  <c:v>10.352378977272719</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.7849999999999904</c:v>
+                  <c:v>10.409533363636356</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.8574999999999902</c:v>
+                  <c:v>10.462215159090903</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.9299999999999899</c:v>
+                  <c:v>10.510424363636357</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.0024999999999906</c:v>
+                  <c:v>10.554160977272721</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0749999999999886</c:v>
+                  <c:v>10.593424999999995</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.1474999999999902</c:v>
+                  <c:v>10.628216431818176</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.2199999999999882</c:v>
+                  <c:v>10.658535272727269</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.2924999999999898</c:v>
+                  <c:v>10.68438152272727</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.3649999999999878</c:v>
+                  <c:v>10.705755181818178</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.4374999999999893</c:v>
+                  <c:v>10.722656249999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.5099999999999874</c:v>
+                  <c:v>10.735084727272726</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.5824999999999889</c:v>
+                  <c:v>10.743040613636362</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.6549999999999869</c:v>
+                  <c:v>10.746523909090909</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.7274999999999885</c:v>
+                  <c:v>10.745534613636364</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.7999999999999865</c:v>
+                  <c:v>10.740072727272729</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.8724999999999881</c:v>
+                  <c:v>10.730138250000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.9449999999999861</c:v>
+                  <c:v>10.715731181818185</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.0174999999999876</c:v>
+                  <c:v>10.696851522727277</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.0899999999999856</c:v>
+                  <c:v>10.673499272727277</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.1624999999999872</c:v>
+                  <c:v>10.645674431818188</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.2349999999999852</c:v>
+                  <c:v>10.613377000000007</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.3074999999999868</c:v>
+                  <c:v>10.576606977272734</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.3799999999999848</c:v>
+                  <c:v>10.535364363636372</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.4524999999999864</c:v>
+                  <c:v>10.489649159090918</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.5249999999999844</c:v>
+                  <c:v>10.439461363636374</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.5974999999999859</c:v>
+                  <c:v>10.384800977272739</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.6699999999999839</c:v>
+                  <c:v>10.325668000000013</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.7424999999999855</c:v>
+                  <c:v>10.262062431818196</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.8149999999999835</c:v>
+                  <c:v>10.193984272727288</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.8874999999999851</c:v>
+                  <c:v>10.121433522727289</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.9599999999999831</c:v>
+                  <c:v>10.044410181818199</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.8212500000000897</c:v>
+                  <c:v>9.9563324684171928</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.42250000000009</c:v>
+                  <c:v>9.8100620685495059</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.0237500000000921</c:v>
+                  <c:v>9.6005604756058371</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.6250000000000924</c:v>
+                  <c:v>9.3330227829768955</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.2262500000000944</c:v>
+                  <c:v>9.0126440840533899</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.8275000000000947</c:v>
+                  <c:v>8.6446194722260294</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.4287500000000968</c:v>
+                  <c:v>8.2341440408855213</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.0300000000000926</c:v>
+                  <c:v>7.7864128834225674</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.6312500000000938</c:v>
+                  <c:v>7.3066210932278901</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.232500000000095</c:v>
+                  <c:v>6.7999637636921912</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.8337500000000961</c:v>
+                  <c:v>6.271635988206179</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.4350000000000973</c:v>
+                  <c:v>5.7268328601605623</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.0362500000000985</c:v>
+                  <c:v>5.1707494729460493</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.6375000000000997</c:v>
+                  <c:v>4.6085809199533498</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.2387500000001008</c:v>
+                  <c:v>4.0455222945731704</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.840000000000102</c:v>
+                  <c:v>3.4867686901962203</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.4412500000001032</c:v>
+                  <c:v>2.9375152002132086</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.0425000000001043</c:v>
+                  <c:v>2.4029569180148433</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.6437500000001055</c:v>
+                  <c:v>1.8882889369918332</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.2450000000001067</c:v>
+                  <c:v>1.3987063505348865</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.8462500000001079</c:v>
+                  <c:v>0.93940425203471178</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.447500000000109</c:v>
+                  <c:v>0.51557773488201775</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.0487500000001102</c:v>
+                  <c:v>0.13242189246751274</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.65000000000011138</c:v>
+                  <c:v>-0.20486818181809469</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.25125000000011255</c:v>
+                  <c:v>-0.49109739458409607</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.14749999999988628</c:v>
+                  <c:v>-0.72107065243978286</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.54624999999988511</c:v>
+                  <c:v>-0.88959286199444643</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.94499999999988393</c:v>
+                  <c:v>-0.99146892985737844</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.95833333333334758</c:v>
+                  <c:v>-1.0453888152483073</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.91000000000001435</c:v>
+                  <c:v>-1.0889077478991482</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.86166666666668112</c:v>
+                  <c:v>-1.1225607196322887</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.81333333333334801</c:v>
+                  <c:v>-1.146287546840953</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.76500000000001478</c:v>
+                  <c:v>-1.1600280459183647</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.71666666666668155</c:v>
+                  <c:v>-1.163722033257748</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.66833333333334843</c:v>
+                  <c:v>-1.1573093252523268</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.62000000000001521</c:v>
+                  <c:v>-1.140729738295325</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.57166666666668209</c:v>
+                  <c:v>-1.1139230887799665</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.52333333333334886</c:v>
+                  <c:v>-1.0768291930994756</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.47500000000001569</c:v>
+                  <c:v>-1.0293878676470758</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.42666666666668246</c:v>
+                  <c:v>-0.97153892881599135</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.37833333333334929</c:v>
+                  <c:v>-0.90322219299944617</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.33000000000001611</c:v>
+                  <c:v>-0.82437747659066418</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.28166666666668289</c:v>
+                  <c:v>-0.73494459598286932</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.23333333333334971</c:v>
+                  <c:v>-0.63486336756928552</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.18500000000001654</c:v>
+                  <c:v>-0.52407360774313683</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.13666666666668334</c:v>
+                  <c:v>-0.40251513289764718</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-8.8333333333350153E-2</c:v>
+                  <c:v>-0.27012775942604045</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.0000000000016966E-2</c:v>
+                  <c:v>-0.12685130372154069</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.3333333333265117E-2</c:v>
+                  <c:v>2.7467447916609933E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.22666666666659788</c:v>
+                  <c:v>0.19643427721082143</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.41999999999993065</c:v>
+                  <c:v>0.3804082366070744</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.61333333333326334</c:v>
+                  <c:v>0.57736727891149131</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.80666666666659614</c:v>
+                  <c:v>0.78528935693019453</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.99999999999992895</c:v>
+                  <c:v>1.0021524234693067</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.1933333333332616</c:v>
+                  <c:v>1.2259344313349501</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.3866666666665943</c:v>
+                  <c:v>1.4546133333332472</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.5799999999999272</c:v>
+                  <c:v>1.6861670822703207</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.7733333333332599</c:v>
+                  <c:v>1.9185736309522929</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.9666666666665926</c:v>
+                  <c:v>2.1498109321852863</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.1599999999999255</c:v>
+                  <c:v>2.3778569387754231</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.353333333333258</c:v>
+                  <c:v>2.6006896035288265</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.5466666666665909</c:v>
+                  <c:v>2.816286879251618</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.7399999999999238</c:v>
+                  <c:v>3.0226267187499207</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.9333333333332563</c:v>
+                  <c:v>3.2176870748298572</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.1266666666665892</c:v>
+                  <c:v>3.3994459002975494</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.3199999999999221</c:v>
+                  <c:v>3.5658811479591201</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.5133333333332546</c:v>
+                  <c:v>3.7149707706206918</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.7066666666665875</c:v>
+                  <c:v>3.8446927210883866</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.8999999999999204</c:v>
+                  <c:v>3.9530249521683274</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.023333333333313</c:v>
+                  <c:v>4.0403452388888548</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.0716666666666468</c:v>
+                  <c:v>4.1208493798610784</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.1199999999999797</c:v>
+                  <c:v>4.1972991999999687</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.1683333333333126</c:v>
+                  <c:v>4.2697963201388589</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.2166666666666464</c:v>
+                  <c:v>4.3384423611110829</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.2649999999999793</c:v>
+                  <c:v>4.403338943749973</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.3133333333333121</c:v>
+                  <c:v>4.4645876888888631</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.3616666666666459</c:v>
+                  <c:v>4.5222902173610864</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.4099999999999788</c:v>
+                  <c:v>4.5765481499999767</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.4583333333333117</c:v>
+                  <c:v>4.6274631076388673</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4.5066666666666455</c:v>
+                  <c:v>4.6751367111110902</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.5549999999999784</c:v>
+                  <c:v>4.7196705812499804</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>4.6033333333333113</c:v>
+                  <c:v>4.761166338888871</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.6516666666666451</c:v>
+                  <c:v>4.7997256048610941</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4.699999999999978</c:v>
+                  <c:v>4.8354499999999847</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.7483333333333109</c:v>
+                  <c:v>4.868441145138874</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.7966666666666447</c:v>
+                  <c:v>4.8988006611110979</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.8449999999999775</c:v>
+                  <c:v>4.9266301687499876</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.8933333333333104</c:v>
+                  <c:v>4.952031288888878</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.9416666666666442</c:v>
+                  <c:v>4.9751056423611004</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9899999999999771</c:v>
+                  <c:v>4.9959548499999906</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5</c:v>
+                  <c:v>5.0144516666666581</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5</c:v>
+                  <c:v>5.0301599999999933</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5</c:v>
+                  <c:v>5.0430649999999941</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5</c:v>
+                  <c:v>5.0531666666666624</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5</c:v>
+                  <c:v>5.0604649999999971</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5</c:v>
+                  <c:v>5.0649599999999984</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5</c:v>
+                  <c:v>5.0666516666666661</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5</c:v>
+                  <c:v>5.0655400000000013</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5</c:v>
+                  <c:v>5.0616250000000029</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5</c:v>
+                  <c:v>5.0549066666666711</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5</c:v>
+                  <c:v>5.0453850000000058</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5</c:v>
+                  <c:v>5.033060000000007</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5</c:v>
+                  <c:v>5.0179316666666756</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5</c:v>
+                  <c:v>5.0000000000000098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2860,604 +2860,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0966666666666667</c:v>
+                  <c:v>0.95867500000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1933333333333334</c:v>
+                  <c:v>0.93136666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29</c:v>
+                  <c:v>0.91807499999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3866666666666667</c:v>
+                  <c:v>0.91880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4833333333333334</c:v>
+                  <c:v>0.93354166666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.58</c:v>
+                  <c:v>0.96230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6766666666666667</c:v>
+                  <c:v>1.0050750000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7733333333333334</c:v>
+                  <c:v>1.0618666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.87</c:v>
+                  <c:v>1.1326750000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9666666666666668</c:v>
+                  <c:v>1.2175000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0633333333333335</c:v>
+                  <c:v>1.3163416666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.16</c:v>
+                  <c:v>1.4292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2566666666666668</c:v>
+                  <c:v>1.5560750000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3533333333333335</c:v>
+                  <c:v>1.696966666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>1.8518750000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5466666666666669</c:v>
+                  <c:v>2.0208000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6433333333333335</c:v>
+                  <c:v>2.2037416666666672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.74</c:v>
+                  <c:v>2.4007000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>2.6116750000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.8366666666666669</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9333333333333336</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.09</c:v>
+                  <c:v>3.0771634977272724</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.379999999999999</c:v>
+                  <c:v>3.3512067090909081</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.6699999999999982</c:v>
+                  <c:v>3.653183862878786</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9599999999999973</c:v>
+                  <c:v>3.9690158545454515</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2499999999999964</c:v>
+                  <c:v>4.2846235795454506</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5399999999999956</c:v>
+                  <c:v>4.5859279333333287</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.8299999999999947</c:v>
+                  <c:v>4.8588498113636316</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0299999999999985</c:v>
+                  <c:v>5.0934352727272678</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1024999999999983</c:v>
+                  <c:v>5.3160755227272674</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.174999999999998</c:v>
+                  <c:v>5.5342431818181756</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2474999999999978</c:v>
+                  <c:v>5.7479382499999936</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.3199999999999976</c:v>
+                  <c:v>5.9571607272727203</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.3924999999999974</c:v>
+                  <c:v>6.1619106136363566</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.4649999999999972</c:v>
+                  <c:v>6.3621879090909017</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.537499999999997</c:v>
+                  <c:v>6.5579926136363555</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.6099999999999968</c:v>
+                  <c:v>6.749324727272719</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.6824999999999966</c:v>
+                  <c:v>6.9361842499999913</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.7549999999999963</c:v>
+                  <c:v>7.1185711818181723</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.8274999999999961</c:v>
+                  <c:v>7.2964855227272629</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.8999999999999959</c:v>
+                  <c:v>7.4699272727272632</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.9724999999999957</c:v>
+                  <c:v>7.6388964318181714</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.0449999999999955</c:v>
+                  <c:v>7.80339299999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.1174999999999953</c:v>
+                  <c:v>7.9634169772727166</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.1899999999999951</c:v>
+                  <c:v>8.1189683636363537</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.2624999999999948</c:v>
+                  <c:v>8.2700471590908986</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3349999999999946</c:v>
+                  <c:v>8.4166533636363532</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.4074999999999944</c:v>
+                  <c:v>8.5587869772727156</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.4799999999999942</c:v>
+                  <c:v>8.6964479999999895</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.552499999999994</c:v>
+                  <c:v>8.8296364318181713</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6249999999999938</c:v>
+                  <c:v>8.9583522727272609</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.6974999999999936</c:v>
+                  <c:v>9.0825955227272619</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.7699999999999934</c:v>
+                  <c:v>9.2023661818181708</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.8424999999999931</c:v>
+                  <c:v>9.3176642499999893</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.9149999999999929</c:v>
+                  <c:v>9.4284897272727157</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.9874999999999927</c:v>
+                  <c:v>9.5348426136363535</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.0599999999999925</c:v>
+                  <c:v>9.6367229090908992</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.1324999999999923</c:v>
+                  <c:v>9.7341306136363528</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.2049999999999921</c:v>
+                  <c:v>9.8270657272727178</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.2774999999999919</c:v>
+                  <c:v>9.9155282499999906</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.3499999999999917</c:v>
+                  <c:v>9.9995181818181713</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.4224999999999914</c:v>
+                  <c:v>10.079035522727263</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.4949999999999912</c:v>
+                  <c:v>10.154080272727263</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.567499999999991</c:v>
+                  <c:v>10.224652431818173</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.6399999999999908</c:v>
+                  <c:v>10.290751999999992</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.7124999999999906</c:v>
+                  <c:v>10.352378977272719</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.7849999999999904</c:v>
+                  <c:v>10.409533363636356</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.8574999999999902</c:v>
+                  <c:v>10.462215159090903</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.9299999999999899</c:v>
+                  <c:v>10.510424363636357</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.0024999999999906</c:v>
+                  <c:v>10.554160977272721</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0749999999999886</c:v>
+                  <c:v>10.593424999999995</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.1474999999999902</c:v>
+                  <c:v>10.628216431818176</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.2199999999999882</c:v>
+                  <c:v>10.658535272727269</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.2924999999999898</c:v>
+                  <c:v>10.68438152272727</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.3649999999999878</c:v>
+                  <c:v>10.705755181818178</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.4374999999999893</c:v>
+                  <c:v>10.722656249999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.5099999999999874</c:v>
+                  <c:v>10.735084727272726</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.5824999999999889</c:v>
+                  <c:v>10.743040613636362</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.6549999999999869</c:v>
+                  <c:v>10.746523909090909</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.7274999999999885</c:v>
+                  <c:v>10.745534613636364</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.7999999999999865</c:v>
+                  <c:v>10.740072727272729</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.8724999999999881</c:v>
+                  <c:v>10.730138250000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.9449999999999861</c:v>
+                  <c:v>10.715731181818185</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.0174999999999876</c:v>
+                  <c:v>10.696851522727277</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.0899999999999856</c:v>
+                  <c:v>10.673499272727277</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.1624999999999872</c:v>
+                  <c:v>10.645674431818188</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.2349999999999852</c:v>
+                  <c:v>10.613377000000007</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.3074999999999868</c:v>
+                  <c:v>10.576606977272734</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.3799999999999848</c:v>
+                  <c:v>10.535364363636372</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.4524999999999864</c:v>
+                  <c:v>10.489649159090918</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.5249999999999844</c:v>
+                  <c:v>10.439461363636374</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.5974999999999859</c:v>
+                  <c:v>10.384800977272739</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.6699999999999839</c:v>
+                  <c:v>10.325668000000013</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.7424999999999855</c:v>
+                  <c:v>10.262062431818196</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.8149999999999835</c:v>
+                  <c:v>10.193984272727288</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.8874999999999851</c:v>
+                  <c:v>10.121433522727289</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.9599999999999831</c:v>
+                  <c:v>10.044410181818199</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.8212500000000897</c:v>
+                  <c:v>9.9563324684171928</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.42250000000009</c:v>
+                  <c:v>9.8100620685495059</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.0237500000000921</c:v>
+                  <c:v>9.6005604756058371</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.6250000000000924</c:v>
+                  <c:v>9.3330227829768955</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.2262500000000944</c:v>
+                  <c:v>9.0126440840533899</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.8275000000000947</c:v>
+                  <c:v>8.6446194722260294</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.4287500000000968</c:v>
+                  <c:v>8.2341440408855213</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.0300000000000926</c:v>
+                  <c:v>7.7864128834225674</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.6312500000000938</c:v>
+                  <c:v>7.3066210932278901</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.232500000000095</c:v>
+                  <c:v>6.7999637636921912</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.8337500000000961</c:v>
+                  <c:v>6.271635988206179</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.4350000000000973</c:v>
+                  <c:v>5.7268328601605623</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.0362500000000985</c:v>
+                  <c:v>5.1707494729460493</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.6375000000000997</c:v>
+                  <c:v>4.6085809199533498</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.2387500000001008</c:v>
+                  <c:v>4.0455222945731704</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.840000000000102</c:v>
+                  <c:v>3.4867686901962203</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.4412500000001032</c:v>
+                  <c:v>2.9375152002132086</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.0425000000001043</c:v>
+                  <c:v>2.4029569180148433</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.6437500000001055</c:v>
+                  <c:v>1.8882889369918332</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.2450000000001067</c:v>
+                  <c:v>1.3987063505348865</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.8462500000001079</c:v>
+                  <c:v>0.93940425203471178</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.447500000000109</c:v>
+                  <c:v>0.51557773488201775</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.0487500000001102</c:v>
+                  <c:v>0.13242189246751274</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.65000000000011138</c:v>
+                  <c:v>-0.20486818181809469</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.25125000000011255</c:v>
+                  <c:v>-0.49109739458409607</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.14749999999988628</c:v>
+                  <c:v>-0.72107065243978286</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.54624999999988511</c:v>
+                  <c:v>-0.88959286199444643</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.94499999999988393</c:v>
+                  <c:v>-0.99146892985737844</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.95833333333334758</c:v>
+                  <c:v>-1.0453888152483073</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.91000000000001435</c:v>
+                  <c:v>-1.0889077478991482</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.86166666666668112</c:v>
+                  <c:v>-1.1225607196322887</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.81333333333334801</c:v>
+                  <c:v>-1.146287546840953</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.76500000000001478</c:v>
+                  <c:v>-1.1600280459183647</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.71666666666668155</c:v>
+                  <c:v>-1.163722033257748</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.66833333333334843</c:v>
+                  <c:v>-1.1573093252523268</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.62000000000001521</c:v>
+                  <c:v>-1.140729738295325</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.57166666666668209</c:v>
+                  <c:v>-1.1139230887799665</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.52333333333334886</c:v>
+                  <c:v>-1.0768291930994756</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.47500000000001569</c:v>
+                  <c:v>-1.0293878676470758</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.42666666666668246</c:v>
+                  <c:v>-0.97153892881599135</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.37833333333334929</c:v>
+                  <c:v>-0.90322219299944617</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.33000000000001611</c:v>
+                  <c:v>-0.82437747659066418</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.28166666666668289</c:v>
+                  <c:v>-0.73494459598286932</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.23333333333334971</c:v>
+                  <c:v>-0.63486336756928552</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.18500000000001654</c:v>
+                  <c:v>-0.52407360774313683</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.13666666666668334</c:v>
+                  <c:v>-0.40251513289764718</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-8.8333333333350153E-2</c:v>
+                  <c:v>-0.27012775942604045</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.0000000000016966E-2</c:v>
+                  <c:v>-0.12685130372154069</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.3333333333265117E-2</c:v>
+                  <c:v>2.7467447916609933E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.22666666666659788</c:v>
+                  <c:v>0.19643427721082143</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.41999999999993065</c:v>
+                  <c:v>0.3804082366070744</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.61333333333326334</c:v>
+                  <c:v>0.57736727891149131</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.80666666666659614</c:v>
+                  <c:v>0.78528935693019453</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.99999999999992895</c:v>
+                  <c:v>1.0021524234693067</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.1933333333332616</c:v>
+                  <c:v>1.2259344313349501</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.3866666666665943</c:v>
+                  <c:v>1.4546133333332472</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.5799999999999272</c:v>
+                  <c:v>1.6861670822703207</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.7733333333332599</c:v>
+                  <c:v>1.9185736309522929</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.9666666666665926</c:v>
+                  <c:v>2.1498109321852863</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.1599999999999255</c:v>
+                  <c:v>2.3778569387754231</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.353333333333258</c:v>
+                  <c:v>2.6006896035288265</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.5466666666665909</c:v>
+                  <c:v>2.816286879251618</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.7399999999999238</c:v>
+                  <c:v>3.0226267187499207</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.9333333333332563</c:v>
+                  <c:v>3.2176870748298572</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.1266666666665892</c:v>
+                  <c:v>3.3994459002975494</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.3199999999999221</c:v>
+                  <c:v>3.5658811479591201</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.5133333333332546</c:v>
+                  <c:v>3.7149707706206918</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.7066666666665875</c:v>
+                  <c:v>3.8446927210883866</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.8999999999999204</c:v>
+                  <c:v>3.9530249521683274</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.023333333333313</c:v>
+                  <c:v>4.0403452388888548</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.0716666666666468</c:v>
+                  <c:v>4.1208493798610784</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.1199999999999797</c:v>
+                  <c:v>4.1972991999999687</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.1683333333333126</c:v>
+                  <c:v>4.2697963201388589</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.2166666666666464</c:v>
+                  <c:v>4.3384423611110829</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.2649999999999793</c:v>
+                  <c:v>4.403338943749973</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.3133333333333121</c:v>
+                  <c:v>4.4645876888888631</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.3616666666666459</c:v>
+                  <c:v>4.5222902173610864</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.4099999999999788</c:v>
+                  <c:v>4.5765481499999767</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.4583333333333117</c:v>
+                  <c:v>4.6274631076388673</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4.5066666666666455</c:v>
+                  <c:v>4.6751367111110902</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.5549999999999784</c:v>
+                  <c:v>4.7196705812499804</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>4.6033333333333113</c:v>
+                  <c:v>4.761166338888871</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.6516666666666451</c:v>
+                  <c:v>4.7997256048610941</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4.699999999999978</c:v>
+                  <c:v>4.8354499999999847</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.7483333333333109</c:v>
+                  <c:v>4.868441145138874</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.7966666666666447</c:v>
+                  <c:v>4.8988006611110979</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.8449999999999775</c:v>
+                  <c:v>4.9266301687499876</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.8933333333333104</c:v>
+                  <c:v>4.952031288888878</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.9416666666666442</c:v>
+                  <c:v>4.9751056423611004</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9899999999999771</c:v>
+                  <c:v>4.9959548499999906</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5</c:v>
+                  <c:v>5.0144516666666581</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5</c:v>
+                  <c:v>5.0301599999999933</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5</c:v>
+                  <c:v>5.0430649999999941</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5</c:v>
+                  <c:v>5.0531666666666624</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5</c:v>
+                  <c:v>5.0604649999999971</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5</c:v>
+                  <c:v>5.0649599999999984</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5</c:v>
+                  <c:v>5.0666516666666661</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5</c:v>
+                  <c:v>5.0655400000000013</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5</c:v>
+                  <c:v>5.0616250000000029</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5</c:v>
+                  <c:v>5.0549066666666711</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5</c:v>
+                  <c:v>5.0453850000000058</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5</c:v>
+                  <c:v>5.033060000000007</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5</c:v>
+                  <c:v>5.0179316666666756</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5</c:v>
+                  <c:v>5.0000000000000098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3528,10 +3528,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0128787878787877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000053</c:v>
+                  <c:v>3.7101210540906555</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -4704,604 +4704,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0966666666666667</c:v>
+                  <c:v>0.95867500000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1933333333333334</c:v>
+                  <c:v>0.93136666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29</c:v>
+                  <c:v>0.91807499999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3866666666666667</c:v>
+                  <c:v>0.91880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4833333333333334</c:v>
+                  <c:v>0.93354166666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.58</c:v>
+                  <c:v>0.96230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6766666666666667</c:v>
+                  <c:v>1.0050750000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7733333333333334</c:v>
+                  <c:v>1.0618666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.87</c:v>
+                  <c:v>1.1326750000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9666666666666668</c:v>
+                  <c:v>1.2175000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0633333333333335</c:v>
+                  <c:v>1.3163416666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.16</c:v>
+                  <c:v>1.4292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2566666666666668</c:v>
+                  <c:v>1.5560750000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3533333333333335</c:v>
+                  <c:v>1.696966666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>1.8518750000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5466666666666669</c:v>
+                  <c:v>2.0208000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6433333333333335</c:v>
+                  <c:v>2.2037416666666672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.74</c:v>
+                  <c:v>2.4007000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>2.6116750000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.8366666666666669</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9333333333333336</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.09</c:v>
+                  <c:v>3.0771634977272724</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.379999999999999</c:v>
+                  <c:v>3.3512067090909081</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.6699999999999982</c:v>
+                  <c:v>3.653183862878786</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9599999999999973</c:v>
+                  <c:v>3.9690158545454515</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2499999999999964</c:v>
+                  <c:v>4.2846235795454506</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5399999999999956</c:v>
+                  <c:v>4.5859279333333287</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.8299999999999947</c:v>
+                  <c:v>4.8588498113636316</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0299999999999985</c:v>
+                  <c:v>5.0934352727272678</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1024999999999983</c:v>
+                  <c:v>5.3160755227272674</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.174999999999998</c:v>
+                  <c:v>5.5342431818181756</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2474999999999978</c:v>
+                  <c:v>5.7479382499999936</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.3199999999999976</c:v>
+                  <c:v>5.9571607272727203</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.3924999999999974</c:v>
+                  <c:v>6.1619106136363566</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.4649999999999972</c:v>
+                  <c:v>6.3621879090909017</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.537499999999997</c:v>
+                  <c:v>6.5579926136363555</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.6099999999999968</c:v>
+                  <c:v>6.749324727272719</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.6824999999999966</c:v>
+                  <c:v>6.9361842499999913</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.7549999999999963</c:v>
+                  <c:v>7.1185711818181723</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.8274999999999961</c:v>
+                  <c:v>7.2964855227272629</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.8999999999999959</c:v>
+                  <c:v>7.4699272727272632</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.9724999999999957</c:v>
+                  <c:v>7.6388964318181714</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.0449999999999955</c:v>
+                  <c:v>7.80339299999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.1174999999999953</c:v>
+                  <c:v>7.9634169772727166</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.1899999999999951</c:v>
+                  <c:v>8.1189683636363537</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.2624999999999948</c:v>
+                  <c:v>8.2700471590908986</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3349999999999946</c:v>
+                  <c:v>8.4166533636363532</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.4074999999999944</c:v>
+                  <c:v>8.5587869772727156</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.4799999999999942</c:v>
+                  <c:v>8.6964479999999895</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.552499999999994</c:v>
+                  <c:v>8.8296364318181713</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6249999999999938</c:v>
+                  <c:v>8.9583522727272609</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.6974999999999936</c:v>
+                  <c:v>9.0825955227272619</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.7699999999999934</c:v>
+                  <c:v>9.2023661818181708</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.8424999999999931</c:v>
+                  <c:v>9.3176642499999893</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.9149999999999929</c:v>
+                  <c:v>9.4284897272727157</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.9874999999999927</c:v>
+                  <c:v>9.5348426136363535</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.0599999999999925</c:v>
+                  <c:v>9.6367229090908992</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.1324999999999923</c:v>
+                  <c:v>9.7341306136363528</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.2049999999999921</c:v>
+                  <c:v>9.8270657272727178</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.2774999999999919</c:v>
+                  <c:v>9.9155282499999906</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.3499999999999917</c:v>
+                  <c:v>9.9995181818181713</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.4224999999999914</c:v>
+                  <c:v>10.079035522727263</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.4949999999999912</c:v>
+                  <c:v>10.154080272727263</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.567499999999991</c:v>
+                  <c:v>10.224652431818173</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.6399999999999908</c:v>
+                  <c:v>10.290751999999992</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.7124999999999906</c:v>
+                  <c:v>10.352378977272719</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.7849999999999904</c:v>
+                  <c:v>10.409533363636356</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.8574999999999902</c:v>
+                  <c:v>10.462215159090903</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7.9299999999999899</c:v>
+                  <c:v>10.510424363636357</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.0024999999999906</c:v>
+                  <c:v>10.554160977272721</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0749999999999886</c:v>
+                  <c:v>10.593424999999995</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.1474999999999902</c:v>
+                  <c:v>10.628216431818176</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.2199999999999882</c:v>
+                  <c:v>10.658535272727269</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.2924999999999898</c:v>
+                  <c:v>10.68438152272727</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.3649999999999878</c:v>
+                  <c:v>10.705755181818178</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.4374999999999893</c:v>
+                  <c:v>10.722656249999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.5099999999999874</c:v>
+                  <c:v>10.735084727272726</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.5824999999999889</c:v>
+                  <c:v>10.743040613636362</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.6549999999999869</c:v>
+                  <c:v>10.746523909090909</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.7274999999999885</c:v>
+                  <c:v>10.745534613636364</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.7999999999999865</c:v>
+                  <c:v>10.740072727272729</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.8724999999999881</c:v>
+                  <c:v>10.730138250000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.9449999999999861</c:v>
+                  <c:v>10.715731181818185</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.0174999999999876</c:v>
+                  <c:v>10.696851522727277</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.0899999999999856</c:v>
+                  <c:v>10.673499272727277</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.1624999999999872</c:v>
+                  <c:v>10.645674431818188</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.2349999999999852</c:v>
+                  <c:v>10.613377000000007</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.3074999999999868</c:v>
+                  <c:v>10.576606977272734</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.3799999999999848</c:v>
+                  <c:v>10.535364363636372</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.4524999999999864</c:v>
+                  <c:v>10.489649159090918</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.5249999999999844</c:v>
+                  <c:v>10.439461363636374</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.5974999999999859</c:v>
+                  <c:v>10.384800977272739</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.6699999999999839</c:v>
+                  <c:v>10.325668000000013</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.7424999999999855</c:v>
+                  <c:v>10.262062431818196</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.8149999999999835</c:v>
+                  <c:v>10.193984272727288</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.8874999999999851</c:v>
+                  <c:v>10.121433522727289</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.9599999999999831</c:v>
+                  <c:v>10.044410181818199</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.8212500000000897</c:v>
+                  <c:v>9.9563324684171928</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.42250000000009</c:v>
+                  <c:v>9.8100620685495059</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.0237500000000921</c:v>
+                  <c:v>9.6005604756058371</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.6250000000000924</c:v>
+                  <c:v>9.3330227829768955</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.2262500000000944</c:v>
+                  <c:v>9.0126440840533899</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.8275000000000947</c:v>
+                  <c:v>8.6446194722260294</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.4287500000000968</c:v>
+                  <c:v>8.2341440408855213</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.0300000000000926</c:v>
+                  <c:v>7.7864128834225674</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.6312500000000938</c:v>
+                  <c:v>7.3066210932278901</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.232500000000095</c:v>
+                  <c:v>6.7999637636921912</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.8337500000000961</c:v>
+                  <c:v>6.271635988206179</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.4350000000000973</c:v>
+                  <c:v>5.7268328601605623</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.0362500000000985</c:v>
+                  <c:v>5.1707494729460493</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.6375000000000997</c:v>
+                  <c:v>4.6085809199533498</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.2387500000001008</c:v>
+                  <c:v>4.0455222945731704</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.840000000000102</c:v>
+                  <c:v>3.4867686901962203</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.4412500000001032</c:v>
+                  <c:v>2.9375152002132086</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.0425000000001043</c:v>
+                  <c:v>2.4029569180148433</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.6437500000001055</c:v>
+                  <c:v>1.8882889369918332</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.2450000000001067</c:v>
+                  <c:v>1.3987063505348865</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.8462500000001079</c:v>
+                  <c:v>0.93940425203471178</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.447500000000109</c:v>
+                  <c:v>0.51557773488201775</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.0487500000001102</c:v>
+                  <c:v>0.13242189246751274</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.65000000000011138</c:v>
+                  <c:v>-0.20486818181809469</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.25125000000011255</c:v>
+                  <c:v>-0.49109739458409607</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.14749999999988628</c:v>
+                  <c:v>-0.72107065243978286</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.54624999999988511</c:v>
+                  <c:v>-0.88959286199444643</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.94499999999988393</c:v>
+                  <c:v>-0.99146892985737844</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.95833333333334758</c:v>
+                  <c:v>-1.0453888152483073</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.91000000000001435</c:v>
+                  <c:v>-1.0889077478991482</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.86166666666668112</c:v>
+                  <c:v>-1.1225607196322887</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.81333333333334801</c:v>
+                  <c:v>-1.146287546840953</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.76500000000001478</c:v>
+                  <c:v>-1.1600280459183647</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.71666666666668155</c:v>
+                  <c:v>-1.163722033257748</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.66833333333334843</c:v>
+                  <c:v>-1.1573093252523268</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.62000000000001521</c:v>
+                  <c:v>-1.140729738295325</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.57166666666668209</c:v>
+                  <c:v>-1.1139230887799665</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.52333333333334886</c:v>
+                  <c:v>-1.0768291930994756</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.47500000000001569</c:v>
+                  <c:v>-1.0293878676470758</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.42666666666668246</c:v>
+                  <c:v>-0.97153892881599135</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.37833333333334929</c:v>
+                  <c:v>-0.90322219299944617</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.33000000000001611</c:v>
+                  <c:v>-0.82437747659066418</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.28166666666668289</c:v>
+                  <c:v>-0.73494459598286932</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.23333333333334971</c:v>
+                  <c:v>-0.63486336756928552</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.18500000000001654</c:v>
+                  <c:v>-0.52407360774313683</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.13666666666668334</c:v>
+                  <c:v>-0.40251513289764718</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-8.8333333333350153E-2</c:v>
+                  <c:v>-0.27012775942604045</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.0000000000016966E-2</c:v>
+                  <c:v>-0.12685130372154069</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.3333333333265117E-2</c:v>
+                  <c:v>2.7467447916609933E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.22666666666659788</c:v>
+                  <c:v>0.19643427721082143</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.41999999999993065</c:v>
+                  <c:v>0.3804082366070744</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.61333333333326334</c:v>
+                  <c:v>0.57736727891149131</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.80666666666659614</c:v>
+                  <c:v>0.78528935693019453</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.99999999999992895</c:v>
+                  <c:v>1.0021524234693067</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.1933333333332616</c:v>
+                  <c:v>1.2259344313349501</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.3866666666665943</c:v>
+                  <c:v>1.4546133333332472</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.5799999999999272</c:v>
+                  <c:v>1.6861670822703207</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.7733333333332599</c:v>
+                  <c:v>1.9185736309522929</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.9666666666665926</c:v>
+                  <c:v>2.1498109321852863</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.1599999999999255</c:v>
+                  <c:v>2.3778569387754231</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.353333333333258</c:v>
+                  <c:v>2.6006896035288265</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.5466666666665909</c:v>
+                  <c:v>2.816286879251618</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.7399999999999238</c:v>
+                  <c:v>3.0226267187499207</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.9333333333332563</c:v>
+                  <c:v>3.2176870748298572</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.1266666666665892</c:v>
+                  <c:v>3.3994459002975494</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.3199999999999221</c:v>
+                  <c:v>3.5658811479591201</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.5133333333332546</c:v>
+                  <c:v>3.7149707706206918</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.7066666666665875</c:v>
+                  <c:v>3.8446927210883866</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.8999999999999204</c:v>
+                  <c:v>3.9530249521683274</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.023333333333313</c:v>
+                  <c:v>4.0403452388888548</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.0716666666666468</c:v>
+                  <c:v>4.1208493798610784</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.1199999999999797</c:v>
+                  <c:v>4.1972991999999687</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.1683333333333126</c:v>
+                  <c:v>4.2697963201388589</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.2166666666666464</c:v>
+                  <c:v>4.3384423611110829</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.2649999999999793</c:v>
+                  <c:v>4.403338943749973</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.3133333333333121</c:v>
+                  <c:v>4.4645876888888631</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.3616666666666459</c:v>
+                  <c:v>4.5222902173610864</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.4099999999999788</c:v>
+                  <c:v>4.5765481499999767</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.4583333333333117</c:v>
+                  <c:v>4.6274631076388673</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4.5066666666666455</c:v>
+                  <c:v>4.6751367111110902</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.5549999999999784</c:v>
+                  <c:v>4.7196705812499804</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>4.6033333333333113</c:v>
+                  <c:v>4.761166338888871</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.6516666666666451</c:v>
+                  <c:v>4.7997256048610941</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4.699999999999978</c:v>
+                  <c:v>4.8354499999999847</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.7483333333333109</c:v>
+                  <c:v>4.868441145138874</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.7966666666666447</c:v>
+                  <c:v>4.8988006611110979</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.8449999999999775</c:v>
+                  <c:v>4.9266301687499876</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.8933333333333104</c:v>
+                  <c:v>4.952031288888878</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.9416666666666442</c:v>
+                  <c:v>4.9751056423611004</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9899999999999771</c:v>
+                  <c:v>4.9959548499999906</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5</c:v>
+                  <c:v>5.0144516666666581</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5</c:v>
+                  <c:v>5.0301599999999933</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5</c:v>
+                  <c:v>5.0430649999999941</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5</c:v>
+                  <c:v>5.0531666666666624</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5</c:v>
+                  <c:v>5.0604649999999971</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5</c:v>
+                  <c:v>5.0649599999999984</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5</c:v>
+                  <c:v>5.0666516666666661</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5</c:v>
+                  <c:v>5.0655400000000013</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5</c:v>
+                  <c:v>5.0616250000000029</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5</c:v>
+                  <c:v>5.0549066666666711</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5</c:v>
+                  <c:v>5.0453850000000058</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5</c:v>
+                  <c:v>5.033060000000007</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5</c:v>
+                  <c:v>5.0179316666666756</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5</c:v>
+                  <c:v>5.0000000000000098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6062,604 +6062,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.145</c:v>
+                  <c:v>1.1718975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.29</c:v>
+                  <c:v>1.3395900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4350000000000001</c:v>
+                  <c:v>1.5030775000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.58</c:v>
+                  <c:v>1.6623600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7250000000000001</c:v>
+                  <c:v>1.8174375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.87</c:v>
+                  <c:v>1.96831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0150000000000001</c:v>
+                  <c:v>2.1149775000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.16</c:v>
+                  <c:v>2.2574400000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3050000000000002</c:v>
+                  <c:v>2.3956975000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>2.5297500000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5950000000000002</c:v>
+                  <c:v>2.6595975000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.74</c:v>
+                  <c:v>2.7852400000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8850000000000002</c:v>
+                  <c:v>2.9066775000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0089999999999999</c:v>
+                  <c:v>3.0236708978181821</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0525000000000002</c:v>
+                  <c:v>3.1290387556818184</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0960000000000001</c:v>
+                  <c:v>3.2201428712727274</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1395</c:v>
+                  <c:v>3.2979610217727275</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1830000000000003</c:v>
+                  <c:v>3.3634709843636363</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2265000000000001</c:v>
+                  <c:v>3.4176505362272729</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.27</c:v>
+                  <c:v>3.4614774545454545</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3134999999999999</c:v>
+                  <c:v>3.4959295164999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3569999999999998</c:v>
+                  <c:v>3.5219844992727274</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.4004999999999996</c:v>
+                  <c:v>3.5406201800454546</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4439999999999995</c:v>
+                  <c:v>3.552814336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.4874999999999994</c:v>
+                  <c:v>3.559544744318182</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5309999999999993</c:v>
+                  <c:v>3.5617891821818182</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5744999999999991</c:v>
+                  <c:v>3.5605254267727275</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.617999999999999</c:v>
+                  <c:v>3.5567312552727275</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.6614999999999989</c:v>
+                  <c:v>3.5513844448636367</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7049999999999987</c:v>
+                  <c:v>3.5454627727272729</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.7484999999999986</c:v>
+                  <c:v>3.5399440160454549</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.7919999999999985</c:v>
+                  <c:v>3.5358059520000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8354999999999984</c:v>
+                  <c:v>3.5340263577727278</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.8789999999999982</c:v>
+                  <c:v>3.5355830105454547</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.9224999999999981</c:v>
+                  <c:v>3.5414536875000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.965999999999998</c:v>
+                  <c:v>3.5526161658181814</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0094999999999983</c:v>
+                  <c:v>3.5700482226818178</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.0529999999999982</c:v>
+                  <c:v>3.5947276352727262</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.096499999999998</c:v>
+                  <c:v>3.6276321807727259</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.1399999999999979</c:v>
+                  <c:v>3.6697396363636341</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.1834999999999978</c:v>
+                  <c:v>3.72202777922727</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2269999999999976</c:v>
+                  <c:v>3.785474386545451</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.2704999999999975</c:v>
+                  <c:v>3.8610572354999952</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.3139999999999974</c:v>
+                  <c:v>3.9497541032727215</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.3574999999999973</c:v>
+                  <c:v>4.0525427670454475</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.4009999999999971</c:v>
+                  <c:v>4.1704010039999915</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.444499999999997</c:v>
+                  <c:v>4.3043065913181717</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.4879999999999969</c:v>
+                  <c:v>4.4552373061818065</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6924999999999777</c:v>
+                  <c:v>4.6259779461926813</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9583333333333108</c:v>
+                  <c:v>4.820680990819862</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.2241666666666431</c:v>
+                  <c:v>5.0373020942401014</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.4899999999999753</c:v>
+                  <c:v>5.2734924755244528</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.7558333333333085</c:v>
+                  <c:v>5.5269033537439682</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.0216666666666407</c:v>
+                  <c:v>5.7951859479696992</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.287499999999973</c:v>
+                  <c:v>6.0759914772726988</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.5533333333333061</c:v>
+                  <c:v>6.3669711607240194</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.8191666666666384</c:v>
+                  <c:v>6.665776217394713</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.0849999999999707</c:v>
+                  <c:v>6.970057866355833</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.3508333333333038</c:v>
+                  <c:v>7.2774673266784307</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.6166666666666361</c:v>
+                  <c:v>7.58565581743356</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.8824999999999683</c:v>
+                  <c:v>7.8922745576922715</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.1483333333333015</c:v>
+                  <c:v>8.1949747665256183</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.4141666666666328</c:v>
+                  <c:v>8.4914076630046544</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.679999999999966</c:v>
+                  <c:v>8.7792244662004304</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.9458333333332991</c:v>
+                  <c:v>9.0560763951839984</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.2116666666666305</c:v>
+                  <c:v>9.3196146690264126</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.4774999999999636</c:v>
+                  <c:v>9.567490506798725</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.7433333333332968</c:v>
+                  <c:v>9.7973551275719863</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.006249999999975</c:v>
+                  <c:v>10.006871365224736</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.187499999999973</c:v>
+                  <c:v>10.204562967414502</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.368749999999974</c:v>
+                  <c:v>10.399337323626865</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.549999999999972</c:v>
+                  <c:v>10.591391339031311</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.731249999999973</c:v>
+                  <c:v>10.78092191879732</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10.912499999999971</c:v>
+                  <c:v>10.968125968094377</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.093749999999972</c:v>
+                  <c:v>11.153200392091964</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.27499999999997</c:v>
+                  <c:v>11.336342095959566</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.456249999999971</c:v>
+                  <c:v>11.517747984866666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.637499999999969</c:v>
+                  <c:v>11.697614963982746</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11.818749999999969</c:v>
+                  <c:v>11.876139938477291</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.999999999999968</c:v>
+                  <c:v>12.053519813519783</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12.181249999999968</c:v>
+                  <c:v>12.229951494279705</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12.362499999999967</c:v>
+                  <c:v>12.405631885926542</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.543749999999967</c:v>
+                  <c:v>12.580757893629777</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.724999999999966</c:v>
+                  <c:v>12.755526422558891</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.906249999999966</c:v>
+                  <c:v>12.930134377883368</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.087499999999965</c:v>
+                  <c:v>13.104778664772693</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.268749999999965</c:v>
+                  <c:v>13.27965618839635</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.449999999999964</c:v>
+                  <c:v>13.45496385392382</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.631249999999964</c:v>
+                  <c:v>13.630898566524586</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.812499999999963</c:v>
+                  <c:v>13.807657231368132</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>13.993749999999963</c:v>
+                  <c:v>13.985436753623944</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.174999999999962</c:v>
+                  <c:v>14.164434038461501</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14.356249999999962</c:v>
+                  <c:v>14.344845991050288</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.537499999999961</c:v>
+                  <c:v>14.52686951655979</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14.718749999999961</c:v>
+                  <c:v>14.710701520159487</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>14.899999999999959</c:v>
+                  <c:v>14.896538907018865</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15.108333333333279</c:v>
+                  <c:v>15.085897408793379</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.349999999999945</c:v>
+                  <c:v>15.288181053163656</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>15.591666666666612</c:v>
+                  <c:v>15.503949439173374</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>15.833333333333277</c:v>
+                  <c:v>15.731677031877782</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>16.074999999999942</c:v>
+                  <c:v>15.969838296332124</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.31666666666661</c:v>
+                  <c:v>16.216907697591655</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.558333333333277</c:v>
+                  <c:v>16.471359700711616</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>16.799999999999944</c:v>
+                  <c:v>16.731668770747262</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>17.041666666666611</c:v>
+                  <c:v>16.996309372753839</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>17.283333333333275</c:v>
+                  <c:v>17.26375597178659</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17.524999999999942</c:v>
+                  <c:v>17.532483032900767</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>17.766666666666609</c:v>
+                  <c:v>17.800965021151622</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>18.008333333333272</c:v>
+                  <c:v>18.067676401594397</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>18.24999999999994</c:v>
+                  <c:v>18.331091639284345</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>18.491666666666607</c:v>
+                  <c:v>18.589685199276712</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>18.73333333333327</c:v>
+                  <c:v>18.841931546626743</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>18.974999999999937</c:v>
+                  <c:v>19.086305146389694</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>19.216666666666605</c:v>
+                  <c:v>19.321280463620806</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>19.458333333333268</c:v>
+                  <c:v>19.545331963375329</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>19.699999999999935</c:v>
+                  <c:v>19.756934110708514</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>19.941666666666602</c:v>
+                  <c:v>19.954561370675606</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>19.685714285714401</c:v>
+                  <c:v>20.121532895693523</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>19.271428571428686</c:v>
+                  <c:v>20.222564467236779</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>18.857142857142971</c:v>
+                  <c:v>20.258860352826421</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>18.44285714285726</c:v>
+                  <c:v>20.233200952301878</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>18.028571428571546</c:v>
+                  <c:v>20.148366665502589</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>17.614285714285835</c:v>
+                  <c:v>20.007137892267988</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>17.20000000000012</c:v>
+                  <c:v>19.812295032437508</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>16.785714285714409</c:v>
+                  <c:v>19.566618485850579</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16.371428571428694</c:v>
+                  <c:v>19.272888652346641</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>15.957142857142982</c:v>
+                  <c:v>18.933885931765126</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>15.542857142857269</c:v>
+                  <c:v>18.552390723945464</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>15.128571428571556</c:v>
+                  <c:v>18.131183428727098</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>14.714285714285841</c:v>
+                  <c:v>17.673044445949451</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>14.300000000000129</c:v>
+                  <c:v>17.180754175451966</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>13.885714285714416</c:v>
+                  <c:v>16.657093017074072</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>13.471428571428703</c:v>
+                  <c:v>16.104841370655205</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>13.05714285714299</c:v>
+                  <c:v>15.526779636034796</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12.642857142857277</c:v>
+                  <c:v>14.925688213052283</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.228571428571563</c:v>
+                  <c:v>14.304347501547097</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>11.81428571428585</c:v>
+                  <c:v>13.665537901358675</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>11.400000000000137</c:v>
+                  <c:v>13.012039812326448</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>10.985714285714424</c:v>
+                  <c:v>12.34663363428985</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>10.571428571428712</c:v>
+                  <c:v>11.672099767088318</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>10.157142857142999</c:v>
+                  <c:v>10.991218610561281</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>9.7428571428572859</c:v>
+                  <c:v>10.306770564548179</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>9.3285714285715713</c:v>
+                  <c:v>9.6215360288884408</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8.9142857142858585</c:v>
+                  <c:v>8.9382954034215043</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8.5000000000001457</c:v>
+                  <c:v>8.2598290879867999</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>8.0857142857144328</c:v>
+                  <c:v>7.5889174824237644</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>7.67142857142872</c:v>
+                  <c:v>6.92834098657183</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>7.2571428571430063</c:v>
+                  <c:v>6.2808800002704315</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>6.8428571428572935</c:v>
+                  <c:v>5.649314923359003</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>6.4285714285715807</c:v>
+                  <c:v>5.0364261556769776</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>6.0142857142858679</c:v>
+                  <c:v>4.4449940970637893</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>5.6000000000001542</c:v>
+                  <c:v>3.8777991473588735</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>5.1857142857144414</c:v>
+                  <c:v>3.3376217064016629</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>4.7714285714287286</c:v>
+                  <c:v>2.8272421740315914</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>4.3571428571430149</c:v>
+                  <c:v>2.3494409500880935</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.942857142857302</c:v>
+                  <c:v>1.9069984344106032</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.5285714285715888</c:v>
+                  <c:v>1.5026950268385542</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.114285714285876</c:v>
+                  <c:v>1.1393111272113803</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.7000000000001627</c:v>
+                  <c:v>0.81962713536851561</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.2857142857144499</c:v>
+                  <c:v>0.54642345114939428</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.8714285714287366</c:v>
+                  <c:v>0.32248047439345012</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.4571428571430236</c:v>
+                  <c:v>0.1505786049401171</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.0428571428573106</c:v>
+                  <c:v>3.3498242628829195E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.62857142857159742</c:v>
+                  <c:v>-2.5980212700979655E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.21428571428588439</c:v>
+                  <c:v>-2.507636120987547E-2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.11666666666656648</c:v>
+                  <c:v>3.6937693732157335E-2</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.35833333333323247</c:v>
+                  <c:v>0.14696661128911886</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.59999999999989839</c:v>
+                  <c:v>0.29847138461531281</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.84166666666656442</c:v>
+                  <c:v>0.48694421777056823</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.0833333333332305</c:v>
+                  <c:v>0.70787731481471428</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.3249999999998963</c:v>
+                  <c:v>0.95676287980758001</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.5666666666665623</c:v>
+                  <c:v>1.2290931168089947</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.8083333333332283</c:v>
+                  <c:v>1.5203602298787871</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.0499999999998941</c:v>
+                  <c:v>1.8260564230767864</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.2916666666665604</c:v>
+                  <c:v>2.141673900462822</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.5333333333332262</c:v>
+                  <c:v>2.4627048660967228</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.774999999999892</c:v>
+                  <c:v>2.7846415240383178</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.0166666666665582</c:v>
+                  <c:v>3.1029760783474365</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.2583333333332241</c:v>
+                  <c:v>3.4132007330839071</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.4999999999998899</c:v>
+                  <c:v>3.7108076923075597</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.7416666666665561</c:v>
+                  <c:v>3.9912891600782232</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.9833333333332219</c:v>
+                  <c:v>4.2501373404557263</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.2249999999998877</c:v>
+                  <c:v>4.4828444374998977</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.466666666666554</c:v>
+                  <c:v>4.6849026552705677</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.7083333333332202</c:v>
+                  <c:v>4.8518041978275654</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9499999999998856</c:v>
+                  <c:v>4.9790412692307182</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5</c:v>
+                  <c:v>5.0722583333332922</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5</c:v>
+                  <c:v>5.1507999999999656</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5</c:v>
+                  <c:v>5.2153249999999725</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5</c:v>
+                  <c:v>5.2658333333333118</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5</c:v>
+                  <c:v>5.3023249999999855</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5</c:v>
+                  <c:v>5.3247999999999927</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5</c:v>
+                  <c:v>5.3332583333333323</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5</c:v>
+                  <c:v>5.3277000000000063</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5</c:v>
+                  <c:v>5.3081250000000129</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5</c:v>
+                  <c:v>5.2745333333333537</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5</c:v>
+                  <c:v>5.226925000000028</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5</c:v>
+                  <c:v>5.1653000000000349</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5</c:v>
+                  <c:v>5.089658333333376</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5</c:v>
+                  <c:v>5.0000000000000497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6736,16 +6736,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3529411764705883</c:v>
+                  <c:v>3.5198823159336086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.25</c:v>
+                  <c:v>7.160644910644911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7272727272727231</c:v>
+                  <c:v>0.83927333619283173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -8747,7 +8747,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$AD$1" fmlaRange="$AD$2:$AD$5" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$AD$1" fmlaRange="$AD$2:$AD$5" noThreeD="1" sel="3" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8793,15 +8793,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9951,18 +9951,18 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AI230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="3.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.5703125" customWidth="1"/>
-    <col min="26" max="26" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.5546875" customWidth="1"/>
+    <col min="26" max="26" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -9971,20 +9971,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!unf_Version()</f>
-        <v>7.25</v>
+        <v>7.26</v>
       </c>
       <c r="AC1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AD1" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE1" s="14"/>
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9999,7 +9999,7 @@
       <c r="AG2" s="14"/>
       <c r="AH2" s="14"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="AC3" s="14">
         <v>1</v>
       </c>
@@ -10011,7 +10011,7 @@
       <c r="AG3" s="14"/>
       <c r="AH3" s="14"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -10037,7 +10037,7 @@
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -10068,7 +10068,7 @@
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="12" t="s">
         <v>2</v>
@@ -10093,7 +10093,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="8">
         <v>1</v>
@@ -10118,7 +10118,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="8">
         <v>4</v>
@@ -10143,7 +10143,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="8">
         <v>5</v>
@@ -10168,7 +10168,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="8">
         <v>15</v>
@@ -10193,7 +10193,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="8">
         <v>19</v>
@@ -10218,7 +10218,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="8">
         <v>22</v>
@@ -10243,7 +10243,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="8">
         <v>25</v>
@@ -10268,7 +10268,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="8">
         <v>28</v>
@@ -10293,7 +10293,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="8">
         <v>30</v>
@@ -10318,7 +10318,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -10335,7 +10335,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -10348,7 +10348,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="18" t="s">
         <v>16</v>
@@ -10390,7 +10390,7 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="4"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -10425,7 +10425,7 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="7"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="19" t="s">
         <v>2</v>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="H20" s="13">
         <f>AD1-1</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -10471,7 +10471,7 @@
       <c r="AH20" s="6"/>
       <c r="AI20" s="7"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="20">
         <v>1</v>
@@ -10514,7 +10514,7 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="7"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="20">
         <f>B21+($B$15-$B$7)/200</f>
@@ -10522,11 +10522,11 @@
       </c>
       <c r="C22" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B22,тип_интерполяции_)</f>
-        <v>1.0966666666666667</v>
+        <v>0.95867500000000005</v>
       </c>
       <c r="D22" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B22,тип_интерполяции_)</f>
-        <v>1.145</v>
+        <v>1.1718975</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -10558,7 +10558,7 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="7"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="20">
         <f t="shared" ref="B23:B86" si="0">B22+($B$15-$B$7)/200</f>
@@ -10566,11 +10566,11 @@
       </c>
       <c r="C23" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B23,тип_интерполяции_)</f>
-        <v>1.1933333333333334</v>
+        <v>0.93136666666666668</v>
       </c>
       <c r="D23" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B23,тип_интерполяции_)</f>
-        <v>1.29</v>
+        <v>1.3395900000000001</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -10602,7 +10602,7 @@
       <c r="AH23" s="6"/>
       <c r="AI23" s="7"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="20">
         <f t="shared" si="0"/>
@@ -10610,11 +10610,11 @@
       </c>
       <c r="C24" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B24,тип_интерполяции_)</f>
-        <v>1.29</v>
+        <v>0.91807499999999997</v>
       </c>
       <c r="D24" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B24,тип_интерполяции_)</f>
-        <v>1.4350000000000001</v>
+        <v>1.5030775000000001</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -10646,7 +10646,7 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="7"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="20">
         <f t="shared" si="0"/>
@@ -10654,11 +10654,11 @@
       </c>
       <c r="C25" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B25,тип_интерполяции_)</f>
-        <v>1.3866666666666667</v>
+        <v>0.91880000000000006</v>
       </c>
       <c r="D25" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B25,тип_интерполяции_)</f>
-        <v>1.58</v>
+        <v>1.6623600000000001</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -10690,7 +10690,7 @@
       <c r="AH25" s="6"/>
       <c r="AI25" s="7"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="20">
         <f t="shared" si="0"/>
@@ -10698,11 +10698,11 @@
       </c>
       <c r="C26" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B26,тип_интерполяции_)</f>
-        <v>1.4833333333333334</v>
+        <v>0.93354166666666671</v>
       </c>
       <c r="D26" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B26,тип_интерполяции_)</f>
-        <v>1.7250000000000001</v>
+        <v>1.8174375</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -10734,7 +10734,7 @@
       <c r="AH26" s="6"/>
       <c r="AI26" s="7"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="20">
         <f t="shared" si="0"/>
@@ -10742,11 +10742,11 @@
       </c>
       <c r="C27" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B27,тип_интерполяции_)</f>
-        <v>1.58</v>
+        <v>0.96230000000000004</v>
       </c>
       <c r="D27" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B27,тип_интерполяции_)</f>
-        <v>1.87</v>
+        <v>1.96831</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -10782,7 +10782,7 @@
       <c r="AH27" s="6"/>
       <c r="AI27" s="7"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="20">
         <f t="shared" si="0"/>
@@ -10790,11 +10790,11 @@
       </c>
       <c r="C28" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B28,тип_интерполяции_)</f>
-        <v>1.6766666666666667</v>
+        <v>1.0050750000000002</v>
       </c>
       <c r="D28" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B28,тип_интерполяции_)</f>
-        <v>2.0150000000000001</v>
+        <v>2.1149775000000002</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -10826,7 +10826,7 @@
       <c r="AH28" s="6"/>
       <c r="AI28" s="7"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="20">
         <f t="shared" si="0"/>
@@ -10834,11 +10834,11 @@
       </c>
       <c r="C29" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B29,тип_интерполяции_)</f>
-        <v>1.7733333333333334</v>
+        <v>1.0618666666666667</v>
       </c>
       <c r="D29" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B29,тип_интерполяции_)</f>
-        <v>2.16</v>
+        <v>2.2574400000000003</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -10870,7 +10870,7 @@
       <c r="AH29" s="6"/>
       <c r="AI29" s="7"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="20">
         <f t="shared" si="0"/>
@@ -10878,11 +10878,11 @@
       </c>
       <c r="C30" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B30,тип_интерполяции_)</f>
-        <v>1.87</v>
+        <v>1.1326750000000001</v>
       </c>
       <c r="D30" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B30,тип_интерполяции_)</f>
-        <v>2.3050000000000002</v>
+        <v>2.3956975000000003</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="AI30" s="7"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="20">
         <f t="shared" si="0"/>
@@ -10950,11 +10950,11 @@
       </c>
       <c r="C31" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B31,тип_интерполяции_)</f>
-        <v>1.9666666666666668</v>
+        <v>1.2175000000000002</v>
       </c>
       <c r="D31" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B31,тип_интерполяции_)</f>
-        <v>2.4500000000000002</v>
+        <v>2.5297500000000004</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -10970,11 +10970,11 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="17">
         <f>[1]!crv_interpolation(x_,fx_,R30,тип_интерполяции_)</f>
-        <v>4</v>
+        <v>4.0128787878787877</v>
       </c>
       <c r="S31" s="17">
         <f>[1]!crv_interpolation(x_,fx_,S30,тип_интерполяции_)</f>
-        <v>4.0000000000000053</v>
+        <v>3.7101210540906555</v>
       </c>
       <c r="T31" s="17">
         <f>[1]!crv_interpolation(x_,fx_,T30,тип_интерполяции_)</f>
@@ -10999,19 +10999,19 @@
       </c>
       <c r="AD31" s="17">
         <f>[1]!crv_interpolation(x2_,gx2_,AD30,тип_интерполяции_)</f>
-        <v>3.3529411764705883</v>
+        <v>3.5198823159336086</v>
       </c>
       <c r="AE31" s="17">
         <f>[1]!crv_interpolation(x2_,gx2_,AE30,тип_интерполяции_)</f>
-        <v>7.25</v>
+        <v>7.160644910644911</v>
       </c>
       <c r="AF31" s="17">
         <f>[1]!crv_interpolation(x2_,gx2_,AF30,тип_интерполяции_)</f>
-        <v>2.7272727272727231</v>
+        <v>0.83927333619283173</v>
       </c>
       <c r="AG31" s="17">
         <f>[1]!crv_interpolation(x2_,gx2_,AG30,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="AH31" s="17">
         <f>[1]!crv_interpolation(x2_,gx2_,AH30,тип_интерполяции_)</f>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="AI31" s="7"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="20">
         <f t="shared" si="0"/>
@@ -11027,11 +11027,11 @@
       </c>
       <c r="C32" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B32,тип_интерполяции_)</f>
-        <v>2.0633333333333335</v>
+        <v>1.3163416666666667</v>
       </c>
       <c r="D32" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B32,тип_интерполяции_)</f>
-        <v>2.5950000000000002</v>
+        <v>2.6595975000000003</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -11063,7 +11063,7 @@
       <c r="AH32" s="6"/>
       <c r="AI32" s="7"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="20">
         <f t="shared" si="0"/>
@@ -11071,11 +11071,11 @@
       </c>
       <c r="C33" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B33,тип_интерполяции_)</f>
-        <v>2.16</v>
+        <v>1.4292000000000002</v>
       </c>
       <c r="D33" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B33,тип_интерполяции_)</f>
-        <v>2.74</v>
+        <v>2.7852400000000004</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -11107,7 +11107,7 @@
       <c r="AH33" s="6"/>
       <c r="AI33" s="7"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="20">
         <f t="shared" si="0"/>
@@ -11115,11 +11115,11 @@
       </c>
       <c r="C34" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B34,тип_интерполяции_)</f>
-        <v>2.2566666666666668</v>
+        <v>1.5560750000000003</v>
       </c>
       <c r="D34" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B34,тип_интерполяции_)</f>
-        <v>2.8850000000000002</v>
+        <v>2.9066775000000002</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -11151,7 +11151,7 @@
       <c r="AH34" s="6"/>
       <c r="AI34" s="7"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="20">
         <f t="shared" si="0"/>
@@ -11159,11 +11159,11 @@
       </c>
       <c r="C35" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B35,тип_интерполяции_)</f>
-        <v>2.3533333333333335</v>
+        <v>1.696966666666667</v>
       </c>
       <c r="D35" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B35,тип_интерполяции_)</f>
-        <v>3.0089999999999999</v>
+        <v>3.0236708978181821</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -11195,7 +11195,7 @@
       <c r="AH35" s="6"/>
       <c r="AI35" s="7"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="20">
         <f t="shared" si="0"/>
@@ -11203,11 +11203,11 @@
       </c>
       <c r="C36" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B36,тип_интерполяции_)</f>
-        <v>2.4500000000000002</v>
+        <v>1.8518750000000004</v>
       </c>
       <c r="D36" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B36,тип_интерполяции_)</f>
-        <v>3.0525000000000002</v>
+        <v>3.1290387556818184</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -11239,7 +11239,7 @@
       <c r="AH36" s="6"/>
       <c r="AI36" s="7"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="20">
         <f t="shared" si="0"/>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="C37" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B37,тип_интерполяции_)</f>
-        <v>2.5466666666666669</v>
+        <v>2.0208000000000004</v>
       </c>
       <c r="D37" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B37,тип_интерполяции_)</f>
-        <v>3.0960000000000001</v>
+        <v>3.2201428712727274</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -11283,7 +11283,7 @@
       <c r="AH37" s="6"/>
       <c r="AI37" s="7"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="20">
         <f t="shared" si="0"/>
@@ -11291,11 +11291,11 @@
       </c>
       <c r="C38" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B38,тип_интерполяции_)</f>
-        <v>2.6433333333333335</v>
+        <v>2.2037416666666672</v>
       </c>
       <c r="D38" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B38,тип_интерполяции_)</f>
-        <v>3.1395</v>
+        <v>3.2979610217727275</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -11327,7 +11327,7 @@
       <c r="AH38" s="6"/>
       <c r="AI38" s="7"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="20">
         <f t="shared" si="0"/>
@@ -11335,11 +11335,11 @@
       </c>
       <c r="C39" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B39,тип_интерполяции_)</f>
-        <v>2.74</v>
+        <v>2.4007000000000005</v>
       </c>
       <c r="D39" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B39,тип_интерполяции_)</f>
-        <v>3.1830000000000003</v>
+        <v>3.3634709843636363</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -11371,7 +11371,7 @@
       <c r="AH39" s="6"/>
       <c r="AI39" s="7"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="20">
         <f t="shared" si="0"/>
@@ -11379,11 +11379,11 @@
       </c>
       <c r="C40" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B40,тип_интерполяции_)</f>
-        <v>2.8366666666666669</v>
+        <v>2.6116750000000004</v>
       </c>
       <c r="D40" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B40,тип_интерполяции_)</f>
-        <v>3.2265000000000001</v>
+        <v>3.4176505362272729</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -11415,7 +11415,7 @@
       <c r="AH40" s="6"/>
       <c r="AI40" s="7"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="20">
         <f t="shared" si="0"/>
@@ -11423,11 +11423,11 @@
       </c>
       <c r="C41" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B41,тип_интерполяции_)</f>
-        <v>2.9333333333333336</v>
+        <v>2.8366666666666669</v>
       </c>
       <c r="D41" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B41,тип_интерполяции_)</f>
-        <v>3.27</v>
+        <v>3.4614774545454545</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -11459,7 +11459,7 @@
       <c r="AH41" s="6"/>
       <c r="AI41" s="7"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="20">
         <f t="shared" si="0"/>
@@ -11467,11 +11467,11 @@
       </c>
       <c r="C42" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B42,тип_интерполяции_)</f>
-        <v>3.09</v>
+        <v>3.0771634977272724</v>
       </c>
       <c r="D42" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B42,тип_интерполяции_)</f>
-        <v>3.3134999999999999</v>
+        <v>3.4959295164999999</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -11503,7 +11503,7 @@
       <c r="AH42" s="6"/>
       <c r="AI42" s="7"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="20">
         <f t="shared" si="0"/>
@@ -11511,11 +11511,11 @@
       </c>
       <c r="C43" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B43,тип_интерполяции_)</f>
-        <v>3.379999999999999</v>
+        <v>3.3512067090909081</v>
       </c>
       <c r="D43" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B43,тип_интерполяции_)</f>
-        <v>3.3569999999999998</v>
+        <v>3.5219844992727274</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -11547,7 +11547,7 @@
       <c r="AH43" s="6"/>
       <c r="AI43" s="7"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="20">
         <f t="shared" si="0"/>
@@ -11555,11 +11555,11 @@
       </c>
       <c r="C44" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B44,тип_интерполяции_)</f>
-        <v>3.6699999999999982</v>
+        <v>3.653183862878786</v>
       </c>
       <c r="D44" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B44,тип_интерполяции_)</f>
-        <v>3.4004999999999996</v>
+        <v>3.5406201800454546</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -11591,7 +11591,7 @@
       <c r="AH44" s="6"/>
       <c r="AI44" s="7"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="20">
         <f t="shared" si="0"/>
@@ -11599,11 +11599,11 @@
       </c>
       <c r="C45" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B45,тип_интерполяции_)</f>
-        <v>3.9599999999999973</v>
+        <v>3.9690158545454515</v>
       </c>
       <c r="D45" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B45,тип_интерполяции_)</f>
-        <v>3.4439999999999995</v>
+        <v>3.552814336</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -11635,7 +11635,7 @@
       <c r="AH45" s="6"/>
       <c r="AI45" s="7"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="20">
         <f t="shared" si="0"/>
@@ -11643,11 +11643,11 @@
       </c>
       <c r="C46" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B46,тип_интерполяции_)</f>
-        <v>4.2499999999999964</v>
+        <v>4.2846235795454506</v>
       </c>
       <c r="D46" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B46,тип_интерполяции_)</f>
-        <v>3.4874999999999994</v>
+        <v>3.559544744318182</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -11679,7 +11679,7 @@
       <c r="AH46" s="6"/>
       <c r="AI46" s="7"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="20">
         <f t="shared" si="0"/>
@@ -11687,11 +11687,11 @@
       </c>
       <c r="C47" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B47,тип_интерполяции_)</f>
-        <v>4.5399999999999956</v>
+        <v>4.5859279333333287</v>
       </c>
       <c r="D47" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B47,тип_интерполяции_)</f>
-        <v>3.5309999999999993</v>
+        <v>3.5617891821818182</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -11723,7 +11723,7 @@
       <c r="AH47" s="6"/>
       <c r="AI47" s="7"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="20">
         <f t="shared" si="0"/>
@@ -11731,11 +11731,11 @@
       </c>
       <c r="C48" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B48,тип_интерполяции_)</f>
-        <v>4.8299999999999947</v>
+        <v>4.8588498113636316</v>
       </c>
       <c r="D48" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B48,тип_интерполяции_)</f>
-        <v>3.5744999999999991</v>
+        <v>3.5605254267727275</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -11767,7 +11767,7 @@
       <c r="AH48" s="6"/>
       <c r="AI48" s="7"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="20">
         <f t="shared" si="0"/>
@@ -11775,11 +11775,11 @@
       </c>
       <c r="C49" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B49,тип_интерполяции_)</f>
-        <v>5.0299999999999985</v>
+        <v>5.0934352727272678</v>
       </c>
       <c r="D49" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B49,тип_интерполяции_)</f>
-        <v>3.617999999999999</v>
+        <v>3.5567312552727275</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -11811,7 +11811,7 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="7"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="20">
         <f t="shared" si="0"/>
@@ -11819,11 +11819,11 @@
       </c>
       <c r="C50" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B50,тип_интерполяции_)</f>
-        <v>5.1024999999999983</v>
+        <v>5.3160755227272674</v>
       </c>
       <c r="D50" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B50,тип_интерполяции_)</f>
-        <v>3.6614999999999989</v>
+        <v>3.5513844448636367</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -11855,7 +11855,7 @@
       <c r="AH50" s="6"/>
       <c r="AI50" s="7"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="20">
         <f t="shared" si="0"/>
@@ -11863,11 +11863,11 @@
       </c>
       <c r="C51" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B51,тип_интерполяции_)</f>
-        <v>5.174999999999998</v>
+        <v>5.5342431818181756</v>
       </c>
       <c r="D51" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B51,тип_интерполяции_)</f>
-        <v>3.7049999999999987</v>
+        <v>3.5454627727272729</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -11899,7 +11899,7 @@
       <c r="AH51" s="6"/>
       <c r="AI51" s="7"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="20">
         <f t="shared" si="0"/>
@@ -11907,11 +11907,11 @@
       </c>
       <c r="C52" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B52,тип_интерполяции_)</f>
-        <v>5.2474999999999978</v>
+        <v>5.7479382499999936</v>
       </c>
       <c r="D52" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B52,тип_интерполяции_)</f>
-        <v>3.7484999999999986</v>
+        <v>3.5399440160454549</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -11943,7 +11943,7 @@
       <c r="AH52" s="6"/>
       <c r="AI52" s="7"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="20">
         <f t="shared" si="0"/>
@@ -11951,11 +11951,11 @@
       </c>
       <c r="C53" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B53,тип_интерполяции_)</f>
-        <v>5.3199999999999976</v>
+        <v>5.9571607272727203</v>
       </c>
       <c r="D53" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B53,тип_интерполяции_)</f>
-        <v>3.7919999999999985</v>
+        <v>3.5358059520000005</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -11987,7 +11987,7 @@
       <c r="AH53" s="6"/>
       <c r="AI53" s="7"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="20">
         <f t="shared" si="0"/>
@@ -11995,11 +11995,11 @@
       </c>
       <c r="C54" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B54,тип_интерполяции_)</f>
-        <v>5.3924999999999974</v>
+        <v>6.1619106136363566</v>
       </c>
       <c r="D54" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B54,тип_интерполяции_)</f>
-        <v>3.8354999999999984</v>
+        <v>3.5340263577727278</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -12031,7 +12031,7 @@
       <c r="AH54" s="6"/>
       <c r="AI54" s="7"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="20">
         <f t="shared" si="0"/>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="C55" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B55,тип_интерполяции_)</f>
-        <v>5.4649999999999972</v>
+        <v>6.3621879090909017</v>
       </c>
       <c r="D55" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B55,тип_интерполяции_)</f>
-        <v>3.8789999999999982</v>
+        <v>3.5355830105454547</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -12075,7 +12075,7 @@
       <c r="AH55" s="6"/>
       <c r="AI55" s="7"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="20">
         <f t="shared" si="0"/>
@@ -12083,11 +12083,11 @@
       </c>
       <c r="C56" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B56,тип_интерполяции_)</f>
-        <v>5.537499999999997</v>
+        <v>6.5579926136363555</v>
       </c>
       <c r="D56" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B56,тип_интерполяции_)</f>
-        <v>3.9224999999999981</v>
+        <v>3.5414536875000002</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -12119,7 +12119,7 @@
       <c r="AH56" s="6"/>
       <c r="AI56" s="7"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="20">
         <f t="shared" si="0"/>
@@ -12127,11 +12127,11 @@
       </c>
       <c r="C57" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B57,тип_интерполяции_)</f>
-        <v>5.6099999999999968</v>
+        <v>6.749324727272719</v>
       </c>
       <c r="D57" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B57,тип_интерполяции_)</f>
-        <v>3.965999999999998</v>
+        <v>3.5526161658181814</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -12163,7 +12163,7 @@
       <c r="AH57" s="6"/>
       <c r="AI57" s="7"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="20">
         <f t="shared" si="0"/>
@@ -12171,11 +12171,11 @@
       </c>
       <c r="C58" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B58,тип_интерполяции_)</f>
-        <v>5.6824999999999966</v>
+        <v>6.9361842499999913</v>
       </c>
       <c r="D58" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B58,тип_интерполяции_)</f>
-        <v>4.0094999999999983</v>
+        <v>3.5700482226818178</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -12207,7 +12207,7 @@
       <c r="AH58" s="6"/>
       <c r="AI58" s="7"/>
     </row>
-    <row r="59" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="20">
         <f t="shared" si="0"/>
@@ -12215,11 +12215,11 @@
       </c>
       <c r="C59" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B59,тип_интерполяции_)</f>
-        <v>5.7549999999999963</v>
+        <v>7.1185711818181723</v>
       </c>
       <c r="D59" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B59,тип_интерполяции_)</f>
-        <v>4.0529999999999982</v>
+        <v>3.5947276352727262</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -12251,7 +12251,7 @@
       <c r="AH59" s="10"/>
       <c r="AI59" s="11"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="20">
         <f t="shared" si="0"/>
@@ -12259,11 +12259,11 @@
       </c>
       <c r="C60" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B60,тип_интерполяции_)</f>
-        <v>5.8274999999999961</v>
+        <v>7.2964855227272629</v>
       </c>
       <c r="D60" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B60,тип_интерполяции_)</f>
-        <v>4.096499999999998</v>
+        <v>3.6276321807727259</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -12276,7 +12276,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="20">
         <f t="shared" si="0"/>
@@ -12284,11 +12284,11 @@
       </c>
       <c r="C61" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B61,тип_интерполяции_)</f>
-        <v>5.8999999999999959</v>
+        <v>7.4699272727272632</v>
       </c>
       <c r="D61" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B61,тип_интерполяции_)</f>
-        <v>4.1399999999999979</v>
+        <v>3.6697396363636341</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -12301,7 +12301,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="20">
         <f t="shared" si="0"/>
@@ -12309,11 +12309,11 @@
       </c>
       <c r="C62" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B62,тип_интерполяции_)</f>
-        <v>5.9724999999999957</v>
+        <v>7.6388964318181714</v>
       </c>
       <c r="D62" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B62,тип_интерполяции_)</f>
-        <v>4.1834999999999978</v>
+        <v>3.72202777922727</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -12326,7 +12326,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="20">
         <f t="shared" si="0"/>
@@ -12334,11 +12334,11 @@
       </c>
       <c r="C63" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B63,тип_интерполяции_)</f>
-        <v>6.0449999999999955</v>
+        <v>7.80339299999999</v>
       </c>
       <c r="D63" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B63,тип_интерполяции_)</f>
-        <v>4.2269999999999976</v>
+        <v>3.785474386545451</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -12351,7 +12351,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="20">
         <f t="shared" si="0"/>
@@ -12359,11 +12359,11 @@
       </c>
       <c r="C64" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B64,тип_интерполяции_)</f>
-        <v>6.1174999999999953</v>
+        <v>7.9634169772727166</v>
       </c>
       <c r="D64" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B64,тип_интерполяции_)</f>
-        <v>4.2704999999999975</v>
+        <v>3.8610572354999952</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -12376,7 +12376,7 @@
       <c r="M64" s="6"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="20">
         <f t="shared" si="0"/>
@@ -12384,11 +12384,11 @@
       </c>
       <c r="C65" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B65,тип_интерполяции_)</f>
-        <v>6.1899999999999951</v>
+        <v>8.1189683636363537</v>
       </c>
       <c r="D65" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B65,тип_интерполяции_)</f>
-        <v>4.3139999999999974</v>
+        <v>3.9497541032727215</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -12401,7 +12401,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="20">
         <f t="shared" si="0"/>
@@ -12409,11 +12409,11 @@
       </c>
       <c r="C66" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B66,тип_интерполяции_)</f>
-        <v>6.2624999999999948</v>
+        <v>8.2700471590908986</v>
       </c>
       <c r="D66" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B66,тип_интерполяции_)</f>
-        <v>4.3574999999999973</v>
+        <v>4.0525427670454475</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -12426,7 +12426,7 @@
       <c r="M66" s="6"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="20">
         <f t="shared" si="0"/>
@@ -12434,11 +12434,11 @@
       </c>
       <c r="C67" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B67,тип_интерполяции_)</f>
-        <v>6.3349999999999946</v>
+        <v>8.4166533636363532</v>
       </c>
       <c r="D67" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B67,тип_интерполяции_)</f>
-        <v>4.4009999999999971</v>
+        <v>4.1704010039999915</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -12451,7 +12451,7 @@
       <c r="M67" s="6"/>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="20">
         <f t="shared" si="0"/>
@@ -12459,11 +12459,11 @@
       </c>
       <c r="C68" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B68,тип_интерполяции_)</f>
-        <v>6.4074999999999944</v>
+        <v>8.5587869772727156</v>
       </c>
       <c r="D68" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B68,тип_интерполяции_)</f>
-        <v>4.444499999999997</v>
+        <v>4.3043065913181717</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -12476,7 +12476,7 @@
       <c r="M68" s="6"/>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="20">
         <f t="shared" si="0"/>
@@ -12484,11 +12484,11 @@
       </c>
       <c r="C69" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B69,тип_интерполяции_)</f>
-        <v>6.4799999999999942</v>
+        <v>8.6964479999999895</v>
       </c>
       <c r="D69" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B69,тип_интерполяции_)</f>
-        <v>4.4879999999999969</v>
+        <v>4.4552373061818065</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -12501,7 +12501,7 @@
       <c r="M69" s="6"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="20">
         <f t="shared" si="0"/>
@@ -12509,11 +12509,11 @@
       </c>
       <c r="C70" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B70,тип_интерполяции_)</f>
-        <v>6.552499999999994</v>
+        <v>8.8296364318181713</v>
       </c>
       <c r="D70" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B70,тип_интерполяции_)</f>
-        <v>4.6924999999999777</v>
+        <v>4.6259779461926813</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -12526,7 +12526,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="20">
         <f t="shared" si="0"/>
@@ -12534,11 +12534,11 @@
       </c>
       <c r="C71" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B71,тип_интерполяции_)</f>
-        <v>6.6249999999999938</v>
+        <v>8.9583522727272609</v>
       </c>
       <c r="D71" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B71,тип_интерполяции_)</f>
-        <v>4.9583333333333108</v>
+        <v>4.820680990819862</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -12551,7 +12551,7 @@
       <c r="M71" s="6"/>
       <c r="N71" s="7"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="20">
         <f t="shared" si="0"/>
@@ -12559,11 +12559,11 @@
       </c>
       <c r="C72" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B72,тип_интерполяции_)</f>
-        <v>6.6974999999999936</v>
+        <v>9.0825955227272619</v>
       </c>
       <c r="D72" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B72,тип_интерполяции_)</f>
-        <v>5.2241666666666431</v>
+        <v>5.0373020942401014</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -12576,7 +12576,7 @@
       <c r="M72" s="6"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="20">
         <f t="shared" si="0"/>
@@ -12584,11 +12584,11 @@
       </c>
       <c r="C73" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B73,тип_интерполяции_)</f>
-        <v>6.7699999999999934</v>
+        <v>9.2023661818181708</v>
       </c>
       <c r="D73" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B73,тип_интерполяции_)</f>
-        <v>5.4899999999999753</v>
+        <v>5.2734924755244528</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -12601,7 +12601,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="20">
         <f t="shared" si="0"/>
@@ -12609,11 +12609,11 @@
       </c>
       <c r="C74" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B74,тип_интерполяции_)</f>
-        <v>6.8424999999999931</v>
+        <v>9.3176642499999893</v>
       </c>
       <c r="D74" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B74,тип_интерполяции_)</f>
-        <v>5.7558333333333085</v>
+        <v>5.5269033537439682</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -12626,7 +12626,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="20">
         <f t="shared" si="0"/>
@@ -12634,11 +12634,11 @@
       </c>
       <c r="C75" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B75,тип_интерполяции_)</f>
-        <v>6.9149999999999929</v>
+        <v>9.4284897272727157</v>
       </c>
       <c r="D75" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B75,тип_интерполяции_)</f>
-        <v>6.0216666666666407</v>
+        <v>5.7951859479696992</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -12651,7 +12651,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="20">
         <f t="shared" si="0"/>
@@ -12659,11 +12659,11 @@
       </c>
       <c r="C76" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B76,тип_интерполяции_)</f>
-        <v>6.9874999999999927</v>
+        <v>9.5348426136363535</v>
       </c>
       <c r="D76" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B76,тип_интерполяции_)</f>
-        <v>6.287499999999973</v>
+        <v>6.0759914772726988</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -12676,7 +12676,7 @@
       <c r="M76" s="6"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="20">
         <f t="shared" si="0"/>
@@ -12684,11 +12684,11 @@
       </c>
       <c r="C77" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B77,тип_интерполяции_)</f>
-        <v>7.0599999999999925</v>
+        <v>9.6367229090908992</v>
       </c>
       <c r="D77" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B77,тип_интерполяции_)</f>
-        <v>6.5533333333333061</v>
+        <v>6.3669711607240194</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -12701,7 +12701,7 @@
       <c r="M77" s="6"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="20">
         <f t="shared" si="0"/>
@@ -12709,11 +12709,11 @@
       </c>
       <c r="C78" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B78,тип_интерполяции_)</f>
-        <v>7.1324999999999923</v>
+        <v>9.7341306136363528</v>
       </c>
       <c r="D78" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B78,тип_интерполяции_)</f>
-        <v>6.8191666666666384</v>
+        <v>6.665776217394713</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -12726,7 +12726,7 @@
       <c r="M78" s="6"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="20">
         <f t="shared" si="0"/>
@@ -12734,11 +12734,11 @@
       </c>
       <c r="C79" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B79,тип_интерполяции_)</f>
-        <v>7.2049999999999921</v>
+        <v>9.8270657272727178</v>
       </c>
       <c r="D79" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B79,тип_интерполяции_)</f>
-        <v>7.0849999999999707</v>
+        <v>6.970057866355833</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -12751,7 +12751,7 @@
       <c r="M79" s="6"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="20">
         <f t="shared" si="0"/>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="C80" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B80,тип_интерполяции_)</f>
-        <v>7.2774999999999919</v>
+        <v>9.9155282499999906</v>
       </c>
       <c r="D80" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B80,тип_интерполяции_)</f>
-        <v>7.3508333333333038</v>
+        <v>7.2774673266784307</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -12776,7 +12776,7 @@
       <c r="M80" s="6"/>
       <c r="N80" s="7"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="20">
         <f t="shared" si="0"/>
@@ -12784,11 +12784,11 @@
       </c>
       <c r="C81" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B81,тип_интерполяции_)</f>
-        <v>7.3499999999999917</v>
+        <v>9.9995181818181713</v>
       </c>
       <c r="D81" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B81,тип_интерполяции_)</f>
-        <v>7.6166666666666361</v>
+        <v>7.58565581743356</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -12801,7 +12801,7 @@
       <c r="M81" s="6"/>
       <c r="N81" s="7"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="20">
         <f t="shared" si="0"/>
@@ -12809,11 +12809,11 @@
       </c>
       <c r="C82" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B82,тип_интерполяции_)</f>
-        <v>7.4224999999999914</v>
+        <v>10.079035522727263</v>
       </c>
       <c r="D82" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B82,тип_интерполяции_)</f>
-        <v>7.8824999999999683</v>
+        <v>7.8922745576922715</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -12826,7 +12826,7 @@
       <c r="M82" s="6"/>
       <c r="N82" s="7"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="20">
         <f t="shared" si="0"/>
@@ -12834,11 +12834,11 @@
       </c>
       <c r="C83" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B83,тип_интерполяции_)</f>
-        <v>7.4949999999999912</v>
+        <v>10.154080272727263</v>
       </c>
       <c r="D83" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B83,тип_интерполяции_)</f>
-        <v>8.1483333333333015</v>
+        <v>8.1949747665256183</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -12851,7 +12851,7 @@
       <c r="M83" s="6"/>
       <c r="N83" s="7"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="20">
         <f t="shared" si="0"/>
@@ -12859,11 +12859,11 @@
       </c>
       <c r="C84" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B84,тип_интерполяции_)</f>
-        <v>7.567499999999991</v>
+        <v>10.224652431818173</v>
       </c>
       <c r="D84" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B84,тип_интерполяции_)</f>
-        <v>8.4141666666666328</v>
+        <v>8.4914076630046544</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -12876,7 +12876,7 @@
       <c r="M84" s="6"/>
       <c r="N84" s="7"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="20">
         <f t="shared" si="0"/>
@@ -12884,11 +12884,11 @@
       </c>
       <c r="C85" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B85,тип_интерполяции_)</f>
-        <v>7.6399999999999908</v>
+        <v>10.290751999999992</v>
       </c>
       <c r="D85" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B85,тип_интерполяции_)</f>
-        <v>8.679999999999966</v>
+        <v>8.7792244662004304</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -12901,7 +12901,7 @@
       <c r="M85" s="6"/>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="20">
         <f t="shared" si="0"/>
@@ -12909,11 +12909,11 @@
       </c>
       <c r="C86" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B86,тип_интерполяции_)</f>
-        <v>7.7124999999999906</v>
+        <v>10.352378977272719</v>
       </c>
       <c r="D86" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B86,тип_интерполяции_)</f>
-        <v>8.9458333333332991</v>
+        <v>9.0560763951839984</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -12926,7 +12926,7 @@
       <c r="M86" s="6"/>
       <c r="N86" s="7"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="20">
         <f t="shared" ref="B87:B150" si="1">B86+($B$15-$B$7)/200</f>
@@ -12934,11 +12934,11 @@
       </c>
       <c r="C87" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B87,тип_интерполяции_)</f>
-        <v>7.7849999999999904</v>
+        <v>10.409533363636356</v>
       </c>
       <c r="D87" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B87,тип_интерполяции_)</f>
-        <v>9.2116666666666305</v>
+        <v>9.3196146690264126</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -12951,7 +12951,7 @@
       <c r="M87" s="6"/>
       <c r="N87" s="7"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="20">
         <f t="shared" si="1"/>
@@ -12959,11 +12959,11 @@
       </c>
       <c r="C88" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B88,тип_интерполяции_)</f>
-        <v>7.8574999999999902</v>
+        <v>10.462215159090903</v>
       </c>
       <c r="D88" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B88,тип_интерполяции_)</f>
-        <v>9.4774999999999636</v>
+        <v>9.567490506798725</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -12976,7 +12976,7 @@
       <c r="M88" s="6"/>
       <c r="N88" s="7"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="20">
         <f t="shared" si="1"/>
@@ -12984,11 +12984,11 @@
       </c>
       <c r="C89" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B89,тип_интерполяции_)</f>
-        <v>7.9299999999999899</v>
+        <v>10.510424363636357</v>
       </c>
       <c r="D89" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B89,тип_интерполяции_)</f>
-        <v>9.7433333333332968</v>
+        <v>9.7973551275719863</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -13001,7 +13001,7 @@
       <c r="M89" s="6"/>
       <c r="N89" s="7"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="20">
         <f t="shared" si="1"/>
@@ -13009,11 +13009,11 @@
       </c>
       <c r="C90" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B90,тип_интерполяции_)</f>
-        <v>8.0024999999999906</v>
+        <v>10.554160977272721</v>
       </c>
       <c r="D90" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B90,тип_интерполяции_)</f>
-        <v>10.006249999999975</v>
+        <v>10.006871365224736</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -13026,7 +13026,7 @@
       <c r="M90" s="6"/>
       <c r="N90" s="7"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="20">
         <f t="shared" si="1"/>
@@ -13034,11 +13034,11 @@
       </c>
       <c r="C91" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B91,тип_интерполяции_)</f>
-        <v>8.0749999999999886</v>
+        <v>10.593424999999995</v>
       </c>
       <c r="D91" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B91,тип_интерполяции_)</f>
-        <v>10.187499999999973</v>
+        <v>10.204562967414502</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -13051,7 +13051,7 @@
       <c r="M91" s="6"/>
       <c r="N91" s="7"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="20">
         <f t="shared" si="1"/>
@@ -13059,11 +13059,11 @@
       </c>
       <c r="C92" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B92,тип_интерполяции_)</f>
-        <v>8.1474999999999902</v>
+        <v>10.628216431818176</v>
       </c>
       <c r="D92" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B92,тип_интерполяции_)</f>
-        <v>10.368749999999974</v>
+        <v>10.399337323626865</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -13076,7 +13076,7 @@
       <c r="M92" s="6"/>
       <c r="N92" s="7"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="20">
         <f t="shared" si="1"/>
@@ -13084,11 +13084,11 @@
       </c>
       <c r="C93" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B93,тип_интерполяции_)</f>
-        <v>8.2199999999999882</v>
+        <v>10.658535272727269</v>
       </c>
       <c r="D93" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B93,тип_интерполяции_)</f>
-        <v>10.549999999999972</v>
+        <v>10.591391339031311</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -13101,7 +13101,7 @@
       <c r="M93" s="6"/>
       <c r="N93" s="7"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="20">
         <f t="shared" si="1"/>
@@ -13109,11 +13109,11 @@
       </c>
       <c r="C94" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B94,тип_интерполяции_)</f>
-        <v>8.2924999999999898</v>
+        <v>10.68438152272727</v>
       </c>
       <c r="D94" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B94,тип_интерполяции_)</f>
-        <v>10.731249999999973</v>
+        <v>10.78092191879732</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -13126,7 +13126,7 @@
       <c r="M94" s="6"/>
       <c r="N94" s="7"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="20">
         <f t="shared" si="1"/>
@@ -13134,11 +13134,11 @@
       </c>
       <c r="C95" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B95,тип_интерполяции_)</f>
-        <v>8.3649999999999878</v>
+        <v>10.705755181818178</v>
       </c>
       <c r="D95" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B95,тип_интерполяции_)</f>
-        <v>10.912499999999971</v>
+        <v>10.968125968094377</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -13151,7 +13151,7 @@
       <c r="M95" s="6"/>
       <c r="N95" s="7"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="20">
         <f t="shared" si="1"/>
@@ -13159,11 +13159,11 @@
       </c>
       <c r="C96" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B96,тип_интерполяции_)</f>
-        <v>8.4374999999999893</v>
+        <v>10.722656249999998</v>
       </c>
       <c r="D96" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B96,тип_интерполяции_)</f>
-        <v>11.093749999999972</v>
+        <v>11.153200392091964</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -13176,7 +13176,7 @@
       <c r="M96" s="6"/>
       <c r="N96" s="7"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="20">
         <f t="shared" si="1"/>
@@ -13184,11 +13184,11 @@
       </c>
       <c r="C97" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B97,тип_интерполяции_)</f>
-        <v>8.5099999999999874</v>
+        <v>10.735084727272726</v>
       </c>
       <c r="D97" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B97,тип_интерполяции_)</f>
-        <v>11.27499999999997</v>
+        <v>11.336342095959566</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -13201,7 +13201,7 @@
       <c r="M97" s="6"/>
       <c r="N97" s="7"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="20">
         <f t="shared" si="1"/>
@@ -13209,11 +13209,11 @@
       </c>
       <c r="C98" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B98,тип_интерполяции_)</f>
-        <v>8.5824999999999889</v>
+        <v>10.743040613636362</v>
       </c>
       <c r="D98" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B98,тип_интерполяции_)</f>
-        <v>11.456249999999971</v>
+        <v>11.517747984866666</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -13226,7 +13226,7 @@
       <c r="M98" s="6"/>
       <c r="N98" s="7"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="20">
         <f t="shared" si="1"/>
@@ -13234,11 +13234,11 @@
       </c>
       <c r="C99" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B99,тип_интерполяции_)</f>
-        <v>8.6549999999999869</v>
+        <v>10.746523909090909</v>
       </c>
       <c r="D99" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B99,тип_интерполяции_)</f>
-        <v>11.637499999999969</v>
+        <v>11.697614963982746</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -13251,7 +13251,7 @@
       <c r="M99" s="6"/>
       <c r="N99" s="7"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="20">
         <f t="shared" si="1"/>
@@ -13259,11 +13259,11 @@
       </c>
       <c r="C100" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B100,тип_интерполяции_)</f>
-        <v>8.7274999999999885</v>
+        <v>10.745534613636364</v>
       </c>
       <c r="D100" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B100,тип_интерполяции_)</f>
-        <v>11.818749999999969</v>
+        <v>11.876139938477291</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -13276,7 +13276,7 @@
       <c r="M100" s="6"/>
       <c r="N100" s="7"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="20">
         <f t="shared" si="1"/>
@@ -13284,11 +13284,11 @@
       </c>
       <c r="C101" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B101,тип_интерполяции_)</f>
-        <v>8.7999999999999865</v>
+        <v>10.740072727272729</v>
       </c>
       <c r="D101" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B101,тип_интерполяции_)</f>
-        <v>11.999999999999968</v>
+        <v>12.053519813519783</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -13301,7 +13301,7 @@
       <c r="M101" s="6"/>
       <c r="N101" s="7"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="20">
         <f t="shared" si="1"/>
@@ -13309,11 +13309,11 @@
       </c>
       <c r="C102" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B102,тип_интерполяции_)</f>
-        <v>8.8724999999999881</v>
+        <v>10.730138250000001</v>
       </c>
       <c r="D102" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B102,тип_интерполяции_)</f>
-        <v>12.181249999999968</v>
+        <v>12.229951494279705</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -13326,7 +13326,7 @@
       <c r="M102" s="6"/>
       <c r="N102" s="7"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="20">
         <f t="shared" si="1"/>
@@ -13334,11 +13334,11 @@
       </c>
       <c r="C103" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B103,тип_интерполяции_)</f>
-        <v>8.9449999999999861</v>
+        <v>10.715731181818185</v>
       </c>
       <c r="D103" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B103,тип_интерполяции_)</f>
-        <v>12.362499999999967</v>
+        <v>12.405631885926542</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -13351,7 +13351,7 @@
       <c r="M103" s="6"/>
       <c r="N103" s="7"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="20">
         <f t="shared" si="1"/>
@@ -13359,11 +13359,11 @@
       </c>
       <c r="C104" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B104,тип_интерполяции_)</f>
-        <v>9.0174999999999876</v>
+        <v>10.696851522727277</v>
       </c>
       <c r="D104" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B104,тип_интерполяции_)</f>
-        <v>12.543749999999967</v>
+        <v>12.580757893629777</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -13376,7 +13376,7 @@
       <c r="M104" s="6"/>
       <c r="N104" s="7"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="20">
         <f t="shared" si="1"/>
@@ -13384,11 +13384,11 @@
       </c>
       <c r="C105" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B105,тип_интерполяции_)</f>
-        <v>9.0899999999999856</v>
+        <v>10.673499272727277</v>
       </c>
       <c r="D105" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B105,тип_интерполяции_)</f>
-        <v>12.724999999999966</v>
+        <v>12.755526422558891</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -13401,7 +13401,7 @@
       <c r="M105" s="6"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="20">
         <f t="shared" si="1"/>
@@ -13409,11 +13409,11 @@
       </c>
       <c r="C106" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B106,тип_интерполяции_)</f>
-        <v>9.1624999999999872</v>
+        <v>10.645674431818188</v>
       </c>
       <c r="D106" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B106,тип_интерполяции_)</f>
-        <v>12.906249999999966</v>
+        <v>12.930134377883368</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -13426,7 +13426,7 @@
       <c r="M106" s="6"/>
       <c r="N106" s="7"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="20">
         <f t="shared" si="1"/>
@@ -13434,11 +13434,11 @@
       </c>
       <c r="C107" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B107,тип_интерполяции_)</f>
-        <v>9.2349999999999852</v>
+        <v>10.613377000000007</v>
       </c>
       <c r="D107" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B107,тип_интерполяции_)</f>
-        <v>13.087499999999965</v>
+        <v>13.104778664772693</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -13451,7 +13451,7 @@
       <c r="M107" s="6"/>
       <c r="N107" s="7"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="20">
         <f t="shared" si="1"/>
@@ -13459,11 +13459,11 @@
       </c>
       <c r="C108" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B108,тип_интерполяции_)</f>
-        <v>9.3074999999999868</v>
+        <v>10.576606977272734</v>
       </c>
       <c r="D108" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B108,тип_интерполяции_)</f>
-        <v>13.268749999999965</v>
+        <v>13.27965618839635</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -13476,7 +13476,7 @@
       <c r="M108" s="6"/>
       <c r="N108" s="7"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="20">
         <f t="shared" si="1"/>
@@ -13484,11 +13484,11 @@
       </c>
       <c r="C109" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B109,тип_интерполяции_)</f>
-        <v>9.3799999999999848</v>
+        <v>10.535364363636372</v>
       </c>
       <c r="D109" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B109,тип_интерполяции_)</f>
-        <v>13.449999999999964</v>
+        <v>13.45496385392382</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -13501,7 +13501,7 @@
       <c r="M109" s="6"/>
       <c r="N109" s="7"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="20">
         <f t="shared" si="1"/>
@@ -13509,11 +13509,11 @@
       </c>
       <c r="C110" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B110,тип_интерполяции_)</f>
-        <v>9.4524999999999864</v>
+        <v>10.489649159090918</v>
       </c>
       <c r="D110" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B110,тип_интерполяции_)</f>
-        <v>13.631249999999964</v>
+        <v>13.630898566524586</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -13526,7 +13526,7 @@
       <c r="M110" s="6"/>
       <c r="N110" s="7"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="20">
         <f t="shared" si="1"/>
@@ -13534,11 +13534,11 @@
       </c>
       <c r="C111" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B111,тип_интерполяции_)</f>
-        <v>9.5249999999999844</v>
+        <v>10.439461363636374</v>
       </c>
       <c r="D111" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B111,тип_интерполяции_)</f>
-        <v>13.812499999999963</v>
+        <v>13.807657231368132</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -13551,7 +13551,7 @@
       <c r="M111" s="6"/>
       <c r="N111" s="7"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="20">
         <f t="shared" si="1"/>
@@ -13559,11 +13559,11 @@
       </c>
       <c r="C112" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B112,тип_интерполяции_)</f>
-        <v>9.5974999999999859</v>
+        <v>10.384800977272739</v>
       </c>
       <c r="D112" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B112,тип_интерполяции_)</f>
-        <v>13.993749999999963</v>
+        <v>13.985436753623944</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -13576,7 +13576,7 @@
       <c r="M112" s="6"/>
       <c r="N112" s="7"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="20">
         <f t="shared" si="1"/>
@@ -13584,11 +13584,11 @@
       </c>
       <c r="C113" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B113,тип_интерполяции_)</f>
-        <v>9.6699999999999839</v>
+        <v>10.325668000000013</v>
       </c>
       <c r="D113" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B113,тип_интерполяции_)</f>
-        <v>14.174999999999962</v>
+        <v>14.164434038461501</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -13601,7 +13601,7 @@
       <c r="M113" s="6"/>
       <c r="N113" s="7"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="20">
         <f t="shared" si="1"/>
@@ -13609,11 +13609,11 @@
       </c>
       <c r="C114" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B114,тип_интерполяции_)</f>
-        <v>9.7424999999999855</v>
+        <v>10.262062431818196</v>
       </c>
       <c r="D114" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B114,тип_интерполяции_)</f>
-        <v>14.356249999999962</v>
+        <v>14.344845991050288</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -13626,7 +13626,7 @@
       <c r="M114" s="6"/>
       <c r="N114" s="7"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="20">
         <f t="shared" si="1"/>
@@ -13634,11 +13634,11 @@
       </c>
       <c r="C115" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B115,тип_интерполяции_)</f>
-        <v>9.8149999999999835</v>
+        <v>10.193984272727288</v>
       </c>
       <c r="D115" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B115,тип_интерполяции_)</f>
-        <v>14.537499999999961</v>
+        <v>14.52686951655979</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -13651,7 +13651,7 @@
       <c r="M115" s="6"/>
       <c r="N115" s="7"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="20">
         <f t="shared" si="1"/>
@@ -13659,11 +13659,11 @@
       </c>
       <c r="C116" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B116,тип_интерполяции_)</f>
-        <v>9.8874999999999851</v>
+        <v>10.121433522727289</v>
       </c>
       <c r="D116" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B116,тип_интерполяции_)</f>
-        <v>14.718749999999961</v>
+        <v>14.710701520159487</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -13676,7 +13676,7 @@
       <c r="M116" s="6"/>
       <c r="N116" s="7"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="20">
         <f t="shared" si="1"/>
@@ -13684,11 +13684,11 @@
       </c>
       <c r="C117" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B117,тип_интерполяции_)</f>
-        <v>9.9599999999999831</v>
+        <v>10.044410181818199</v>
       </c>
       <c r="D117" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B117,тип_интерполяции_)</f>
-        <v>14.899999999999959</v>
+        <v>14.896538907018865</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -13701,7 +13701,7 @@
       <c r="M117" s="6"/>
       <c r="N117" s="7"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="20">
         <f t="shared" si="1"/>
@@ -13709,11 +13709,11 @@
       </c>
       <c r="C118" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B118,тип_интерполяции_)</f>
-        <v>9.8212500000000897</v>
+        <v>9.9563324684171928</v>
       </c>
       <c r="D118" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B118,тип_интерполяции_)</f>
-        <v>15.108333333333279</v>
+        <v>15.085897408793379</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -13726,7 +13726,7 @@
       <c r="M118" s="6"/>
       <c r="N118" s="7"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="20">
         <f t="shared" si="1"/>
@@ -13734,11 +13734,11 @@
       </c>
       <c r="C119" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B119,тип_интерполяции_)</f>
-        <v>9.42250000000009</v>
+        <v>9.8100620685495059</v>
       </c>
       <c r="D119" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B119,тип_интерполяции_)</f>
-        <v>15.349999999999945</v>
+        <v>15.288181053163656</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -13751,7 +13751,7 @@
       <c r="M119" s="6"/>
       <c r="N119" s="7"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="20">
         <f t="shared" si="1"/>
@@ -13759,11 +13759,11 @@
       </c>
       <c r="C120" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B120,тип_интерполяции_)</f>
-        <v>9.0237500000000921</v>
+        <v>9.6005604756058371</v>
       </c>
       <c r="D120" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B120,тип_интерполяции_)</f>
-        <v>15.591666666666612</v>
+        <v>15.503949439173374</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -13776,7 +13776,7 @@
       <c r="M120" s="6"/>
       <c r="N120" s="7"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="20">
         <f t="shared" si="1"/>
@@ -13784,11 +13784,11 @@
       </c>
       <c r="C121" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B121,тип_интерполяции_)</f>
-        <v>8.6250000000000924</v>
+        <v>9.3330227829768955</v>
       </c>
       <c r="D121" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B121,тип_интерполяции_)</f>
-        <v>15.833333333333277</v>
+        <v>15.731677031877782</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -13801,7 +13801,7 @@
       <c r="M121" s="6"/>
       <c r="N121" s="7"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="20">
         <f t="shared" si="1"/>
@@ -13809,11 +13809,11 @@
       </c>
       <c r="C122" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B122,тип_интерполяции_)</f>
-        <v>8.2262500000000944</v>
+        <v>9.0126440840533899</v>
       </c>
       <c r="D122" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B122,тип_интерполяции_)</f>
-        <v>16.074999999999942</v>
+        <v>15.969838296332124</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -13826,7 +13826,7 @@
       <c r="M122" s="6"/>
       <c r="N122" s="7"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="20">
         <f t="shared" si="1"/>
@@ -13834,11 +13834,11 @@
       </c>
       <c r="C123" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B123,тип_интерполяции_)</f>
-        <v>7.8275000000000947</v>
+        <v>8.6446194722260294</v>
       </c>
       <c r="D123" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B123,тип_интерполяции_)</f>
-        <v>16.31666666666661</v>
+        <v>16.216907697591655</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -13851,7 +13851,7 @@
       <c r="M123" s="6"/>
       <c r="N123" s="7"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="20">
         <f t="shared" si="1"/>
@@ -13859,11 +13859,11 @@
       </c>
       <c r="C124" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B124,тип_интерполяции_)</f>
-        <v>7.4287500000000968</v>
+        <v>8.2341440408855213</v>
       </c>
       <c r="D124" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B124,тип_интерполяции_)</f>
-        <v>16.558333333333277</v>
+        <v>16.471359700711616</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -13876,7 +13876,7 @@
       <c r="M124" s="6"/>
       <c r="N124" s="7"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="20">
         <f t="shared" si="1"/>
@@ -13884,11 +13884,11 @@
       </c>
       <c r="C125" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B125,тип_интерполяции_)</f>
-        <v>7.0300000000000926</v>
+        <v>7.7864128834225674</v>
       </c>
       <c r="D125" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B125,тип_интерполяции_)</f>
-        <v>16.799999999999944</v>
+        <v>16.731668770747262</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
@@ -13901,7 +13901,7 @@
       <c r="M125" s="6"/>
       <c r="N125" s="7"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="20">
         <f t="shared" si="1"/>
@@ -13909,11 +13909,11 @@
       </c>
       <c r="C126" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B126,тип_интерполяции_)</f>
-        <v>6.6312500000000938</v>
+        <v>7.3066210932278901</v>
       </c>
       <c r="D126" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B126,тип_интерполяции_)</f>
-        <v>17.041666666666611</v>
+        <v>16.996309372753839</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -13926,7 +13926,7 @@
       <c r="M126" s="6"/>
       <c r="N126" s="7"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="20">
         <f t="shared" si="1"/>
@@ -13934,11 +13934,11 @@
       </c>
       <c r="C127" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B127,тип_интерполяции_)</f>
-        <v>6.232500000000095</v>
+        <v>6.7999637636921912</v>
       </c>
       <c r="D127" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B127,тип_интерполяции_)</f>
-        <v>17.283333333333275</v>
+        <v>17.26375597178659</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -13951,7 +13951,7 @@
       <c r="M127" s="6"/>
       <c r="N127" s="7"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="20">
         <f t="shared" si="1"/>
@@ -13959,11 +13959,11 @@
       </c>
       <c r="C128" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B128,тип_интерполяции_)</f>
-        <v>5.8337500000000961</v>
+        <v>6.271635988206179</v>
       </c>
       <c r="D128" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B128,тип_интерполяции_)</f>
-        <v>17.524999999999942</v>
+        <v>17.532483032900767</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -13976,7 +13976,7 @@
       <c r="M128" s="6"/>
       <c r="N128" s="7"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="20">
         <f t="shared" si="1"/>
@@ -13984,11 +13984,11 @@
       </c>
       <c r="C129" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B129,тип_интерполяции_)</f>
-        <v>5.4350000000000973</v>
+        <v>5.7268328601605623</v>
       </c>
       <c r="D129" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B129,тип_интерполяции_)</f>
-        <v>17.766666666666609</v>
+        <v>17.800965021151622</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -14001,7 +14001,7 @@
       <c r="M129" s="6"/>
       <c r="N129" s="7"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="20">
         <f t="shared" si="1"/>
@@ -14009,11 +14009,11 @@
       </c>
       <c r="C130" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B130,тип_интерполяции_)</f>
-        <v>5.0362500000000985</v>
+        <v>5.1707494729460493</v>
       </c>
       <c r="D130" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B130,тип_интерполяции_)</f>
-        <v>18.008333333333272</v>
+        <v>18.067676401594397</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -14026,7 +14026,7 @@
       <c r="M130" s="6"/>
       <c r="N130" s="7"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="20">
         <f t="shared" si="1"/>
@@ -14034,11 +14034,11 @@
       </c>
       <c r="C131" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B131,тип_интерполяции_)</f>
-        <v>4.6375000000000997</v>
+        <v>4.6085809199533498</v>
       </c>
       <c r="D131" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B131,тип_интерполяции_)</f>
-        <v>18.24999999999994</v>
+        <v>18.331091639284345</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -14051,7 +14051,7 @@
       <c r="M131" s="6"/>
       <c r="N131" s="7"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="20">
         <f t="shared" si="1"/>
@@ -14059,11 +14059,11 @@
       </c>
       <c r="C132" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B132,тип_интерполяции_)</f>
-        <v>4.2387500000001008</v>
+        <v>4.0455222945731704</v>
       </c>
       <c r="D132" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B132,тип_интерполяции_)</f>
-        <v>18.491666666666607</v>
+        <v>18.589685199276712</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -14076,7 +14076,7 @@
       <c r="M132" s="6"/>
       <c r="N132" s="7"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="20">
         <f t="shared" si="1"/>
@@ -14084,11 +14084,11 @@
       </c>
       <c r="C133" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B133,тип_интерполяции_)</f>
-        <v>3.840000000000102</v>
+        <v>3.4867686901962203</v>
       </c>
       <c r="D133" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B133,тип_интерполяции_)</f>
-        <v>18.73333333333327</v>
+        <v>18.841931546626743</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -14101,7 +14101,7 @@
       <c r="M133" s="6"/>
       <c r="N133" s="7"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="20">
         <f t="shared" si="1"/>
@@ -14109,11 +14109,11 @@
       </c>
       <c r="C134" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B134,тип_интерполяции_)</f>
-        <v>3.4412500000001032</v>
+        <v>2.9375152002132086</v>
       </c>
       <c r="D134" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B134,тип_интерполяции_)</f>
-        <v>18.974999999999937</v>
+        <v>19.086305146389694</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -14126,7 +14126,7 @@
       <c r="M134" s="6"/>
       <c r="N134" s="7"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="20">
         <f t="shared" si="1"/>
@@ -14134,11 +14134,11 @@
       </c>
       <c r="C135" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B135,тип_интерполяции_)</f>
-        <v>3.0425000000001043</v>
+        <v>2.4029569180148433</v>
       </c>
       <c r="D135" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B135,тип_интерполяции_)</f>
-        <v>19.216666666666605</v>
+        <v>19.321280463620806</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -14151,7 +14151,7 @@
       <c r="M135" s="6"/>
       <c r="N135" s="7"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="20">
         <f t="shared" si="1"/>
@@ -14159,11 +14159,11 @@
       </c>
       <c r="C136" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B136,тип_интерполяции_)</f>
-        <v>2.6437500000001055</v>
+        <v>1.8882889369918332</v>
       </c>
       <c r="D136" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B136,тип_интерполяции_)</f>
-        <v>19.458333333333268</v>
+        <v>19.545331963375329</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -14176,7 +14176,7 @@
       <c r="M136" s="6"/>
       <c r="N136" s="7"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="20">
         <f t="shared" si="1"/>
@@ -14184,11 +14184,11 @@
       </c>
       <c r="C137" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B137,тип_интерполяции_)</f>
-        <v>2.2450000000001067</v>
+        <v>1.3987063505348865</v>
       </c>
       <c r="D137" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B137,тип_интерполяции_)</f>
-        <v>19.699999999999935</v>
+        <v>19.756934110708514</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -14201,7 +14201,7 @@
       <c r="M137" s="6"/>
       <c r="N137" s="7"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="20">
         <f t="shared" si="1"/>
@@ -14209,11 +14209,11 @@
       </c>
       <c r="C138" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B138,тип_интерполяции_)</f>
-        <v>1.8462500000001079</v>
+        <v>0.93940425203471178</v>
       </c>
       <c r="D138" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B138,тип_интерполяции_)</f>
-        <v>19.941666666666602</v>
+        <v>19.954561370675606</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -14226,7 +14226,7 @@
       <c r="M138" s="6"/>
       <c r="N138" s="7"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="20">
         <f t="shared" si="1"/>
@@ -14234,11 +14234,11 @@
       </c>
       <c r="C139" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B139,тип_интерполяции_)</f>
-        <v>1.447500000000109</v>
+        <v>0.51557773488201775</v>
       </c>
       <c r="D139" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B139,тип_интерполяции_)</f>
-        <v>19.685714285714401</v>
+        <v>20.121532895693523</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -14251,7 +14251,7 @@
       <c r="M139" s="6"/>
       <c r="N139" s="7"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="20">
         <f t="shared" si="1"/>
@@ -14259,11 +14259,11 @@
       </c>
       <c r="C140" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B140,тип_интерполяции_)</f>
-        <v>1.0487500000001102</v>
+        <v>0.13242189246751274</v>
       </c>
       <c r="D140" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B140,тип_интерполяции_)</f>
-        <v>19.271428571428686</v>
+        <v>20.222564467236779</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -14276,7 +14276,7 @@
       <c r="M140" s="6"/>
       <c r="N140" s="7"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="20">
         <f t="shared" si="1"/>
@@ -14284,11 +14284,11 @@
       </c>
       <c r="C141" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B141,тип_интерполяции_)</f>
-        <v>0.65000000000011138</v>
+        <v>-0.20486818181809469</v>
       </c>
       <c r="D141" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B141,тип_интерполяции_)</f>
-        <v>18.857142857142971</v>
+        <v>20.258860352826421</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -14301,7 +14301,7 @@
       <c r="M141" s="6"/>
       <c r="N141" s="7"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="20">
         <f t="shared" si="1"/>
@@ -14309,11 +14309,11 @@
       </c>
       <c r="C142" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B142,тип_интерполяции_)</f>
-        <v>0.25125000000011255</v>
+        <v>-0.49109739458409607</v>
       </c>
       <c r="D142" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B142,тип_интерполяции_)</f>
-        <v>18.44285714285726</v>
+        <v>20.233200952301878</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -14326,7 +14326,7 @@
       <c r="M142" s="6"/>
       <c r="N142" s="7"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="20">
         <f t="shared" si="1"/>
@@ -14334,11 +14334,11 @@
       </c>
       <c r="C143" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B143,тип_интерполяции_)</f>
-        <v>-0.14749999999988628</v>
+        <v>-0.72107065243978286</v>
       </c>
       <c r="D143" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B143,тип_интерполяции_)</f>
-        <v>18.028571428571546</v>
+        <v>20.148366665502589</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
@@ -14351,7 +14351,7 @@
       <c r="M143" s="6"/>
       <c r="N143" s="7"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="20">
         <f t="shared" si="1"/>
@@ -14359,11 +14359,11 @@
       </c>
       <c r="C144" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B144,тип_интерполяции_)</f>
-        <v>-0.54624999999988511</v>
+        <v>-0.88959286199444643</v>
       </c>
       <c r="D144" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B144,тип_интерполяции_)</f>
-        <v>17.614285714285835</v>
+        <v>20.007137892267988</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -14376,7 +14376,7 @@
       <c r="M144" s="6"/>
       <c r="N144" s="7"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="20">
         <f t="shared" si="1"/>
@@ -14384,11 +14384,11 @@
       </c>
       <c r="C145" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B145,тип_интерполяции_)</f>
-        <v>-0.94499999999988393</v>
+        <v>-0.99146892985737844</v>
       </c>
       <c r="D145" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B145,тип_интерполяции_)</f>
-        <v>17.20000000000012</v>
+        <v>19.812295032437508</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -14401,7 +14401,7 @@
       <c r="M145" s="6"/>
       <c r="N145" s="7"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="20">
         <f t="shared" si="1"/>
@@ -14409,11 +14409,11 @@
       </c>
       <c r="C146" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B146,тип_интерполяции_)</f>
-        <v>-0.95833333333334758</v>
+        <v>-1.0453888152483073</v>
       </c>
       <c r="D146" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B146,тип_интерполяции_)</f>
-        <v>16.785714285714409</v>
+        <v>19.566618485850579</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -14426,7 +14426,7 @@
       <c r="M146" s="6"/>
       <c r="N146" s="7"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="20">
         <f t="shared" si="1"/>
@@ -14434,11 +14434,11 @@
       </c>
       <c r="C147" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B147,тип_интерполяции_)</f>
-        <v>-0.91000000000001435</v>
+        <v>-1.0889077478991482</v>
       </c>
       <c r="D147" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B147,тип_интерполяции_)</f>
-        <v>16.371428571428694</v>
+        <v>19.272888652346641</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -14451,7 +14451,7 @@
       <c r="M147" s="6"/>
       <c r="N147" s="7"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="20">
         <f t="shared" si="1"/>
@@ -14459,11 +14459,11 @@
       </c>
       <c r="C148" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B148,тип_интерполяции_)</f>
-        <v>-0.86166666666668112</v>
+        <v>-1.1225607196322887</v>
       </c>
       <c r="D148" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B148,тип_интерполяции_)</f>
-        <v>15.957142857142982</v>
+        <v>18.933885931765126</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -14476,7 +14476,7 @@
       <c r="M148" s="6"/>
       <c r="N148" s="7"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="20">
         <f t="shared" si="1"/>
@@ -14484,11 +14484,11 @@
       </c>
       <c r="C149" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B149,тип_интерполяции_)</f>
-        <v>-0.81333333333334801</v>
+        <v>-1.146287546840953</v>
       </c>
       <c r="D149" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B149,тип_интерполяции_)</f>
-        <v>15.542857142857269</v>
+        <v>18.552390723945464</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -14501,7 +14501,7 @@
       <c r="M149" s="6"/>
       <c r="N149" s="7"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="20">
         <f t="shared" si="1"/>
@@ -14509,11 +14509,11 @@
       </c>
       <c r="C150" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B150,тип_интерполяции_)</f>
-        <v>-0.76500000000001478</v>
+        <v>-1.1600280459183647</v>
       </c>
       <c r="D150" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B150,тип_интерполяции_)</f>
-        <v>15.128571428571556</v>
+        <v>18.131183428727098</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -14526,7 +14526,7 @@
       <c r="M150" s="6"/>
       <c r="N150" s="7"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="20">
         <f t="shared" ref="B151:B196" si="2">B150+($B$15-$B$7)/200</f>
@@ -14534,11 +14534,11 @@
       </c>
       <c r="C151" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B151,тип_интерполяции_)</f>
-        <v>-0.71666666666668155</v>
+        <v>-1.163722033257748</v>
       </c>
       <c r="D151" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B151,тип_интерполяции_)</f>
-        <v>14.714285714285841</v>
+        <v>17.673044445949451</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -14551,7 +14551,7 @@
       <c r="M151" s="6"/>
       <c r="N151" s="7"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="20">
         <f t="shared" si="2"/>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="C152" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B152,тип_интерполяции_)</f>
-        <v>-0.66833333333334843</v>
+        <v>-1.1573093252523268</v>
       </c>
       <c r="D152" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B152,тип_интерполяции_)</f>
-        <v>14.300000000000129</v>
+        <v>17.180754175451966</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
@@ -14576,7 +14576,7 @@
       <c r="M152" s="6"/>
       <c r="N152" s="7"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="20">
         <f t="shared" si="2"/>
@@ -14584,11 +14584,11 @@
       </c>
       <c r="C153" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B153,тип_интерполяции_)</f>
-        <v>-0.62000000000001521</v>
+        <v>-1.140729738295325</v>
       </c>
       <c r="D153" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B153,тип_интерполяции_)</f>
-        <v>13.885714285714416</v>
+        <v>16.657093017074072</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -14601,7 +14601,7 @@
       <c r="M153" s="6"/>
       <c r="N153" s="7"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="20">
         <f t="shared" si="2"/>
@@ -14609,11 +14609,11 @@
       </c>
       <c r="C154" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B154,тип_интерполяции_)</f>
-        <v>-0.57166666666668209</v>
+        <v>-1.1139230887799665</v>
       </c>
       <c r="D154" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B154,тип_интерполяции_)</f>
-        <v>13.471428571428703</v>
+        <v>16.104841370655205</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -14626,7 +14626,7 @@
       <c r="M154" s="6"/>
       <c r="N154" s="7"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="20">
         <f t="shared" si="2"/>
@@ -14634,11 +14634,11 @@
       </c>
       <c r="C155" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B155,тип_интерполяции_)</f>
-        <v>-0.52333333333334886</v>
+        <v>-1.0768291930994756</v>
       </c>
       <c r="D155" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B155,тип_интерполяции_)</f>
-        <v>13.05714285714299</v>
+        <v>15.526779636034796</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -14651,7 +14651,7 @@
       <c r="M155" s="6"/>
       <c r="N155" s="7"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="20">
         <f t="shared" si="2"/>
@@ -14659,11 +14659,11 @@
       </c>
       <c r="C156" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B156,тип_интерполяции_)</f>
-        <v>-0.47500000000001569</v>
+        <v>-1.0293878676470758</v>
       </c>
       <c r="D156" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B156,тип_интерполяции_)</f>
-        <v>12.642857142857277</v>
+        <v>14.925688213052283</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -14676,7 +14676,7 @@
       <c r="M156" s="6"/>
       <c r="N156" s="7"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="20">
         <f t="shared" si="2"/>
@@ -14684,11 +14684,11 @@
       </c>
       <c r="C157" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B157,тип_интерполяции_)</f>
-        <v>-0.42666666666668246</v>
+        <v>-0.97153892881599135</v>
       </c>
       <c r="D157" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B157,тип_интерполяции_)</f>
-        <v>12.228571428571563</v>
+        <v>14.304347501547097</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -14701,7 +14701,7 @@
       <c r="M157" s="6"/>
       <c r="N157" s="7"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="20">
         <f t="shared" si="2"/>
@@ -14709,11 +14709,11 @@
       </c>
       <c r="C158" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B158,тип_интерполяции_)</f>
-        <v>-0.37833333333334929</v>
+        <v>-0.90322219299944617</v>
       </c>
       <c r="D158" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B158,тип_интерполяции_)</f>
-        <v>11.81428571428585</v>
+        <v>13.665537901358675</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -14726,7 +14726,7 @@
       <c r="M158" s="6"/>
       <c r="N158" s="7"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="20">
         <f t="shared" si="2"/>
@@ -14734,11 +14734,11 @@
       </c>
       <c r="C159" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B159,тип_интерполяции_)</f>
-        <v>-0.33000000000001611</v>
+        <v>-0.82437747659066418</v>
       </c>
       <c r="D159" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B159,тип_интерполяции_)</f>
-        <v>11.400000000000137</v>
+        <v>13.012039812326448</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -14751,7 +14751,7 @@
       <c r="M159" s="6"/>
       <c r="N159" s="7"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="20">
         <f t="shared" si="2"/>
@@ -14759,11 +14759,11 @@
       </c>
       <c r="C160" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B160,тип_интерполяции_)</f>
-        <v>-0.28166666666668289</v>
+        <v>-0.73494459598286932</v>
       </c>
       <c r="D160" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B160,тип_интерполяции_)</f>
-        <v>10.985714285714424</v>
+        <v>12.34663363428985</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -14776,7 +14776,7 @@
       <c r="M160" s="6"/>
       <c r="N160" s="7"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="20">
         <f t="shared" si="2"/>
@@ -14784,11 +14784,11 @@
       </c>
       <c r="C161" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B161,тип_интерполяции_)</f>
-        <v>-0.23333333333334971</v>
+        <v>-0.63486336756928552</v>
       </c>
       <c r="D161" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B161,тип_интерполяции_)</f>
-        <v>10.571428571428712</v>
+        <v>11.672099767088318</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -14801,7 +14801,7 @@
       <c r="M161" s="6"/>
       <c r="N161" s="7"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="20">
         <f t="shared" si="2"/>
@@ -14809,11 +14809,11 @@
       </c>
       <c r="C162" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B162,тип_интерполяции_)</f>
-        <v>-0.18500000000001654</v>
+        <v>-0.52407360774313683</v>
       </c>
       <c r="D162" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B162,тип_интерполяции_)</f>
-        <v>10.157142857142999</v>
+        <v>10.991218610561281</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -14826,7 +14826,7 @@
       <c r="M162" s="6"/>
       <c r="N162" s="7"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="20">
         <f t="shared" si="2"/>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C163" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B163,тип_интерполяции_)</f>
-        <v>-0.13666666666668334</v>
+        <v>-0.40251513289764718</v>
       </c>
       <c r="D163" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B163,тип_интерполяции_)</f>
-        <v>9.7428571428572859</v>
+        <v>10.306770564548179</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -14851,7 +14851,7 @@
       <c r="M163" s="6"/>
       <c r="N163" s="7"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="20">
         <f t="shared" si="2"/>
@@ -14859,11 +14859,11 @@
       </c>
       <c r="C164" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B164,тип_интерполяции_)</f>
-        <v>-8.8333333333350153E-2</v>
+        <v>-0.27012775942604045</v>
       </c>
       <c r="D164" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B164,тип_интерполяции_)</f>
-        <v>9.3285714285715713</v>
+        <v>9.6215360288884408</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -14876,7 +14876,7 @@
       <c r="M164" s="6"/>
       <c r="N164" s="7"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="20">
         <f t="shared" si="2"/>
@@ -14884,11 +14884,11 @@
       </c>
       <c r="C165" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B165,тип_интерполяции_)</f>
-        <v>-4.0000000000016966E-2</v>
+        <v>-0.12685130372154069</v>
       </c>
       <c r="D165" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B165,тип_интерполяции_)</f>
-        <v>8.9142857142858585</v>
+        <v>8.9382954034215043</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -14901,7 +14901,7 @@
       <c r="M165" s="6"/>
       <c r="N165" s="7"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="20">
         <f t="shared" si="2"/>
@@ -14909,11 +14909,11 @@
       </c>
       <c r="C166" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B166,тип_интерполяции_)</f>
-        <v>3.3333333333265117E-2</v>
+        <v>2.7467447916609933E-2</v>
       </c>
       <c r="D166" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B166,тип_интерполяции_)</f>
-        <v>8.5000000000001457</v>
+        <v>8.2598290879867999</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -14926,7 +14926,7 @@
       <c r="M166" s="6"/>
       <c r="N166" s="7"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="20">
         <f t="shared" si="2"/>
@@ -14934,11 +14934,11 @@
       </c>
       <c r="C167" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B167,тип_интерполяции_)</f>
-        <v>0.22666666666659788</v>
+        <v>0.19643427721082143</v>
       </c>
       <c r="D167" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B167,тип_интерполяции_)</f>
-        <v>8.0857142857144328</v>
+        <v>7.5889174824237644</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -14951,7 +14951,7 @@
       <c r="M167" s="6"/>
       <c r="N167" s="7"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="20">
         <f t="shared" si="2"/>
@@ -14959,11 +14959,11 @@
       </c>
       <c r="C168" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B168,тип_интерполяции_)</f>
-        <v>0.41999999999993065</v>
+        <v>0.3804082366070744</v>
       </c>
       <c r="D168" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B168,тип_интерполяции_)</f>
-        <v>7.67142857142872</v>
+        <v>6.92834098657183</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -14976,7 +14976,7 @@
       <c r="M168" s="6"/>
       <c r="N168" s="7"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="20">
         <f t="shared" si="2"/>
@@ -14984,11 +14984,11 @@
       </c>
       <c r="C169" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B169,тип_интерполяции_)</f>
-        <v>0.61333333333326334</v>
+        <v>0.57736727891149131</v>
       </c>
       <c r="D169" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B169,тип_интерполяции_)</f>
-        <v>7.2571428571430063</v>
+        <v>6.2808800002704315</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -15001,7 +15001,7 @@
       <c r="M169" s="6"/>
       <c r="N169" s="7"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="20">
         <f t="shared" si="2"/>
@@ -15009,11 +15009,11 @@
       </c>
       <c r="C170" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B170,тип_интерполяции_)</f>
-        <v>0.80666666666659614</v>
+        <v>0.78528935693019453</v>
       </c>
       <c r="D170" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B170,тип_интерполяции_)</f>
-        <v>6.8428571428572935</v>
+        <v>5.649314923359003</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -15026,7 +15026,7 @@
       <c r="M170" s="6"/>
       <c r="N170" s="7"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="20">
         <f t="shared" si="2"/>
@@ -15034,11 +15034,11 @@
       </c>
       <c r="C171" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B171,тип_интерполяции_)</f>
-        <v>0.99999999999992895</v>
+        <v>1.0021524234693067</v>
       </c>
       <c r="D171" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B171,тип_интерполяции_)</f>
-        <v>6.4285714285715807</v>
+        <v>5.0364261556769776</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -15051,7 +15051,7 @@
       <c r="M171" s="6"/>
       <c r="N171" s="7"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="20">
         <f t="shared" si="2"/>
@@ -15059,11 +15059,11 @@
       </c>
       <c r="C172" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B172,тип_интерполяции_)</f>
-        <v>1.1933333333332616</v>
+        <v>1.2259344313349501</v>
       </c>
       <c r="D172" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B172,тип_интерполяции_)</f>
-        <v>6.0142857142858679</v>
+        <v>4.4449940970637893</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -15076,7 +15076,7 @@
       <c r="M172" s="6"/>
       <c r="N172" s="7"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="20">
         <f t="shared" si="2"/>
@@ -15084,11 +15084,11 @@
       </c>
       <c r="C173" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B173,тип_интерполяции_)</f>
-        <v>1.3866666666665943</v>
+        <v>1.4546133333332472</v>
       </c>
       <c r="D173" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B173,тип_интерполяции_)</f>
-        <v>5.6000000000001542</v>
+        <v>3.8777991473588735</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -15101,7 +15101,7 @@
       <c r="M173" s="6"/>
       <c r="N173" s="7"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="20">
         <f t="shared" si="2"/>
@@ -15109,11 +15109,11 @@
       </c>
       <c r="C174" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B174,тип_интерполяции_)</f>
-        <v>1.5799999999999272</v>
+        <v>1.6861670822703207</v>
       </c>
       <c r="D174" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B174,тип_интерполяции_)</f>
-        <v>5.1857142857144414</v>
+        <v>3.3376217064016629</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -15126,7 +15126,7 @@
       <c r="M174" s="6"/>
       <c r="N174" s="7"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="20">
         <f t="shared" si="2"/>
@@ -15134,11 +15134,11 @@
       </c>
       <c r="C175" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B175,тип_интерполяции_)</f>
-        <v>1.7733333333332599</v>
+        <v>1.9185736309522929</v>
       </c>
       <c r="D175" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B175,тип_интерполяции_)</f>
-        <v>4.7714285714287286</v>
+        <v>2.8272421740315914</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -15151,7 +15151,7 @@
       <c r="M175" s="6"/>
       <c r="N175" s="7"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="20">
         <f t="shared" si="2"/>
@@ -15159,11 +15159,11 @@
       </c>
       <c r="C176" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B176,тип_интерполяции_)</f>
-        <v>1.9666666666665926</v>
+        <v>2.1498109321852863</v>
       </c>
       <c r="D176" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B176,тип_интерполяции_)</f>
-        <v>4.3571428571430149</v>
+        <v>2.3494409500880935</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -15176,7 +15176,7 @@
       <c r="M176" s="6"/>
       <c r="N176" s="7"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="20">
         <f t="shared" si="2"/>
@@ -15184,11 +15184,11 @@
       </c>
       <c r="C177" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B177,тип_интерполяции_)</f>
-        <v>2.1599999999999255</v>
+        <v>2.3778569387754231</v>
       </c>
       <c r="D177" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B177,тип_интерполяции_)</f>
-        <v>3.942857142857302</v>
+        <v>1.9069984344106032</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -15201,7 +15201,7 @@
       <c r="M177" s="6"/>
       <c r="N177" s="7"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="20">
         <f t="shared" si="2"/>
@@ -15209,11 +15209,11 @@
       </c>
       <c r="C178" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B178,тип_интерполяции_)</f>
-        <v>2.353333333333258</v>
+        <v>2.6006896035288265</v>
       </c>
       <c r="D178" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B178,тип_интерполяции_)</f>
-        <v>3.5285714285715888</v>
+        <v>1.5026950268385542</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -15226,7 +15226,7 @@
       <c r="M178" s="6"/>
       <c r="N178" s="7"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="20">
         <f t="shared" si="2"/>
@@ -15234,11 +15234,11 @@
       </c>
       <c r="C179" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B179,тип_интерполяции_)</f>
-        <v>2.5466666666665909</v>
+        <v>2.816286879251618</v>
       </c>
       <c r="D179" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B179,тип_интерполяции_)</f>
-        <v>3.114285714285876</v>
+        <v>1.1393111272113803</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -15251,7 +15251,7 @@
       <c r="M179" s="6"/>
       <c r="N179" s="7"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="20">
         <f t="shared" si="2"/>
@@ -15259,11 +15259,11 @@
       </c>
       <c r="C180" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B180,тип_интерполяции_)</f>
-        <v>2.7399999999999238</v>
+        <v>3.0226267187499207</v>
       </c>
       <c r="D180" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B180,тип_интерполяции_)</f>
-        <v>2.7000000000001627</v>
+        <v>0.81962713536851561</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -15276,7 +15276,7 @@
       <c r="M180" s="6"/>
       <c r="N180" s="7"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="20">
         <f t="shared" si="2"/>
@@ -15284,11 +15284,11 @@
       </c>
       <c r="C181" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B181,тип_интерполяции_)</f>
-        <v>2.9333333333332563</v>
+        <v>3.2176870748298572</v>
       </c>
       <c r="D181" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B181,тип_интерполяции_)</f>
-        <v>2.2857142857144499</v>
+        <v>0.54642345114939428</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -15301,7 +15301,7 @@
       <c r="M181" s="6"/>
       <c r="N181" s="7"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="20">
         <f t="shared" si="2"/>
@@ -15309,11 +15309,11 @@
       </c>
       <c r="C182" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B182,тип_интерполяции_)</f>
-        <v>3.1266666666665892</v>
+        <v>3.3994459002975494</v>
       </c>
       <c r="D182" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B182,тип_интерполяции_)</f>
-        <v>1.8714285714287366</v>
+        <v>0.32248047439345012</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
@@ -15326,7 +15326,7 @@
       <c r="M182" s="6"/>
       <c r="N182" s="7"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="20">
         <f t="shared" si="2"/>
@@ -15334,11 +15334,11 @@
       </c>
       <c r="C183" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B183,тип_интерполяции_)</f>
-        <v>3.3199999999999221</v>
+        <v>3.5658811479591201</v>
       </c>
       <c r="D183" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B183,тип_интерполяции_)</f>
-        <v>1.4571428571430236</v>
+        <v>0.1505786049401171</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -15351,7 +15351,7 @@
       <c r="M183" s="6"/>
       <c r="N183" s="7"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="20">
         <f t="shared" si="2"/>
@@ -15359,11 +15359,11 @@
       </c>
       <c r="C184" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B184,тип_интерполяции_)</f>
-        <v>3.5133333333332546</v>
+        <v>3.7149707706206918</v>
       </c>
       <c r="D184" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B184,тип_интерполяции_)</f>
-        <v>1.0428571428573106</v>
+        <v>3.3498242628829195E-2</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -15376,7 +15376,7 @@
       <c r="M184" s="6"/>
       <c r="N184" s="7"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="20">
         <f t="shared" si="2"/>
@@ -15384,11 +15384,11 @@
       </c>
       <c r="C185" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B185,тип_интерполяции_)</f>
-        <v>3.7066666666665875</v>
+        <v>3.8446927210883866</v>
       </c>
       <c r="D185" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B185,тип_интерполяции_)</f>
-        <v>0.62857142857159742</v>
+        <v>-2.5980212700979655E-2</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -15401,7 +15401,7 @@
       <c r="M185" s="6"/>
       <c r="N185" s="7"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="20">
         <f t="shared" si="2"/>
@@ -15409,11 +15409,11 @@
       </c>
       <c r="C186" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B186,тип_интерполяции_)</f>
-        <v>3.8999999999999204</v>
+        <v>3.9530249521683274</v>
       </c>
       <c r="D186" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B186,тип_интерполяции_)</f>
-        <v>0.21428571428588439</v>
+        <v>-2.507636120987547E-2</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -15426,7 +15426,7 @@
       <c r="M186" s="6"/>
       <c r="N186" s="7"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="20">
         <f t="shared" si="2"/>
@@ -15434,11 +15434,11 @@
       </c>
       <c r="C187" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B187,тип_интерполяции_)</f>
-        <v>4.023333333333313</v>
+        <v>4.0403452388888548</v>
       </c>
       <c r="D187" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B187,тип_интерполяции_)</f>
-        <v>0.11666666666656648</v>
+        <v>3.6937693732157335E-2</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
@@ -15451,7 +15451,7 @@
       <c r="M187" s="6"/>
       <c r="N187" s="7"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="20">
         <f t="shared" si="2"/>
@@ -15459,11 +15459,11 @@
       </c>
       <c r="C188" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B188,тип_интерполяции_)</f>
-        <v>4.0716666666666468</v>
+        <v>4.1208493798610784</v>
       </c>
       <c r="D188" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B188,тип_интерполяции_)</f>
-        <v>0.35833333333323247</v>
+        <v>0.14696661128911886</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
@@ -15476,7 +15476,7 @@
       <c r="M188" s="6"/>
       <c r="N188" s="7"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="20">
         <f t="shared" si="2"/>
@@ -15484,11 +15484,11 @@
       </c>
       <c r="C189" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B189,тип_интерполяции_)</f>
-        <v>4.1199999999999797</v>
+        <v>4.1972991999999687</v>
       </c>
       <c r="D189" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B189,тип_интерполяции_)</f>
-        <v>0.59999999999989839</v>
+        <v>0.29847138461531281</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
@@ -15501,7 +15501,7 @@
       <c r="M189" s="6"/>
       <c r="N189" s="7"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="20">
         <f t="shared" si="2"/>
@@ -15509,11 +15509,11 @@
       </c>
       <c r="C190" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B190,тип_интерполяции_)</f>
-        <v>4.1683333333333126</v>
+        <v>4.2697963201388589</v>
       </c>
       <c r="D190" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B190,тип_интерполяции_)</f>
-        <v>0.84166666666656442</v>
+        <v>0.48694421777056823</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
@@ -15526,7 +15526,7 @@
       <c r="M190" s="6"/>
       <c r="N190" s="7"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="20">
         <f t="shared" si="2"/>
@@ -15534,11 +15534,11 @@
       </c>
       <c r="C191" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B191,тип_интерполяции_)</f>
-        <v>4.2166666666666464</v>
+        <v>4.3384423611110829</v>
       </c>
       <c r="D191" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B191,тип_интерполяции_)</f>
-        <v>1.0833333333332305</v>
+        <v>0.70787731481471428</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
@@ -15551,7 +15551,7 @@
       <c r="M191" s="6"/>
       <c r="N191" s="7"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="20">
         <f t="shared" si="2"/>
@@ -15559,11 +15559,11 @@
       </c>
       <c r="C192" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B192,тип_интерполяции_)</f>
-        <v>4.2649999999999793</v>
+        <v>4.403338943749973</v>
       </c>
       <c r="D192" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B192,тип_интерполяции_)</f>
-        <v>1.3249999999998963</v>
+        <v>0.95676287980758001</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -15576,7 +15576,7 @@
       <c r="M192" s="6"/>
       <c r="N192" s="7"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="20">
         <f t="shared" si="2"/>
@@ -15584,11 +15584,11 @@
       </c>
       <c r="C193" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B193,тип_интерполяции_)</f>
-        <v>4.3133333333333121</v>
+        <v>4.4645876888888631</v>
       </c>
       <c r="D193" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B193,тип_интерполяции_)</f>
-        <v>1.5666666666665623</v>
+        <v>1.2290931168089947</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
@@ -15601,7 +15601,7 @@
       <c r="M193" s="6"/>
       <c r="N193" s="7"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="20">
         <f t="shared" si="2"/>
@@ -15609,11 +15609,11 @@
       </c>
       <c r="C194" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B194,тип_интерполяции_)</f>
-        <v>4.3616666666666459</v>
+        <v>4.5222902173610864</v>
       </c>
       <c r="D194" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B194,тип_интерполяции_)</f>
-        <v>1.8083333333332283</v>
+        <v>1.5203602298787871</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -15626,7 +15626,7 @@
       <c r="M194" s="6"/>
       <c r="N194" s="7"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="20">
         <f t="shared" si="2"/>
@@ -15634,11 +15634,11 @@
       </c>
       <c r="C195" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B195,тип_интерполяции_)</f>
-        <v>4.4099999999999788</v>
+        <v>4.5765481499999767</v>
       </c>
       <c r="D195" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B195,тип_интерполяции_)</f>
-        <v>2.0499999999998941</v>
+        <v>1.8260564230767864</v>
       </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
@@ -15651,7 +15651,7 @@
       <c r="M195" s="6"/>
       <c r="N195" s="7"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="20">
         <f t="shared" si="2"/>
@@ -15659,11 +15659,11 @@
       </c>
       <c r="C196" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B196,тип_интерполяции_)</f>
-        <v>4.4583333333333117</v>
+        <v>4.6274631076388673</v>
       </c>
       <c r="D196" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B196,тип_интерполяции_)</f>
-        <v>2.2916666666665604</v>
+        <v>2.141673900462822</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -15676,7 +15676,7 @@
       <c r="M196" s="6"/>
       <c r="N196" s="7"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="20">
         <f>B196+($B$15-$B$7)/200</f>
@@ -15684,11 +15684,11 @@
       </c>
       <c r="C197" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B197,тип_интерполяции_)</f>
-        <v>4.5066666666666455</v>
+        <v>4.6751367111110902</v>
       </c>
       <c r="D197" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B197,тип_интерполяции_)</f>
-        <v>2.5333333333332262</v>
+        <v>2.4627048660967228</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
@@ -15701,7 +15701,7 @@
       <c r="M197" s="6"/>
       <c r="N197" s="7"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="20">
         <f t="shared" ref="B198:B213" si="3">B197+($B$15-$B$7)/200</f>
@@ -15709,11 +15709,11 @@
       </c>
       <c r="C198" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B198,тип_интерполяции_)</f>
-        <v>4.5549999999999784</v>
+        <v>4.7196705812499804</v>
       </c>
       <c r="D198" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B198,тип_интерполяции_)</f>
-        <v>2.774999999999892</v>
+        <v>2.7846415240383178</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -15726,7 +15726,7 @@
       <c r="M198" s="6"/>
       <c r="N198" s="7"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="20">
         <f t="shared" si="3"/>
@@ -15734,11 +15734,11 @@
       </c>
       <c r="C199" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B199,тип_интерполяции_)</f>
-        <v>4.6033333333333113</v>
+        <v>4.761166338888871</v>
       </c>
       <c r="D199" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B199,тип_интерполяции_)</f>
-        <v>3.0166666666665582</v>
+        <v>3.1029760783474365</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -15751,7 +15751,7 @@
       <c r="M199" s="6"/>
       <c r="N199" s="7"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="20">
         <f t="shared" si="3"/>
@@ -15759,11 +15759,11 @@
       </c>
       <c r="C200" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B200,тип_интерполяции_)</f>
-        <v>4.6516666666666451</v>
+        <v>4.7997256048610941</v>
       </c>
       <c r="D200" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B200,тип_интерполяции_)</f>
-        <v>3.2583333333332241</v>
+        <v>3.4132007330839071</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -15776,7 +15776,7 @@
       <c r="M200" s="6"/>
       <c r="N200" s="7"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="20">
         <f t="shared" si="3"/>
@@ -15784,11 +15784,11 @@
       </c>
       <c r="C201" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B201,тип_интерполяции_)</f>
-        <v>4.699999999999978</v>
+        <v>4.8354499999999847</v>
       </c>
       <c r="D201" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B201,тип_интерполяции_)</f>
-        <v>3.4999999999998899</v>
+        <v>3.7108076923075597</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -15801,7 +15801,7 @@
       <c r="M201" s="6"/>
       <c r="N201" s="7"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="20">
         <f t="shared" si="3"/>
@@ -15809,11 +15809,11 @@
       </c>
       <c r="C202" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B202,тип_интерполяции_)</f>
-        <v>4.7483333333333109</v>
+        <v>4.868441145138874</v>
       </c>
       <c r="D202" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B202,тип_интерполяции_)</f>
-        <v>3.7416666666665561</v>
+        <v>3.9912891600782232</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -15826,7 +15826,7 @@
       <c r="M202" s="6"/>
       <c r="N202" s="7"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="20">
         <f t="shared" si="3"/>
@@ -15834,11 +15834,11 @@
       </c>
       <c r="C203" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B203,тип_интерполяции_)</f>
-        <v>4.7966666666666447</v>
+        <v>4.8988006611110979</v>
       </c>
       <c r="D203" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B203,тип_интерполяции_)</f>
-        <v>3.9833333333332219</v>
+        <v>4.2501373404557263</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -15851,7 +15851,7 @@
       <c r="M203" s="6"/>
       <c r="N203" s="7"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="20">
         <f t="shared" si="3"/>
@@ -15859,11 +15859,11 @@
       </c>
       <c r="C204" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B204,тип_интерполяции_)</f>
-        <v>4.8449999999999775</v>
+        <v>4.9266301687499876</v>
       </c>
       <c r="D204" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B204,тип_интерполяции_)</f>
-        <v>4.2249999999998877</v>
+        <v>4.4828444374998977</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -15876,7 +15876,7 @@
       <c r="M204" s="6"/>
       <c r="N204" s="7"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="20">
         <f t="shared" si="3"/>
@@ -15884,11 +15884,11 @@
       </c>
       <c r="C205" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B205,тип_интерполяции_)</f>
-        <v>4.8933333333333104</v>
+        <v>4.952031288888878</v>
       </c>
       <c r="D205" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B205,тип_интерполяции_)</f>
-        <v>4.466666666666554</v>
+        <v>4.6849026552705677</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -15901,7 +15901,7 @@
       <c r="M205" s="6"/>
       <c r="N205" s="7"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="20">
         <f t="shared" si="3"/>
@@ -15909,11 +15909,11 @@
       </c>
       <c r="C206" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B206,тип_интерполяции_)</f>
-        <v>4.9416666666666442</v>
+        <v>4.9751056423611004</v>
       </c>
       <c r="D206" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B206,тип_интерполяции_)</f>
-        <v>4.7083333333332202</v>
+        <v>4.8518041978275654</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -15926,7 +15926,7 @@
       <c r="M206" s="6"/>
       <c r="N206" s="7"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="20">
         <f t="shared" si="3"/>
@@ -15934,11 +15934,11 @@
       </c>
       <c r="C207" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B207,тип_интерполяции_)</f>
-        <v>4.9899999999999771</v>
+        <v>4.9959548499999906</v>
       </c>
       <c r="D207" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B207,тип_интерполяции_)</f>
-        <v>4.9499999999998856</v>
+        <v>4.9790412692307182</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -15951,7 +15951,7 @@
       <c r="M207" s="6"/>
       <c r="N207" s="7"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="20">
         <f t="shared" si="3"/>
@@ -15959,11 +15959,11 @@
       </c>
       <c r="C208" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B208,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0144516666666581</v>
       </c>
       <c r="D208" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B208,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0722583333332922</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -15976,7 +15976,7 @@
       <c r="M208" s="6"/>
       <c r="N208" s="7"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="20">
         <f t="shared" si="3"/>
@@ -15984,11 +15984,11 @@
       </c>
       <c r="C209" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B209,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0301599999999933</v>
       </c>
       <c r="D209" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B209,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.1507999999999656</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -16001,7 +16001,7 @@
       <c r="M209" s="6"/>
       <c r="N209" s="7"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="20">
         <f t="shared" si="3"/>
@@ -16009,11 +16009,11 @@
       </c>
       <c r="C210" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B210,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0430649999999941</v>
       </c>
       <c r="D210" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B210,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.2153249999999725</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -16026,7 +16026,7 @@
       <c r="M210" s="6"/>
       <c r="N210" s="7"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="20">
         <f t="shared" si="3"/>
@@ -16034,11 +16034,11 @@
       </c>
       <c r="C211" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B211,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0531666666666624</v>
       </c>
       <c r="D211" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B211,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.2658333333333118</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -16051,7 +16051,7 @@
       <c r="M211" s="6"/>
       <c r="N211" s="7"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="20">
         <f t="shared" si="3"/>
@@ -16059,11 +16059,11 @@
       </c>
       <c r="C212" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B212,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0604649999999971</v>
       </c>
       <c r="D212" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B212,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.3023249999999855</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -16076,7 +16076,7 @@
       <c r="M212" s="6"/>
       <c r="N212" s="7"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="20">
         <f t="shared" si="3"/>
@@ -16084,11 +16084,11 @@
       </c>
       <c r="C213" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B213,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0649599999999984</v>
       </c>
       <c r="D213" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B213,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.3247999999999927</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
@@ -16101,7 +16101,7 @@
       <c r="M213" s="6"/>
       <c r="N213" s="7"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="20">
         <f>B213+($B$15-$B$7)/200</f>
@@ -16109,11 +16109,11 @@
       </c>
       <c r="C214" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B214,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0666516666666661</v>
       </c>
       <c r="D214" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B214,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.3332583333333323</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -16126,7 +16126,7 @@
       <c r="M214" s="6"/>
       <c r="N214" s="7"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="20">
         <f t="shared" ref="B215:B221" si="4">B214+($B$15-$B$7)/200</f>
@@ -16134,11 +16134,11 @@
       </c>
       <c r="C215" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B215,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0655400000000013</v>
       </c>
       <c r="D215" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B215,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.3277000000000063</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
@@ -16151,7 +16151,7 @@
       <c r="M215" s="6"/>
       <c r="N215" s="7"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="20">
         <f t="shared" si="4"/>
@@ -16159,11 +16159,11 @@
       </c>
       <c r="C216" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B216,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0616250000000029</v>
       </c>
       <c r="D216" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B216,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.3081250000000129</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -16176,7 +16176,7 @@
       <c r="M216" s="6"/>
       <c r="N216" s="7"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="20">
         <f t="shared" si="4"/>
@@ -16184,11 +16184,11 @@
       </c>
       <c r="C217" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B217,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0549066666666711</v>
       </c>
       <c r="D217" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B217,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.2745333333333537</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -16201,7 +16201,7 @@
       <c r="M217" s="6"/>
       <c r="N217" s="7"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="20">
         <f t="shared" si="4"/>
@@ -16209,11 +16209,11 @@
       </c>
       <c r="C218" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B218,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0453850000000058</v>
       </c>
       <c r="D218" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B218,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.226925000000028</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -16226,7 +16226,7 @@
       <c r="M218" s="6"/>
       <c r="N218" s="7"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="20">
         <f t="shared" si="4"/>
@@ -16234,11 +16234,11 @@
       </c>
       <c r="C219" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B219,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.033060000000007</v>
       </c>
       <c r="D219" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B219,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.1653000000000349</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -16251,7 +16251,7 @@
       <c r="M219" s="6"/>
       <c r="N219" s="7"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="20">
         <f t="shared" si="4"/>
@@ -16259,11 +16259,11 @@
       </c>
       <c r="C220" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B220,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0179316666666756</v>
       </c>
       <c r="D220" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B220,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.089658333333376</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
@@ -16276,7 +16276,7 @@
       <c r="M220" s="6"/>
       <c r="N220" s="7"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="20">
         <f t="shared" si="4"/>
@@ -16284,11 +16284,11 @@
       </c>
       <c r="C221" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B221,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0000000000000098</v>
       </c>
       <c r="D221" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B221,тип_интерполяции_)</f>
-        <v>5</v>
+        <v>5.0000000000000497</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
@@ -16301,7 +16301,7 @@
       <c r="M221" s="6"/>
       <c r="N221" s="7"/>
     </row>
-    <row r="222" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="9"/>
       <c r="B222" s="21"/>
       <c r="C222" s="10"/>
@@ -16317,28 +16317,28 @@
       <c r="M222" s="10"/>
       <c r="N222" s="11"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="2"/>
     </row>
   </sheetData>
@@ -16355,15 +16355,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:colOff>213360</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/examples/ex001.Interpolation.xlsx
+++ b/examples/ex001.Interpolation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19105EC-246B-4390-A1CD-CEC67B52212A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D851DF1-8591-4715-B289-917AB3BDB68F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9951,8 +9951,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AI230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examples/ex001.Interpolation.xlsx
+++ b/examples/ex001.Interpolation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D851DF1-8591-4715-B289-917AB3BDB68F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1F5B3-FF30-485E-9036-6862C86BDFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-972" yWindow="1056" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interpolation" sheetId="1" r:id="rId1"/>
@@ -9952,7 +9952,7 @@
   <dimension ref="A1:AI230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examples/ex001.Interpolation.xlsx
+++ b/examples/ex001.Interpolation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1F5B3-FF30-485E-9036-6862C86BDFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98528AF0-B00A-452D-BFA3-1F1975D78813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-972" yWindow="1056" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interpolation" sheetId="1" r:id="rId1"/>
@@ -9952,7 +9952,7 @@
   <dimension ref="A1:AI230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examples/ex001.Interpolation.xlsx
+++ b/examples/ex001.Interpolation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98528AF0-B00A-452D-BFA3-1F1975D78813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A662D2CA-6897-4415-9D29-49A5AE126B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,6 +44,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1153,604 +1175,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95867500000000005</c:v>
+                  <c:v>0.9455290939362081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93136666666666668</c:v>
+                  <c:v>0.90641016548776931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91807499999999997</c:v>
+                  <c:v>0.88264321465468354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91880000000000006</c:v>
+                  <c:v>0.87422824143695088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93354166666666671</c:v>
+                  <c:v>0.88116524583457123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96230000000000004</c:v>
+                  <c:v>0.90345422784754459</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0050750000000002</c:v>
+                  <c:v>0.94109518747587106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0618666666666667</c:v>
+                  <c:v>0.99408812471955066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1326750000000001</c:v>
+                  <c:v>1.0624330395785833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2175000000000002</c:v>
+                  <c:v>1.146129932052969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3163416666666667</c:v>
+                  <c:v>1.2451788021427077</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4292000000000002</c:v>
+                  <c:v>1.3595796498477994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5560750000000003</c:v>
+                  <c:v>1.4893324751682444</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.696966666666667</c:v>
+                  <c:v>1.6344372781040422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8518750000000004</c:v>
+                  <c:v>1.7948940586551931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0208000000000004</c:v>
+                  <c:v>1.9707028168216973</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2037416666666672</c:v>
+                  <c:v>2.1618635526035543</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4007000000000005</c:v>
+                  <c:v>2.3683762660007646</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6116750000000004</c:v>
+                  <c:v>2.5902409570133278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8366666666666669</c:v>
+                  <c:v>2.827457625641244</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0771634977272724</c:v>
+                  <c:v>3.080014697072603</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3512067090909081</c:v>
+                  <c:v>3.347075656951501</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.653183862878786</c:v>
+                  <c:v>3.6264440854827473</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9690158545454515</c:v>
+                  <c:v>3.9157965416156273</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2846235795454506</c:v>
+                  <c:v>4.2128095842994266</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5859279333333287</c:v>
+                  <c:v>4.5151597724834316</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.8588498113636316</c:v>
+                  <c:v>4.8205236651169265</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0934352727272678</c:v>
+                  <c:v>5.1266021229433152</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.3160755227272674</c:v>
+                  <c:v>5.4319680726500961</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.5342431818181756</c:v>
+                  <c:v>5.7362869528311204</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.7479382499999936</c:v>
+                  <c:v>6.0392932962437218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.9571607272727203</c:v>
+                  <c:v>6.3407216356452354</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.1619106136363566</c:v>
+                  <c:v>6.6403065037929947</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.3621879090909017</c:v>
+                  <c:v>6.9377824334443332</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.5579926136363555</c:v>
+                  <c:v>7.2328839573565844</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.749324727272719</c:v>
+                  <c:v>7.5253456082870835</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.9361842499999913</c:v>
+                  <c:v>7.8149019189931641</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.1185711818181723</c:v>
+                  <c:v>8.1012874222321596</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.2964855227272629</c:v>
+                  <c:v>8.3842366507614052</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.4699272727272632</c:v>
+                  <c:v>8.6634841373382336</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.6388964318181714</c:v>
+                  <c:v>8.9387644147199783</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.80339299999999</c:v>
+                  <c:v>9.2098120156639744</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.9634169772727166</c:v>
+                  <c:v>9.4763614729275556</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.1189683636363537</c:v>
+                  <c:v>9.7381473192680552</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.2700471590908986</c:v>
+                  <c:v>9.9949040874428068</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.4166533636363532</c:v>
+                  <c:v>10.246366310209147</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.5587869772727156</c:v>
+                  <c:v>10.492268520324407</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.6964479999999895</c:v>
+                  <c:v>10.732345250545922</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.8296364318181713</c:v>
+                  <c:v>10.966331033631025</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.9583522727272609</c:v>
+                  <c:v>11.193960402337051</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.0825955227272619</c:v>
+                  <c:v>11.414967889421332</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.2023661818181708</c:v>
+                  <c:v>11.629088027641204</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.3176642499999893</c:v>
+                  <c:v>11.836055349754002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.4284897272727157</c:v>
+                  <c:v>12.035604388517058</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.5348426136363535</c:v>
+                  <c:v>12.227469676687704</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.6367229090908992</c:v>
+                  <c:v>12.411385747023278</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.7341306136363528</c:v>
+                  <c:v>12.587087132281111</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.8270657272727178</c:v>
+                  <c:v>12.754308365218538</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.9155282499999906</c:v>
+                  <c:v>12.912783978592895</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.9995181818181713</c:v>
+                  <c:v>13.062248505161511</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.079035522727263</c:v>
+                  <c:v>13.202436477681724</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.154080272727263</c:v>
+                  <c:v>13.333082428910867</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.224652431818173</c:v>
+                  <c:v>13.453920891606273</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.290751999999992</c:v>
+                  <c:v>13.564686398525279</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.352378977272719</c:v>
+                  <c:v>13.665113482425214</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.409533363636356</c:v>
+                  <c:v>13.754936676063414</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.462215159090903</c:v>
+                  <c:v>13.833890512197215</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.510424363636357</c:v>
+                  <c:v>13.90170952358395</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.554160977272721</c:v>
+                  <c:v>13.958128242980951</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.593424999999995</c:v>
+                  <c:v>14.002881203145554</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.628216431818176</c:v>
+                  <c:v>14.035702936835092</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.658535272727269</c:v>
+                  <c:v>14.056327976806898</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.68438152272727</c:v>
+                  <c:v>14.064490855818308</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10.705755181818178</c:v>
+                  <c:v>14.059926106626655</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.722656249999998</c:v>
+                  <c:v>14.042368261989274</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.735084727272726</c:v>
+                  <c:v>14.011551854663496</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.743040613636362</c:v>
+                  <c:v>13.967211417406659</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10.746523909090909</c:v>
+                  <c:v>13.909081482976093</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.745534613636364</c:v>
+                  <c:v>13.836896584129134</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10.740072727272729</c:v>
+                  <c:v>13.750391253623116</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.730138250000001</c:v>
+                  <c:v>13.649300024215373</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.715731181818185</c:v>
+                  <c:v>13.533357428663237</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.696851522727277</c:v>
+                  <c:v>13.402297999724045</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10.673499272727277</c:v>
+                  <c:v>13.255856270155128</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10.645674431818188</c:v>
+                  <c:v>13.093766772713824</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10.613377000000007</c:v>
+                  <c:v>12.915764040157462</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>10.576606977272734</c:v>
+                  <c:v>12.721582605243379</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.535364363636372</c:v>
+                  <c:v>12.510957000728908</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.489649159090918</c:v>
+                  <c:v>12.283621759371382</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.439461363636374</c:v>
+                  <c:v>12.039311413928138</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.384800977272739</c:v>
+                  <c:v>11.777760497156507</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.325668000000013</c:v>
+                  <c:v>11.498703541813823</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.262062431818196</c:v>
+                  <c:v>11.201875080657421</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.193984272727288</c:v>
+                  <c:v>10.887009646444636</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.121433522727289</c:v>
+                  <c:v>10.553841771932801</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10.044410181818199</c:v>
+                  <c:v>10.202105989879248</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.9563324684171928</c:v>
+                  <c:v>9.8315685866029074</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.8100620685495059</c:v>
+                  <c:v>9.4429396388514864</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.6005604756058371</c:v>
+                  <c:v>9.0380094659521344</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.3330227829768955</c:v>
+                  <c:v>8.6186275873177056</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9.0126440840533899</c:v>
+                  <c:v>8.1866435223610541</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.6446194722260294</c:v>
+                  <c:v>7.7439067904950294</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.2341440408855213</c:v>
+                  <c:v>7.2922669111324865</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.7864128834225674</c:v>
+                  <c:v>6.8335734036862714</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.3066210932278901</c:v>
+                  <c:v>6.3696757875692471</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.7999637636921912</c:v>
+                  <c:v>5.9024235821942623</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.271635988206179</c:v>
+                  <c:v>5.4336663069741684</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.7268328601605623</c:v>
+                  <c:v>4.9652534813218185</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.1707494729460493</c:v>
+                  <c:v>4.499034624650065</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.6085809199533498</c:v>
+                  <c:v>4.03685925637176</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.0455222945731704</c:v>
+                  <c:v>3.5805768958997568</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.4867686901962203</c:v>
+                  <c:v>3.1320370626469076</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.9375152002132086</c:v>
+                  <c:v>2.6930892760260647</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.4029569180148433</c:v>
+                  <c:v>2.2655830554500818</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.8882889369918332</c:v>
+                  <c:v>1.8513679203318101</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.3987063505348865</c:v>
+                  <c:v>1.4522933900841031</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.93940425203471178</c:v>
+                  <c:v>1.070208984119813</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.51557773488201775</c:v>
+                  <c:v>0.70696422185179231</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.13242189246751274</c:v>
+                  <c:v>0.3644086226928937</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.20486818181809469</c:v>
+                  <c:v>4.4391706055969843E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.49109739458409607</c:v>
+                  <c:v>-0.2512370086461268</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.72107065243978286</c:v>
+                  <c:v>-0.5206280020005436</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.88959286199444643</c:v>
+                  <c:v>-0.76193175459442808</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.99146892985737844</c:v>
+                  <c:v>-0.97329874701492758</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-1.0453888152483073</c:v>
+                  <c:v>-1.1532142606813363</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-1.0889077478991482</c:v>
+                  <c:v>-1.3021983946912843</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-1.1225607196322887</c:v>
+                  <c:v>-1.4215357939658801</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-1.146287546840953</c:v>
+                  <c:v>-1.5125124747704406</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-1.1600280459183647</c:v>
+                  <c:v>-1.5764144533702829</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-1.163722033257748</c:v>
+                  <c:v>-1.6145277460307235</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-1.1573093252523268</c:v>
+                  <c:v>-1.6281383690170796</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-1.140729738295325</c:v>
+                  <c:v>-1.6185323385946679</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-1.1139230887799665</c:v>
+                  <c:v>-1.5869956710288056</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-1.0768291930994756</c:v>
+                  <c:v>-1.5348143825848093</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-1.0293878676470758</c:v>
+                  <c:v>-1.4632744895279961</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.97153892881599135</c:v>
+                  <c:v>-1.3736620081236826</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.90322219299944617</c:v>
+                  <c:v>-1.2672629546371859</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.82437747659066418</c:v>
+                  <c:v>-1.1453633453338228</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.73494459598286932</c:v>
+                  <c:v>-1.0092491964789105</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.63486336756928552</c:v>
+                  <c:v>-0.86020652433776545</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.52407360774313683</c:v>
+                  <c:v>-0.69952134517570486</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.40251513289764718</c:v>
+                  <c:v>-0.52847967525804551</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-0.27012775942604045</c:v>
+                  <c:v>-0.34836753085010425</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-0.12685130372154069</c:v>
+                  <c:v>-0.16047092821719808</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.7467447916609933E-2</c:v>
+                  <c:v>3.3924506332920497E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.19643427721082143</c:v>
+                  <c:v>0.233654201799188</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.3804082366070744</c:v>
+                  <c:v>0.43784552813134986</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.57736727891149131</c:v>
+                  <c:v>0.64566898146613405</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.78528935693019453</c:v>
+                  <c:v>0.85629505794026861</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.0021524234693067</c:v>
+                  <c:v>1.0688942536904815</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.2259344313349501</c:v>
+                  <c:v>1.2826370648535008</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.4546133333332472</c:v>
+                  <c:v>1.4966939875660545</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.6861670822703207</c:v>
+                  <c:v>1.7102355179648705</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.9185736309522929</c:v>
+                  <c:v>1.922432152186677</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.1498109321852863</c:v>
+                  <c:v>2.1324543863682015</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.3778569387754231</c:v>
+                  <c:v>2.3394727166461728</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.6006896035288265</c:v>
+                  <c:v>2.5426576391573183</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.816286879251618</c:v>
+                  <c:v>2.7411796500383665</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.0226267187499207</c:v>
+                  <c:v>2.9342092454260449</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.2176870748298572</c:v>
+                  <c:v>3.1209169214570815</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.3994459002975494</c:v>
+                  <c:v>3.300473174268205</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.5658811479591201</c:v>
+                  <c:v>3.4720484999961427</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.7149707706206918</c:v>
+                  <c:v>3.6348133947776229</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.8446927210883866</c:v>
+                  <c:v>3.7879383547493735</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.9530249521683274</c:v>
+                  <c:v>3.9305938760481225</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.0403452388888548</c:v>
+                  <c:v>4.0619761201991569</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.1208493798610784</c:v>
+                  <c:v>4.1819222380657264</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.1972991999999687</c:v>
+                  <c:v>4.2909398607273657</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.2697963201388589</c:v>
+                  <c:v>4.3895681865691474</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.3384423611110829</c:v>
+                  <c:v>4.4783464139761433</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.403338943749973</c:v>
+                  <c:v>4.5578137413334243</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.4645876888888631</c:v>
+                  <c:v>4.6285093670260622</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.5222902173610864</c:v>
+                  <c:v>4.6909724894391287</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.5765481499999767</c:v>
+                  <c:v>4.7457423069576947</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.6274631076388673</c:v>
+                  <c:v>4.7933580179668329</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4.6751367111110902</c:v>
+                  <c:v>4.8343588208516142</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.7196705812499804</c:v>
+                  <c:v>4.8692839139971111</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>4.761166338888871</c:v>
+                  <c:v>4.8986724957883929</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.7997256048610941</c:v>
+                  <c:v>4.923063764610534</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4.8354499999999847</c:v>
+                  <c:v>4.9429969188486043</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.868441145138874</c:v>
+                  <c:v>4.9590111568876756</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.8988006611110979</c:v>
+                  <c:v>4.9716456771128188</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.9266301687499876</c:v>
+                  <c:v>4.9814396779091075</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.952031288888878</c:v>
+                  <c:v>4.9889323576616107</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.9751056423611004</c:v>
+                  <c:v>4.994662914755402</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9959548499999906</c:v>
+                  <c:v>4.9991705475755523</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5.0144516666666581</c:v>
+                  <c:v>5.0029496226379084</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5.0301599999999933</c:v>
+                  <c:v>5.0061557342008545</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5.0430649999999941</c:v>
+                  <c:v>5.008789678161798</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5.0531666666666624</c:v>
+                  <c:v>5.010851454520739</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5.0604649999999971</c:v>
+                  <c:v>5.0123410632776775</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5.0649599999999984</c:v>
+                  <c:v>5.0132585044326134</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5.0666516666666661</c:v>
+                  <c:v>5.013603777985546</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5.0655400000000013</c:v>
+                  <c:v>5.0133768839364761</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5.0616250000000029</c:v>
+                  <c:v>5.0125778222854036</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5.0549066666666711</c:v>
+                  <c:v>5.0112065930323286</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5.0453850000000058</c:v>
+                  <c:v>5.0092631961772511</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5.033060000000007</c:v>
+                  <c:v>5.0067476317201711</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5.0179316666666756</c:v>
+                  <c:v>5.0036598996610877</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5.0000000000000098</c:v>
+                  <c:v>5.0000000000000018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2860,604 +2882,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95867500000000005</c:v>
+                  <c:v>0.9455290939362081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93136666666666668</c:v>
+                  <c:v>0.90641016548776931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91807499999999997</c:v>
+                  <c:v>0.88264321465468354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91880000000000006</c:v>
+                  <c:v>0.87422824143695088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93354166666666671</c:v>
+                  <c:v>0.88116524583457123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96230000000000004</c:v>
+                  <c:v>0.90345422784754459</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0050750000000002</c:v>
+                  <c:v>0.94109518747587106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0618666666666667</c:v>
+                  <c:v>0.99408812471955066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1326750000000001</c:v>
+                  <c:v>1.0624330395785833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2175000000000002</c:v>
+                  <c:v>1.146129932052969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3163416666666667</c:v>
+                  <c:v>1.2451788021427077</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4292000000000002</c:v>
+                  <c:v>1.3595796498477994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5560750000000003</c:v>
+                  <c:v>1.4893324751682444</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.696966666666667</c:v>
+                  <c:v>1.6344372781040422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8518750000000004</c:v>
+                  <c:v>1.7948940586551931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0208000000000004</c:v>
+                  <c:v>1.9707028168216973</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2037416666666672</c:v>
+                  <c:v>2.1618635526035543</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4007000000000005</c:v>
+                  <c:v>2.3683762660007646</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6116750000000004</c:v>
+                  <c:v>2.5902409570133278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8366666666666669</c:v>
+                  <c:v>2.827457625641244</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0771634977272724</c:v>
+                  <c:v>3.080014697072603</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3512067090909081</c:v>
+                  <c:v>3.347075656951501</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.653183862878786</c:v>
+                  <c:v>3.6264440854827473</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9690158545454515</c:v>
+                  <c:v>3.9157965416156273</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2846235795454506</c:v>
+                  <c:v>4.2128095842994266</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5859279333333287</c:v>
+                  <c:v>4.5151597724834316</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.8588498113636316</c:v>
+                  <c:v>4.8205236651169265</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0934352727272678</c:v>
+                  <c:v>5.1266021229433152</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.3160755227272674</c:v>
+                  <c:v>5.4319680726500961</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.5342431818181756</c:v>
+                  <c:v>5.7362869528311204</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.7479382499999936</c:v>
+                  <c:v>6.0392932962437218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.9571607272727203</c:v>
+                  <c:v>6.3407216356452354</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.1619106136363566</c:v>
+                  <c:v>6.6403065037929947</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.3621879090909017</c:v>
+                  <c:v>6.9377824334443332</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.5579926136363555</c:v>
+                  <c:v>7.2328839573565844</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.749324727272719</c:v>
+                  <c:v>7.5253456082870835</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.9361842499999913</c:v>
+                  <c:v>7.8149019189931641</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.1185711818181723</c:v>
+                  <c:v>8.1012874222321596</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.2964855227272629</c:v>
+                  <c:v>8.3842366507614052</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.4699272727272632</c:v>
+                  <c:v>8.6634841373382336</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.6388964318181714</c:v>
+                  <c:v>8.9387644147199783</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.80339299999999</c:v>
+                  <c:v>9.2098120156639744</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.9634169772727166</c:v>
+                  <c:v>9.4763614729275556</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.1189683636363537</c:v>
+                  <c:v>9.7381473192680552</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.2700471590908986</c:v>
+                  <c:v>9.9949040874428068</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.4166533636363532</c:v>
+                  <c:v>10.246366310209147</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.5587869772727156</c:v>
+                  <c:v>10.492268520324407</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.6964479999999895</c:v>
+                  <c:v>10.732345250545922</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.8296364318181713</c:v>
+                  <c:v>10.966331033631025</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.9583522727272609</c:v>
+                  <c:v>11.193960402337051</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.0825955227272619</c:v>
+                  <c:v>11.414967889421332</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.2023661818181708</c:v>
+                  <c:v>11.629088027641204</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.3176642499999893</c:v>
+                  <c:v>11.836055349754002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.4284897272727157</c:v>
+                  <c:v>12.035604388517058</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.5348426136363535</c:v>
+                  <c:v>12.227469676687704</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.6367229090908992</c:v>
+                  <c:v>12.411385747023278</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.7341306136363528</c:v>
+                  <c:v>12.587087132281111</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.8270657272727178</c:v>
+                  <c:v>12.754308365218538</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.9155282499999906</c:v>
+                  <c:v>12.912783978592895</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.9995181818181713</c:v>
+                  <c:v>13.062248505161511</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.079035522727263</c:v>
+                  <c:v>13.202436477681724</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.154080272727263</c:v>
+                  <c:v>13.333082428910867</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.224652431818173</c:v>
+                  <c:v>13.453920891606273</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.290751999999992</c:v>
+                  <c:v>13.564686398525279</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.352378977272719</c:v>
+                  <c:v>13.665113482425214</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.409533363636356</c:v>
+                  <c:v>13.754936676063414</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.462215159090903</c:v>
+                  <c:v>13.833890512197215</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.510424363636357</c:v>
+                  <c:v>13.90170952358395</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.554160977272721</c:v>
+                  <c:v>13.958128242980951</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.593424999999995</c:v>
+                  <c:v>14.002881203145554</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.628216431818176</c:v>
+                  <c:v>14.035702936835092</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.658535272727269</c:v>
+                  <c:v>14.056327976806898</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.68438152272727</c:v>
+                  <c:v>14.064490855818308</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10.705755181818178</c:v>
+                  <c:v>14.059926106626655</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.722656249999998</c:v>
+                  <c:v>14.042368261989274</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.735084727272726</c:v>
+                  <c:v>14.011551854663496</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.743040613636362</c:v>
+                  <c:v>13.967211417406659</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10.746523909090909</c:v>
+                  <c:v>13.909081482976093</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.745534613636364</c:v>
+                  <c:v>13.836896584129134</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10.740072727272729</c:v>
+                  <c:v>13.750391253623116</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.730138250000001</c:v>
+                  <c:v>13.649300024215373</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.715731181818185</c:v>
+                  <c:v>13.533357428663237</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.696851522727277</c:v>
+                  <c:v>13.402297999724045</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10.673499272727277</c:v>
+                  <c:v>13.255856270155128</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10.645674431818188</c:v>
+                  <c:v>13.093766772713824</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10.613377000000007</c:v>
+                  <c:v>12.915764040157462</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>10.576606977272734</c:v>
+                  <c:v>12.721582605243379</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.535364363636372</c:v>
+                  <c:v>12.510957000728908</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.489649159090918</c:v>
+                  <c:v>12.283621759371382</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.439461363636374</c:v>
+                  <c:v>12.039311413928138</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.384800977272739</c:v>
+                  <c:v>11.777760497156507</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.325668000000013</c:v>
+                  <c:v>11.498703541813823</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.262062431818196</c:v>
+                  <c:v>11.201875080657421</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.193984272727288</c:v>
+                  <c:v>10.887009646444636</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.121433522727289</c:v>
+                  <c:v>10.553841771932801</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10.044410181818199</c:v>
+                  <c:v>10.202105989879248</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.9563324684171928</c:v>
+                  <c:v>9.8315685866029074</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.8100620685495059</c:v>
+                  <c:v>9.4429396388514864</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.6005604756058371</c:v>
+                  <c:v>9.0380094659521344</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.3330227829768955</c:v>
+                  <c:v>8.6186275873177056</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9.0126440840533899</c:v>
+                  <c:v>8.1866435223610541</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.6446194722260294</c:v>
+                  <c:v>7.7439067904950294</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.2341440408855213</c:v>
+                  <c:v>7.2922669111324865</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.7864128834225674</c:v>
+                  <c:v>6.8335734036862714</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.3066210932278901</c:v>
+                  <c:v>6.3696757875692471</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.7999637636921912</c:v>
+                  <c:v>5.9024235821942623</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.271635988206179</c:v>
+                  <c:v>5.4336663069741684</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.7268328601605623</c:v>
+                  <c:v>4.9652534813218185</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.1707494729460493</c:v>
+                  <c:v>4.499034624650065</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.6085809199533498</c:v>
+                  <c:v>4.03685925637176</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.0455222945731704</c:v>
+                  <c:v>3.5805768958997568</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.4867686901962203</c:v>
+                  <c:v>3.1320370626469076</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.9375152002132086</c:v>
+                  <c:v>2.6930892760260647</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.4029569180148433</c:v>
+                  <c:v>2.2655830554500818</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.8882889369918332</c:v>
+                  <c:v>1.8513679203318101</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.3987063505348865</c:v>
+                  <c:v>1.4522933900841031</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.93940425203471178</c:v>
+                  <c:v>1.070208984119813</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.51557773488201775</c:v>
+                  <c:v>0.70696422185179231</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.13242189246751274</c:v>
+                  <c:v>0.3644086226928937</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.20486818181809469</c:v>
+                  <c:v>4.4391706055969843E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.49109739458409607</c:v>
+                  <c:v>-0.2512370086461268</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.72107065243978286</c:v>
+                  <c:v>-0.5206280020005436</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.88959286199444643</c:v>
+                  <c:v>-0.76193175459442808</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.99146892985737844</c:v>
+                  <c:v>-0.97329874701492758</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-1.0453888152483073</c:v>
+                  <c:v>-1.1532142606813363</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-1.0889077478991482</c:v>
+                  <c:v>-1.3021983946912843</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-1.1225607196322887</c:v>
+                  <c:v>-1.4215357939658801</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-1.146287546840953</c:v>
+                  <c:v>-1.5125124747704406</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-1.1600280459183647</c:v>
+                  <c:v>-1.5764144533702829</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-1.163722033257748</c:v>
+                  <c:v>-1.6145277460307235</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-1.1573093252523268</c:v>
+                  <c:v>-1.6281383690170796</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-1.140729738295325</c:v>
+                  <c:v>-1.6185323385946679</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-1.1139230887799665</c:v>
+                  <c:v>-1.5869956710288056</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-1.0768291930994756</c:v>
+                  <c:v>-1.5348143825848093</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-1.0293878676470758</c:v>
+                  <c:v>-1.4632744895279961</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.97153892881599135</c:v>
+                  <c:v>-1.3736620081236826</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.90322219299944617</c:v>
+                  <c:v>-1.2672629546371859</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.82437747659066418</c:v>
+                  <c:v>-1.1453633453338228</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.73494459598286932</c:v>
+                  <c:v>-1.0092491964789105</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.63486336756928552</c:v>
+                  <c:v>-0.86020652433776545</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.52407360774313683</c:v>
+                  <c:v>-0.69952134517570486</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.40251513289764718</c:v>
+                  <c:v>-0.52847967525804551</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-0.27012775942604045</c:v>
+                  <c:v>-0.34836753085010425</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-0.12685130372154069</c:v>
+                  <c:v>-0.16047092821719808</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.7467447916609933E-2</c:v>
+                  <c:v>3.3924506332920497E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.19643427721082143</c:v>
+                  <c:v>0.233654201799188</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.3804082366070744</c:v>
+                  <c:v>0.43784552813134986</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.57736727891149131</c:v>
+                  <c:v>0.64566898146613405</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.78528935693019453</c:v>
+                  <c:v>0.85629505794026861</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.0021524234693067</c:v>
+                  <c:v>1.0688942536904815</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.2259344313349501</c:v>
+                  <c:v>1.2826370648535008</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.4546133333332472</c:v>
+                  <c:v>1.4966939875660545</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.6861670822703207</c:v>
+                  <c:v>1.7102355179648705</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.9185736309522929</c:v>
+                  <c:v>1.922432152186677</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.1498109321852863</c:v>
+                  <c:v>2.1324543863682015</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.3778569387754231</c:v>
+                  <c:v>2.3394727166461728</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.6006896035288265</c:v>
+                  <c:v>2.5426576391573183</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.816286879251618</c:v>
+                  <c:v>2.7411796500383665</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.0226267187499207</c:v>
+                  <c:v>2.9342092454260449</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.2176870748298572</c:v>
+                  <c:v>3.1209169214570815</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.3994459002975494</c:v>
+                  <c:v>3.300473174268205</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.5658811479591201</c:v>
+                  <c:v>3.4720484999961427</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.7149707706206918</c:v>
+                  <c:v>3.6348133947776229</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.8446927210883866</c:v>
+                  <c:v>3.7879383547493735</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.9530249521683274</c:v>
+                  <c:v>3.9305938760481225</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.0403452388888548</c:v>
+                  <c:v>4.0619761201991569</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.1208493798610784</c:v>
+                  <c:v>4.1819222380657264</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.1972991999999687</c:v>
+                  <c:v>4.2909398607273657</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.2697963201388589</c:v>
+                  <c:v>4.3895681865691474</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.3384423611110829</c:v>
+                  <c:v>4.4783464139761433</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.403338943749973</c:v>
+                  <c:v>4.5578137413334243</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.4645876888888631</c:v>
+                  <c:v>4.6285093670260622</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.5222902173610864</c:v>
+                  <c:v>4.6909724894391287</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.5765481499999767</c:v>
+                  <c:v>4.7457423069576947</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.6274631076388673</c:v>
+                  <c:v>4.7933580179668329</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4.6751367111110902</c:v>
+                  <c:v>4.8343588208516142</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.7196705812499804</c:v>
+                  <c:v>4.8692839139971111</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>4.761166338888871</c:v>
+                  <c:v>4.8986724957883929</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.7997256048610941</c:v>
+                  <c:v>4.923063764610534</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4.8354499999999847</c:v>
+                  <c:v>4.9429969188486043</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.868441145138874</c:v>
+                  <c:v>4.9590111568876756</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.8988006611110979</c:v>
+                  <c:v>4.9716456771128188</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.9266301687499876</c:v>
+                  <c:v>4.9814396779091075</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.952031288888878</c:v>
+                  <c:v>4.9889323576616107</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.9751056423611004</c:v>
+                  <c:v>4.994662914755402</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9959548499999906</c:v>
+                  <c:v>4.9991705475755523</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5.0144516666666581</c:v>
+                  <c:v>5.0029496226379084</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5.0301599999999933</c:v>
+                  <c:v>5.0061557342008545</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5.0430649999999941</c:v>
+                  <c:v>5.008789678161798</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5.0531666666666624</c:v>
+                  <c:v>5.010851454520739</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5.0604649999999971</c:v>
+                  <c:v>5.0123410632776775</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5.0649599999999984</c:v>
+                  <c:v>5.0132585044326134</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5.0666516666666661</c:v>
+                  <c:v>5.013603777985546</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5.0655400000000013</c:v>
+                  <c:v>5.0133768839364761</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5.0616250000000029</c:v>
+                  <c:v>5.0125778222854036</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5.0549066666666711</c:v>
+                  <c:v>5.0112065930323286</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5.0453850000000058</c:v>
+                  <c:v>5.0092631961772511</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5.033060000000007</c:v>
+                  <c:v>5.0067476317201711</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5.0179316666666756</c:v>
+                  <c:v>5.0036598996610877</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5.0000000000000098</c:v>
+                  <c:v>5.0000000000000018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3528,10 +3550,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.0128787878787877</c:v>
+                  <c:v>3.9563608090176294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7101210540906555</c:v>
+                  <c:v>3.3109669610188801</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -4704,604 +4726,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95867500000000005</c:v>
+                  <c:v>0.9455290939362081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93136666666666668</c:v>
+                  <c:v>0.90641016548776931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91807499999999997</c:v>
+                  <c:v>0.88264321465468354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91880000000000006</c:v>
+                  <c:v>0.87422824143695088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93354166666666671</c:v>
+                  <c:v>0.88116524583457123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96230000000000004</c:v>
+                  <c:v>0.90345422784754459</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0050750000000002</c:v>
+                  <c:v>0.94109518747587106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0618666666666667</c:v>
+                  <c:v>0.99408812471955066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1326750000000001</c:v>
+                  <c:v>1.0624330395785833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2175000000000002</c:v>
+                  <c:v>1.146129932052969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3163416666666667</c:v>
+                  <c:v>1.2451788021427077</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4292000000000002</c:v>
+                  <c:v>1.3595796498477994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5560750000000003</c:v>
+                  <c:v>1.4893324751682444</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.696966666666667</c:v>
+                  <c:v>1.6344372781040422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8518750000000004</c:v>
+                  <c:v>1.7948940586551931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0208000000000004</c:v>
+                  <c:v>1.9707028168216973</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2037416666666672</c:v>
+                  <c:v>2.1618635526035543</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4007000000000005</c:v>
+                  <c:v>2.3683762660007646</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6116750000000004</c:v>
+                  <c:v>2.5902409570133278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8366666666666669</c:v>
+                  <c:v>2.827457625641244</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0771634977272724</c:v>
+                  <c:v>3.080014697072603</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3512067090909081</c:v>
+                  <c:v>3.347075656951501</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.653183862878786</c:v>
+                  <c:v>3.6264440854827473</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9690158545454515</c:v>
+                  <c:v>3.9157965416156273</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2846235795454506</c:v>
+                  <c:v>4.2128095842994266</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5859279333333287</c:v>
+                  <c:v>4.5151597724834316</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.8588498113636316</c:v>
+                  <c:v>4.8205236651169265</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0934352727272678</c:v>
+                  <c:v>5.1266021229433152</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.3160755227272674</c:v>
+                  <c:v>5.4319680726500961</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.5342431818181756</c:v>
+                  <c:v>5.7362869528311204</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.7479382499999936</c:v>
+                  <c:v>6.0392932962437218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.9571607272727203</c:v>
+                  <c:v>6.3407216356452354</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.1619106136363566</c:v>
+                  <c:v>6.6403065037929947</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.3621879090909017</c:v>
+                  <c:v>6.9377824334443332</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.5579926136363555</c:v>
+                  <c:v>7.2328839573565844</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.749324727272719</c:v>
+                  <c:v>7.5253456082870835</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.9361842499999913</c:v>
+                  <c:v>7.8149019189931641</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.1185711818181723</c:v>
+                  <c:v>8.1012874222321596</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.2964855227272629</c:v>
+                  <c:v>8.3842366507614052</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.4699272727272632</c:v>
+                  <c:v>8.6634841373382336</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.6388964318181714</c:v>
+                  <c:v>8.9387644147199783</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.80339299999999</c:v>
+                  <c:v>9.2098120156639744</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.9634169772727166</c:v>
+                  <c:v>9.4763614729275556</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.1189683636363537</c:v>
+                  <c:v>9.7381473192680552</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.2700471590908986</c:v>
+                  <c:v>9.9949040874428068</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.4166533636363532</c:v>
+                  <c:v>10.246366310209147</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.5587869772727156</c:v>
+                  <c:v>10.492268520324407</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.6964479999999895</c:v>
+                  <c:v>10.732345250545922</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.8296364318181713</c:v>
+                  <c:v>10.966331033631025</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.9583522727272609</c:v>
+                  <c:v>11.193960402337051</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.0825955227272619</c:v>
+                  <c:v>11.414967889421332</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.2023661818181708</c:v>
+                  <c:v>11.629088027641204</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.3176642499999893</c:v>
+                  <c:v>11.836055349754002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.4284897272727157</c:v>
+                  <c:v>12.035604388517058</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.5348426136363535</c:v>
+                  <c:v>12.227469676687704</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.6367229090908992</c:v>
+                  <c:v>12.411385747023278</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.7341306136363528</c:v>
+                  <c:v>12.587087132281111</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.8270657272727178</c:v>
+                  <c:v>12.754308365218538</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.9155282499999906</c:v>
+                  <c:v>12.912783978592895</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.9995181818181713</c:v>
+                  <c:v>13.062248505161511</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.079035522727263</c:v>
+                  <c:v>13.202436477681724</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.154080272727263</c:v>
+                  <c:v>13.333082428910867</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.224652431818173</c:v>
+                  <c:v>13.453920891606273</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.290751999999992</c:v>
+                  <c:v>13.564686398525279</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.352378977272719</c:v>
+                  <c:v>13.665113482425214</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.409533363636356</c:v>
+                  <c:v>13.754936676063414</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.462215159090903</c:v>
+                  <c:v>13.833890512197215</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.510424363636357</c:v>
+                  <c:v>13.90170952358395</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.554160977272721</c:v>
+                  <c:v>13.958128242980951</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.593424999999995</c:v>
+                  <c:v>14.002881203145554</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.628216431818176</c:v>
+                  <c:v>14.035702936835092</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.658535272727269</c:v>
+                  <c:v>14.056327976806898</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.68438152272727</c:v>
+                  <c:v>14.064490855818308</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10.705755181818178</c:v>
+                  <c:v>14.059926106626655</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.722656249999998</c:v>
+                  <c:v>14.042368261989274</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.735084727272726</c:v>
+                  <c:v>14.011551854663496</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.743040613636362</c:v>
+                  <c:v>13.967211417406659</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10.746523909090909</c:v>
+                  <c:v>13.909081482976093</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.745534613636364</c:v>
+                  <c:v>13.836896584129134</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10.740072727272729</c:v>
+                  <c:v>13.750391253623116</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10.730138250000001</c:v>
+                  <c:v>13.649300024215373</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.715731181818185</c:v>
+                  <c:v>13.533357428663237</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.696851522727277</c:v>
+                  <c:v>13.402297999724045</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10.673499272727277</c:v>
+                  <c:v>13.255856270155128</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10.645674431818188</c:v>
+                  <c:v>13.093766772713824</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10.613377000000007</c:v>
+                  <c:v>12.915764040157462</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>10.576606977272734</c:v>
+                  <c:v>12.721582605243379</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.535364363636372</c:v>
+                  <c:v>12.510957000728908</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.489649159090918</c:v>
+                  <c:v>12.283621759371382</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.439461363636374</c:v>
+                  <c:v>12.039311413928138</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.384800977272739</c:v>
+                  <c:v>11.777760497156507</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.325668000000013</c:v>
+                  <c:v>11.498703541813823</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10.262062431818196</c:v>
+                  <c:v>11.201875080657421</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.193984272727288</c:v>
+                  <c:v>10.887009646444636</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10.121433522727289</c:v>
+                  <c:v>10.553841771932801</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10.044410181818199</c:v>
+                  <c:v>10.202105989879248</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.9563324684171928</c:v>
+                  <c:v>9.8315685866029074</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.8100620685495059</c:v>
+                  <c:v>9.4429396388514864</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.6005604756058371</c:v>
+                  <c:v>9.0380094659521344</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.3330227829768955</c:v>
+                  <c:v>8.6186275873177056</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9.0126440840533899</c:v>
+                  <c:v>8.1866435223610541</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.6446194722260294</c:v>
+                  <c:v>7.7439067904950294</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.2341440408855213</c:v>
+                  <c:v>7.2922669111324865</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.7864128834225674</c:v>
+                  <c:v>6.8335734036862714</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.3066210932278901</c:v>
+                  <c:v>6.3696757875692471</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.7999637636921912</c:v>
+                  <c:v>5.9024235821942623</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.271635988206179</c:v>
+                  <c:v>5.4336663069741684</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.7268328601605623</c:v>
+                  <c:v>4.9652534813218185</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.1707494729460493</c:v>
+                  <c:v>4.499034624650065</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.6085809199533498</c:v>
+                  <c:v>4.03685925637176</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.0455222945731704</c:v>
+                  <c:v>3.5805768958997568</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.4867686901962203</c:v>
+                  <c:v>3.1320370626469076</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.9375152002132086</c:v>
+                  <c:v>2.6930892760260647</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.4029569180148433</c:v>
+                  <c:v>2.2655830554500818</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.8882889369918332</c:v>
+                  <c:v>1.8513679203318101</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.3987063505348865</c:v>
+                  <c:v>1.4522933900841031</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.93940425203471178</c:v>
+                  <c:v>1.070208984119813</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.51557773488201775</c:v>
+                  <c:v>0.70696422185179231</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.13242189246751274</c:v>
+                  <c:v>0.3644086226928937</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.20486818181809469</c:v>
+                  <c:v>4.4391706055969843E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.49109739458409607</c:v>
+                  <c:v>-0.2512370086461268</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.72107065243978286</c:v>
+                  <c:v>-0.5206280020005436</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.88959286199444643</c:v>
+                  <c:v>-0.76193175459442808</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.99146892985737844</c:v>
+                  <c:v>-0.97329874701492758</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-1.0453888152483073</c:v>
+                  <c:v>-1.1532142606813363</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-1.0889077478991482</c:v>
+                  <c:v>-1.3021983946912843</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-1.1225607196322887</c:v>
+                  <c:v>-1.4215357939658801</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-1.146287546840953</c:v>
+                  <c:v>-1.5125124747704406</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-1.1600280459183647</c:v>
+                  <c:v>-1.5764144533702829</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-1.163722033257748</c:v>
+                  <c:v>-1.6145277460307235</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-1.1573093252523268</c:v>
+                  <c:v>-1.6281383690170796</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-1.140729738295325</c:v>
+                  <c:v>-1.6185323385946679</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-1.1139230887799665</c:v>
+                  <c:v>-1.5869956710288056</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-1.0768291930994756</c:v>
+                  <c:v>-1.5348143825848093</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-1.0293878676470758</c:v>
+                  <c:v>-1.4632744895279961</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.97153892881599135</c:v>
+                  <c:v>-1.3736620081236826</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.90322219299944617</c:v>
+                  <c:v>-1.2672629546371859</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.82437747659066418</c:v>
+                  <c:v>-1.1453633453338228</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.73494459598286932</c:v>
+                  <c:v>-1.0092491964789105</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.63486336756928552</c:v>
+                  <c:v>-0.86020652433776545</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.52407360774313683</c:v>
+                  <c:v>-0.69952134517570486</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.40251513289764718</c:v>
+                  <c:v>-0.52847967525804551</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-0.27012775942604045</c:v>
+                  <c:v>-0.34836753085010425</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-0.12685130372154069</c:v>
+                  <c:v>-0.16047092821719808</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.7467447916609933E-2</c:v>
+                  <c:v>3.3924506332920497E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.19643427721082143</c:v>
+                  <c:v>0.233654201799188</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.3804082366070744</c:v>
+                  <c:v>0.43784552813134986</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.57736727891149131</c:v>
+                  <c:v>0.64566898146613405</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.78528935693019453</c:v>
+                  <c:v>0.85629505794026861</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.0021524234693067</c:v>
+                  <c:v>1.0688942536904815</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.2259344313349501</c:v>
+                  <c:v>1.2826370648535008</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.4546133333332472</c:v>
+                  <c:v>1.4966939875660545</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.6861670822703207</c:v>
+                  <c:v>1.7102355179648705</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.9185736309522929</c:v>
+                  <c:v>1.922432152186677</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.1498109321852863</c:v>
+                  <c:v>2.1324543863682015</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.3778569387754231</c:v>
+                  <c:v>2.3394727166461728</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.6006896035288265</c:v>
+                  <c:v>2.5426576391573183</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.816286879251618</c:v>
+                  <c:v>2.7411796500383665</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.0226267187499207</c:v>
+                  <c:v>2.9342092454260449</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.2176870748298572</c:v>
+                  <c:v>3.1209169214570815</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.3994459002975494</c:v>
+                  <c:v>3.300473174268205</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.5658811479591201</c:v>
+                  <c:v>3.4720484999961427</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.7149707706206918</c:v>
+                  <c:v>3.6348133947776229</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.8446927210883866</c:v>
+                  <c:v>3.7879383547493735</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.9530249521683274</c:v>
+                  <c:v>3.9305938760481225</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>4.0403452388888548</c:v>
+                  <c:v>4.0619761201991569</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>4.1208493798610784</c:v>
+                  <c:v>4.1819222380657264</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>4.1972991999999687</c:v>
+                  <c:v>4.2909398607273657</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>4.2697963201388589</c:v>
+                  <c:v>4.3895681865691474</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>4.3384423611110829</c:v>
+                  <c:v>4.4783464139761433</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.403338943749973</c:v>
+                  <c:v>4.5578137413334243</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.4645876888888631</c:v>
+                  <c:v>4.6285093670260622</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.5222902173610864</c:v>
+                  <c:v>4.6909724894391287</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.5765481499999767</c:v>
+                  <c:v>4.7457423069576947</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.6274631076388673</c:v>
+                  <c:v>4.7933580179668329</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4.6751367111110902</c:v>
+                  <c:v>4.8343588208516142</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>4.7196705812499804</c:v>
+                  <c:v>4.8692839139971111</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>4.761166338888871</c:v>
+                  <c:v>4.8986724957883929</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>4.7997256048610941</c:v>
+                  <c:v>4.923063764610534</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>4.8354499999999847</c:v>
+                  <c:v>4.9429969188486043</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.868441145138874</c:v>
+                  <c:v>4.9590111568876756</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.8988006611110979</c:v>
+                  <c:v>4.9716456771128188</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.9266301687499876</c:v>
+                  <c:v>4.9814396779091075</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.952031288888878</c:v>
+                  <c:v>4.9889323576616107</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.9751056423611004</c:v>
+                  <c:v>4.994662914755402</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9959548499999906</c:v>
+                  <c:v>4.9991705475755523</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5.0144516666666581</c:v>
+                  <c:v>5.0029496226379084</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5.0301599999999933</c:v>
+                  <c:v>5.0061557342008545</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5.0430649999999941</c:v>
+                  <c:v>5.008789678161798</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5.0531666666666624</c:v>
+                  <c:v>5.010851454520739</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5.0604649999999971</c:v>
+                  <c:v>5.0123410632776775</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5.0649599999999984</c:v>
+                  <c:v>5.0132585044326134</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5.0666516666666661</c:v>
+                  <c:v>5.013603777985546</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5.0655400000000013</c:v>
+                  <c:v>5.0133768839364761</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5.0616250000000029</c:v>
+                  <c:v>5.0125778222854036</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5.0549066666666711</c:v>
+                  <c:v>5.0112065930323286</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5.0453850000000058</c:v>
+                  <c:v>5.0092631961772511</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5.033060000000007</c:v>
+                  <c:v>5.0067476317201711</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5.0179316666666756</c:v>
+                  <c:v>5.0036598996610877</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5.0000000000000098</c:v>
+                  <c:v>5.0000000000000018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6062,604 +6084,604 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1718975</c:v>
+                  <c:v>1.2168934154046951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3395900000000001</c:v>
+                  <c:v>1.4225474289401925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5030775000000001</c:v>
+                  <c:v>1.6169620406064924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6623600000000001</c:v>
+                  <c:v>1.8001372504035946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8174375</c:v>
+                  <c:v>1.9720730583314994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.96831</c:v>
+                  <c:v>2.1327694643902064</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1149775000000002</c:v>
+                  <c:v>2.2822264685797156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2574400000000003</c:v>
+                  <c:v>2.4204440709000274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3956975000000003</c:v>
+                  <c:v>2.5474222713511416</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5297500000000004</c:v>
+                  <c:v>2.6631610699330581</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6595975000000003</c:v>
+                  <c:v>2.7676604666457774</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7852400000000004</c:v>
+                  <c:v>2.8609204614892985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9066775000000002</c:v>
+                  <c:v>2.9429410544636223</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0236708978181821</c:v>
+                  <c:v>3.0137235102555056</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.1290387556818184</c:v>
+                  <c:v>3.0735150692709068</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2201428712727274</c:v>
+                  <c:v>3.1231012834918825</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2979610217727275</c:v>
+                  <c:v>3.1633389430661012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3634709843636363</c:v>
+                  <c:v>3.1950848381412307</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4176505362272729</c:v>
+                  <c:v>3.2191957588649394</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4614774545454545</c:v>
+                  <c:v>3.2365284953848956</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4959295164999999</c:v>
+                  <c:v>3.2479398378487674</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5219844992727274</c:v>
+                  <c:v>3.2542865764042235</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5406201800454546</c:v>
+                  <c:v>3.2564255011989318</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.552814336</c:v>
+                  <c:v>3.2552134023805612</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.559544744318182</c:v>
+                  <c:v>3.2515070700967788</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5617891821818182</c:v>
+                  <c:v>3.2461632944952541</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5605254267727275</c:v>
+                  <c:v>3.2400388657236543</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.5567312552727275</c:v>
+                  <c:v>3.2339905739296486</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.5513844448636367</c:v>
+                  <c:v>3.2288752092609045</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5454627727272729</c:v>
+                  <c:v>3.2255495618650905</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.5399440160454549</c:v>
+                  <c:v>3.2248704218898752</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.5358059520000005</c:v>
+                  <c:v>3.2276945794829266</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.5340263577727278</c:v>
+                  <c:v>3.2348788247919127</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.5355830105454547</c:v>
+                  <c:v>3.2472799479645023</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5414536875000002</c:v>
+                  <c:v>3.2657547391483632</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.5526161658181814</c:v>
+                  <c:v>3.291159988491164</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.5700482226818178</c:v>
+                  <c:v>3.3243524861405724</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.5947276352727262</c:v>
+                  <c:v>3.3661890222442574</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.6276321807727259</c:v>
+                  <c:v>3.4175263869498869</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.6697396363636341</c:v>
+                  <c:v>3.4792213704051291</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.72202777922727</c:v>
+                  <c:v>3.5521307627576526</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.785474386545451</c:v>
+                  <c:v>3.6371113541551252</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.8610572354999952</c:v>
+                  <c:v>3.7350199347452153</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.9497541032727215</c:v>
+                  <c:v>3.8467132946755913</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0525427670454475</c:v>
+                  <c:v>3.9730482240939216</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.1704010039999915</c:v>
+                  <c:v>4.114881513147874</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.3043065913181717</c:v>
+                  <c:v>4.273069951985117</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.4552373061818065</c:v>
+                  <c:v>4.4484703307533193</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6259779461926813</c:v>
+                  <c:v>4.6417851204921385</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.820680990819862</c:v>
+                  <c:v>4.8522511523034257</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.0373020942401014</c:v>
+                  <c:v>5.0782953360877778</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.2734924755244528</c:v>
+                  <c:v>5.3183360501203412</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.5269033537439682</c:v>
+                  <c:v>5.5707916726762647</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.7951859479696992</c:v>
+                  <c:v>5.8340805820306931</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.0759914772726988</c:v>
+                  <c:v>6.1066211564587745</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.3669711607240194</c:v>
+                  <c:v>6.3868317742356551</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.665776217394713</c:v>
+                  <c:v>6.6731308136364822</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.970057866355833</c:v>
+                  <c:v>6.9639366529364031</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.2774673266784307</c:v>
+                  <c:v>7.257667670410564</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.58565581743356</c:v>
+                  <c:v>7.5527422443341123</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.8922745576922715</c:v>
+                  <c:v>7.8475787529821952</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.1949747665256183</c:v>
+                  <c:v>8.140595574629959</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.4914076630046544</c:v>
+                  <c:v>8.43021108755255</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.7792244662004304</c:v>
+                  <c:v>8.7148436700251164</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.0560763951839984</c:v>
+                  <c:v>8.9929117003228054</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.3196146690264126</c:v>
+                  <c:v>9.2628335567207625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.567490506798725</c:v>
+                  <c:v>9.5230276174941348</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.7973551275719863</c:v>
+                  <c:v>9.7719122609180697</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.006871365224736</c:v>
+                  <c:v>10.007905884190327</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.204562967414502</c:v>
+                  <c:v>10.229937719369381</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.399337323626865</c:v>
+                  <c:v>10.438779777181308</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.591391339031311</c:v>
+                  <c:v>10.635619457552895</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.78092191879732</c:v>
+                  <c:v>10.821644160410932</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10.968125968094377</c:v>
+                  <c:v>10.998041285682204</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.153200392091964</c:v>
+                  <c:v>11.1659982332935</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.336342095959566</c:v>
+                  <c:v>11.326702403171609</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.517747984866666</c:v>
+                  <c:v>11.481341195243317</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.697614963982746</c:v>
+                  <c:v>11.631102009435415</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11.876139938477291</c:v>
+                  <c:v>11.777172245674686</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.053519813519783</c:v>
+                  <c:v>11.920739303887922</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12.229951494279705</c:v>
+                  <c:v>12.062990584001909</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12.405631885926542</c:v>
+                  <c:v>12.205113485943434</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.580757893629777</c:v>
+                  <c:v>12.348295409639288</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>12.755526422558891</c:v>
+                  <c:v>12.493723755016255</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.930134377883368</c:v>
+                  <c:v>12.642585922001127</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.104778664772693</c:v>
+                  <c:v>12.796069310520688</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.27965618839635</c:v>
+                  <c:v>12.955361320501728</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.45496385392382</c:v>
+                  <c:v>13.121649351871033</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.630898566524586</c:v>
+                  <c:v>13.296120804555393</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.807657231368132</c:v>
+                  <c:v>13.479963078481596</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>13.985436753623944</c:v>
+                  <c:v>13.674363573576427</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.164434038461501</c:v>
+                  <c:v>13.880509689766676</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14.344845991050288</c:v>
+                  <c:v>14.099588826979131</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.52686951655979</c:v>
+                  <c:v>14.33278838514058</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14.710701520159487</c:v>
+                  <c:v>14.58129576417781</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>14.896538907018865</c:v>
+                  <c:v>14.846298364017608</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15.085897408793379</c:v>
+                  <c:v>15.12891701587343</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.288181053163656</c:v>
+                  <c:v>15.428293972451359</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>15.503949439173374</c:v>
+                  <c:v>15.741306847311701</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>15.731677031877782</c:v>
+                  <c:v>16.064709145935645</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>15.969838296332124</c:v>
+                  <c:v>16.395254373804381</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.216907697591655</c:v>
+                  <c:v>16.729696036399101</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.471359700711616</c:v>
+                  <c:v>17.064787639200993</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>16.731668770747262</c:v>
+                  <c:v>17.397282687691249</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>16.996309372753839</c:v>
+                  <c:v>17.723934687351054</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>17.26375597178659</c:v>
+                  <c:v>18.041497143661601</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17.532483032900767</c:v>
+                  <c:v>18.346723562104081</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>17.800965021151622</c:v>
+                  <c:v>18.636367448159685</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>18.067676401594397</c:v>
+                  <c:v>18.907182307309597</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>18.331091639284345</c:v>
+                  <c:v>19.155921645035011</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>18.589685199276712</c:v>
+                  <c:v>19.379338966817119</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>18.841931546626743</c:v>
+                  <c:v>19.574187778137109</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19.086305146389694</c:v>
+                  <c:v>19.73722158447617</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>19.321280463620806</c:v>
+                  <c:v>19.865193891315492</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>19.545331963375329</c:v>
+                  <c:v>19.954858204136269</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>19.756934110708514</c:v>
+                  <c:v>20.002968028419684</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>19.954561370675606</c:v>
+                  <c:v>20.006276869646932</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>20.121532895693523</c:v>
+                  <c:v>19.961923630734969</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>20.222564467236779</c:v>
+                  <c:v>19.870306841541773</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>20.258860352826421</c:v>
+                  <c:v>19.733464056857823</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>20.233200952301878</c:v>
+                  <c:v>19.553445246135567</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>20.148366665502589</c:v>
+                  <c:v>19.332300378827433</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>20.007137892267988</c:v>
+                  <c:v>19.072079424385869</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>19.812295032437508</c:v>
+                  <c:v>18.774832352263306</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>19.566618485850579</c:v>
+                  <c:v>18.442609131912189</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>19.272888652346641</c:v>
+                  <c:v>18.077459732784948</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>18.933885931765126</c:v>
+                  <c:v>17.681434124334029</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18.552390723945464</c:v>
+                  <c:v>17.256582276011866</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>18.131183428727098</c:v>
+                  <c:v>16.804954157270899</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>17.673044445949451</c:v>
+                  <c:v>16.328599737563565</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>17.180754175451966</c:v>
+                  <c:v>15.829568986342302</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>16.657093017074072</c:v>
+                  <c:v>15.309911873059551</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>16.104841370655205</c:v>
+                  <c:v>14.771678367167748</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>15.526779636034796</c:v>
+                  <c:v>14.216918438119333</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>14.925688213052283</c:v>
+                  <c:v>13.647682055366742</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>14.304347501547097</c:v>
+                  <c:v>13.066019188362414</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>13.665537901358675</c:v>
+                  <c:v>12.473979806558789</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>13.012039812326448</c:v>
+                  <c:v>11.873613879408305</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>12.34663363428985</c:v>
+                  <c:v>11.266971376363399</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>11.672099767088318</c:v>
+                  <c:v>10.656102266876511</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>10.991218610561281</c:v>
+                  <c:v>10.043056520400077</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>10.306770564548179</c:v>
+                  <c:v>9.4298841063865364</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>9.6215360288884408</c:v>
+                  <c:v>8.8186349942883275</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8.9382954034215043</c:v>
+                  <c:v>8.2113591535578898</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8.2598290879867999</c:v>
+                  <c:v>7.6101065536476602</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>7.5889174824237644</c:v>
+                  <c:v>7.0169271640100774</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>6.92834098657183</c:v>
+                  <c:v>6.4338709540975794</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>6.2808800002704315</c:v>
+                  <c:v>5.8629878933626056</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>5.649314923359003</c:v>
+                  <c:v>5.3063279512575932</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>5.0364261556769776</c:v>
+                  <c:v>4.7659410972349807</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>4.4449940970637893</c:v>
+                  <c:v>4.243877300747207</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.8777991473588735</c:v>
+                  <c:v>3.7421865312467104</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.3376217064016629</c:v>
+                  <c:v>3.2629187581859282</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.8272421740315914</c:v>
+                  <c:v>2.8081239510172997</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.3494409500880935</c:v>
+                  <c:v>2.3798520791932631</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.9069984344106032</c:v>
+                  <c:v>1.9801531121662563</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.5026950268385542</c:v>
+                  <c:v>1.6110770193887178</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.1393111272113803</c:v>
+                  <c:v>1.2746737703130862</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.81962713536851561</c:v>
+                  <c:v>0.97299333439179936</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.54642345114939428</c:v>
+                  <c:v>0.70808568107729597</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.32248047439345012</c:v>
+                  <c:v>0.48200077982201417</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.1505786049401171</c:v>
+                  <c:v>0.29678860007839225</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.3498242628829195E-2</c:v>
+                  <c:v>0.15449911129886867</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-2.5980212700979655E-2</c:v>
+                  <c:v>5.7182282935881651E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-2.507636120987547E-2</c:v>
+                  <c:v>6.8880844418695367E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.6937693732157335E-2</c:v>
+                  <c:v>5.5553692615704642E-3</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.14696661128911886</c:v>
+                  <c:v>5.2347884745025143E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.29847138461531281</c:v>
+                  <c:v>0.14352659402357343</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.48694421777056823</c:v>
+                  <c:v>0.27521579239838007</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.70787731481471428</c:v>
+                  <c:v>0.44353977517060988</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.95676287980758001</c:v>
+                  <c:v>0.64462283764142769</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.2290931168089947</c:v>
+                  <c:v>0.87458927511199813</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.5203602298787871</c:v>
+                  <c:v>1.1295633828834861</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.8260564230767864</c:v>
+                  <c:v>1.4056694562570562</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.141673900462822</c:v>
+                  <c:v>1.6990317905338734</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.4627048660967228</c:v>
+                  <c:v>2.0057746810151027</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.7846415240383178</c:v>
+                  <c:v>2.3220224230019082</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.1029760783474365</c:v>
+                  <c:v>2.643899311795455</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.4132007330839071</c:v>
+                  <c:v>2.967529642696908</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.7108076923075597</c:v>
+                  <c:v>3.289037711007432</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.9912891600782232</c:v>
+                  <c:v>3.6045478120281915</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.2501373404557263</c:v>
+                  <c:v>3.9101842410603518</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.4828444374998977</c:v>
+                  <c:v>4.2020712934050772</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.6849026552705677</c:v>
+                  <c:v>4.4763332643635323</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.8518041978275654</c:v>
+                  <c:v>4.7290944492368823</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.9790412692307182</c:v>
+                  <c:v>4.956479143326292</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>5.0722583333332922</c:v>
+                  <c:v>5.1549338889778413</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5.1507999999999656</c:v>
+                  <c:v>5.3233402900408207</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5.2153249999999725</c:v>
+                  <c:v>5.4616926256833329</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>5.2658333333333118</c:v>
+                  <c:v>5.5699908959053772</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5.3023249999999855</c:v>
+                  <c:v>5.6482351007069544</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>5.3247999999999927</c:v>
+                  <c:v>5.6964252400880637</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>5.3332583333333323</c:v>
+                  <c:v>5.7145613140487059</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>5.3277000000000063</c:v>
+                  <c:v>5.7026433225888802</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>5.3081250000000129</c:v>
+                  <c:v>5.6606712657085865</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>5.2745333333333537</c:v>
+                  <c:v>5.5886451434078257</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5.226925000000028</c:v>
+                  <c:v>5.486564955686597</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5.1653000000000349</c:v>
+                  <c:v>5.3544307025449012</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5.089658333333376</c:v>
+                  <c:v>5.1922423839827374</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5.0000000000000497</c:v>
+                  <c:v>5.0000000000001066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6736,16 +6758,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5198823159336086</c:v>
+                  <c:v>3.2538855847684771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.160644910644911</c:v>
+                  <c:v>7.1460086957131326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83927333619283173</c:v>
+                  <c:v>0.99174486076679491</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9999999999999991</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -8747,7 +8769,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$AD$1" fmlaRange="$AD$2:$AD$5" noThreeD="1" sel="3" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$AD$1" fmlaRange="$AD$2:$AD$5" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9952,7 +9974,7 @@
   <dimension ref="A1:AI230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9969,15 +9991,15 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="str">
-        <f>[1]!unf_Version()</f>
-        <v>7.26</v>
+      <c r="G1" t="str" cm="1">
+        <f t="array" ref="G1">[1]!unf_Version()</f>
+        <v>7.31</v>
       </c>
       <c r="AC1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="AD1" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE1" s="14"/>
       <c r="AF1" s="14"/>
@@ -10443,7 +10465,7 @@
       </c>
       <c r="H20" s="13">
         <f>AD1-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -10522,11 +10544,11 @@
       </c>
       <c r="C22" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B22,тип_интерполяции_)</f>
-        <v>0.95867500000000005</v>
+        <v>0.9455290939362081</v>
       </c>
       <c r="D22" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B22,тип_интерполяции_)</f>
-        <v>1.1718975</v>
+        <v>1.2168934154046951</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -10566,11 +10588,11 @@
       </c>
       <c r="C23" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B23,тип_интерполяции_)</f>
-        <v>0.93136666666666668</v>
+        <v>0.90641016548776931</v>
       </c>
       <c r="D23" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B23,тип_интерполяции_)</f>
-        <v>1.3395900000000001</v>
+        <v>1.4225474289401925</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -10610,11 +10632,11 @@
       </c>
       <c r="C24" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B24,тип_интерполяции_)</f>
-        <v>0.91807499999999997</v>
+        <v>0.88264321465468354</v>
       </c>
       <c r="D24" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B24,тип_интерполяции_)</f>
-        <v>1.5030775000000001</v>
+        <v>1.6169620406064924</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -10654,11 +10676,11 @@
       </c>
       <c r="C25" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B25,тип_интерполяции_)</f>
-        <v>0.91880000000000006</v>
+        <v>0.87422824143695088</v>
       </c>
       <c r="D25" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B25,тип_интерполяции_)</f>
-        <v>1.6623600000000001</v>
+        <v>1.8001372504035946</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -10698,11 +10720,11 @@
       </c>
       <c r="C26" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B26,тип_интерполяции_)</f>
-        <v>0.93354166666666671</v>
+        <v>0.88116524583457123</v>
       </c>
       <c r="D26" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B26,тип_интерполяции_)</f>
-        <v>1.8174375</v>
+        <v>1.9720730583314994</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -10742,11 +10764,11 @@
       </c>
       <c r="C27" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B27,тип_интерполяции_)</f>
-        <v>0.96230000000000004</v>
+        <v>0.90345422784754459</v>
       </c>
       <c r="D27" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B27,тип_интерполяции_)</f>
-        <v>1.96831</v>
+        <v>2.1327694643902064</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -10790,11 +10812,11 @@
       </c>
       <c r="C28" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B28,тип_интерполяции_)</f>
-        <v>1.0050750000000002</v>
+        <v>0.94109518747587106</v>
       </c>
       <c r="D28" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B28,тип_интерполяции_)</f>
-        <v>2.1149775000000002</v>
+        <v>2.2822264685797156</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -10834,11 +10856,11 @@
       </c>
       <c r="C29" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B29,тип_интерполяции_)</f>
-        <v>1.0618666666666667</v>
+        <v>0.99408812471955066</v>
       </c>
       <c r="D29" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B29,тип_интерполяции_)</f>
-        <v>2.2574400000000003</v>
+        <v>2.4204440709000274</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -10878,11 +10900,11 @@
       </c>
       <c r="C30" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B30,тип_интерполяции_)</f>
-        <v>1.1326750000000001</v>
+        <v>1.0624330395785833</v>
       </c>
       <c r="D30" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B30,тип_интерполяции_)</f>
-        <v>2.3956975000000003</v>
+        <v>2.5474222713511416</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -10950,11 +10972,11 @@
       </c>
       <c r="C31" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B31,тип_интерполяции_)</f>
-        <v>1.2175000000000002</v>
+        <v>1.146129932052969</v>
       </c>
       <c r="D31" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B31,тип_интерполяции_)</f>
-        <v>2.5297500000000004</v>
+        <v>2.6631610699330581</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -10970,11 +10992,11 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="17">
         <f>[1]!crv_interpolation(x_,fx_,R30,тип_интерполяции_)</f>
-        <v>4.0128787878787877</v>
+        <v>3.9563608090176294</v>
       </c>
       <c r="S31" s="17">
         <f>[1]!crv_interpolation(x_,fx_,S30,тип_интерполяции_)</f>
-        <v>3.7101210540906555</v>
+        <v>3.3109669610188801</v>
       </c>
       <c r="T31" s="17">
         <f>[1]!crv_interpolation(x_,fx_,T30,тип_интерполяции_)</f>
@@ -10999,19 +11021,19 @@
       </c>
       <c r="AD31" s="17">
         <f>[1]!crv_interpolation(x2_,gx2_,AD30,тип_интерполяции_)</f>
-        <v>3.5198823159336086</v>
+        <v>3.2538855847684771</v>
       </c>
       <c r="AE31" s="17">
         <f>[1]!crv_interpolation(x2_,gx2_,AE30,тип_интерполяции_)</f>
-        <v>7.160644910644911</v>
+        <v>7.1460086957131326</v>
       </c>
       <c r="AF31" s="17">
         <f>[1]!crv_interpolation(x2_,gx2_,AF30,тип_интерполяции_)</f>
-        <v>0.83927333619283173</v>
+        <v>0.99174486076679491</v>
       </c>
       <c r="AG31" s="17">
         <f>[1]!crv_interpolation(x2_,gx2_,AG30,тип_интерполяции_)</f>
-        <v>4.9999999999999991</v>
+        <v>5</v>
       </c>
       <c r="AH31" s="17">
         <f>[1]!crv_interpolation(x2_,gx2_,AH30,тип_интерполяции_)</f>
@@ -11027,11 +11049,11 @@
       </c>
       <c r="C32" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B32,тип_интерполяции_)</f>
-        <v>1.3163416666666667</v>
+        <v>1.2451788021427077</v>
       </c>
       <c r="D32" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B32,тип_интерполяции_)</f>
-        <v>2.6595975000000003</v>
+        <v>2.7676604666457774</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -11071,11 +11093,11 @@
       </c>
       <c r="C33" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B33,тип_интерполяции_)</f>
-        <v>1.4292000000000002</v>
+        <v>1.3595796498477994</v>
       </c>
       <c r="D33" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B33,тип_интерполяции_)</f>
-        <v>2.7852400000000004</v>
+        <v>2.8609204614892985</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -11115,11 +11137,11 @@
       </c>
       <c r="C34" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B34,тип_интерполяции_)</f>
-        <v>1.5560750000000003</v>
+        <v>1.4893324751682444</v>
       </c>
       <c r="D34" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B34,тип_интерполяции_)</f>
-        <v>2.9066775000000002</v>
+        <v>2.9429410544636223</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -11159,11 +11181,11 @@
       </c>
       <c r="C35" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B35,тип_интерполяции_)</f>
-        <v>1.696966666666667</v>
+        <v>1.6344372781040422</v>
       </c>
       <c r="D35" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B35,тип_интерполяции_)</f>
-        <v>3.0236708978181821</v>
+        <v>3.0137235102555056</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -11203,11 +11225,11 @@
       </c>
       <c r="C36" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B36,тип_интерполяции_)</f>
-        <v>1.8518750000000004</v>
+        <v>1.7948940586551931</v>
       </c>
       <c r="D36" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B36,тип_интерполяции_)</f>
-        <v>3.1290387556818184</v>
+        <v>3.0735150692709068</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -11247,11 +11269,11 @@
       </c>
       <c r="C37" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B37,тип_интерполяции_)</f>
-        <v>2.0208000000000004</v>
+        <v>1.9707028168216973</v>
       </c>
       <c r="D37" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B37,тип_интерполяции_)</f>
-        <v>3.2201428712727274</v>
+        <v>3.1231012834918825</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -11291,11 +11313,11 @@
       </c>
       <c r="C38" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B38,тип_интерполяции_)</f>
-        <v>2.2037416666666672</v>
+        <v>2.1618635526035543</v>
       </c>
       <c r="D38" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B38,тип_интерполяции_)</f>
-        <v>3.2979610217727275</v>
+        <v>3.1633389430661012</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -11335,11 +11357,11 @@
       </c>
       <c r="C39" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B39,тип_интерполяции_)</f>
-        <v>2.4007000000000005</v>
+        <v>2.3683762660007646</v>
       </c>
       <c r="D39" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B39,тип_интерполяции_)</f>
-        <v>3.3634709843636363</v>
+        <v>3.1950848381412307</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -11379,11 +11401,11 @@
       </c>
       <c r="C40" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B40,тип_интерполяции_)</f>
-        <v>2.6116750000000004</v>
+        <v>2.5902409570133278</v>
       </c>
       <c r="D40" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B40,тип_интерполяции_)</f>
-        <v>3.4176505362272729</v>
+        <v>3.2191957588649394</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -11423,11 +11445,11 @@
       </c>
       <c r="C41" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B41,тип_интерполяции_)</f>
-        <v>2.8366666666666669</v>
+        <v>2.827457625641244</v>
       </c>
       <c r="D41" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B41,тип_интерполяции_)</f>
-        <v>3.4614774545454545</v>
+        <v>3.2365284953848956</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -11467,11 +11489,11 @@
       </c>
       <c r="C42" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B42,тип_интерполяции_)</f>
-        <v>3.0771634977272724</v>
+        <v>3.080014697072603</v>
       </c>
       <c r="D42" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B42,тип_интерполяции_)</f>
-        <v>3.4959295164999999</v>
+        <v>3.2479398378487674</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -11511,11 +11533,11 @@
       </c>
       <c r="C43" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B43,тип_интерполяции_)</f>
-        <v>3.3512067090909081</v>
+        <v>3.347075656951501</v>
       </c>
       <c r="D43" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B43,тип_интерполяции_)</f>
-        <v>3.5219844992727274</v>
+        <v>3.2542865764042235</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -11555,11 +11577,11 @@
       </c>
       <c r="C44" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B44,тип_интерполяции_)</f>
-        <v>3.653183862878786</v>
+        <v>3.6264440854827473</v>
       </c>
       <c r="D44" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B44,тип_интерполяции_)</f>
-        <v>3.5406201800454546</v>
+        <v>3.2564255011989318</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -11599,11 +11621,11 @@
       </c>
       <c r="C45" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B45,тип_интерполяции_)</f>
-        <v>3.9690158545454515</v>
+        <v>3.9157965416156273</v>
       </c>
       <c r="D45" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B45,тип_интерполяции_)</f>
-        <v>3.552814336</v>
+        <v>3.2552134023805612</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -11643,11 +11665,11 @@
       </c>
       <c r="C46" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B46,тип_интерполяции_)</f>
-        <v>4.2846235795454506</v>
+        <v>4.2128095842994266</v>
       </c>
       <c r="D46" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B46,тип_интерполяции_)</f>
-        <v>3.559544744318182</v>
+        <v>3.2515070700967788</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -11687,11 +11709,11 @@
       </c>
       <c r="C47" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B47,тип_интерполяции_)</f>
-        <v>4.5859279333333287</v>
+        <v>4.5151597724834316</v>
       </c>
       <c r="D47" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B47,тип_интерполяции_)</f>
-        <v>3.5617891821818182</v>
+        <v>3.2461632944952541</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -11731,11 +11753,11 @@
       </c>
       <c r="C48" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B48,тип_интерполяции_)</f>
-        <v>4.8588498113636316</v>
+        <v>4.8205236651169265</v>
       </c>
       <c r="D48" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B48,тип_интерполяции_)</f>
-        <v>3.5605254267727275</v>
+        <v>3.2400388657236543</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -11775,11 +11797,11 @@
       </c>
       <c r="C49" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B49,тип_интерполяции_)</f>
-        <v>5.0934352727272678</v>
+        <v>5.1266021229433152</v>
       </c>
       <c r="D49" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B49,тип_интерполяции_)</f>
-        <v>3.5567312552727275</v>
+        <v>3.2339905739296486</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -11819,11 +11841,11 @@
       </c>
       <c r="C50" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B50,тип_интерполяции_)</f>
-        <v>5.3160755227272674</v>
+        <v>5.4319680726500961</v>
       </c>
       <c r="D50" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B50,тип_интерполяции_)</f>
-        <v>3.5513844448636367</v>
+        <v>3.2288752092609045</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -11863,11 +11885,11 @@
       </c>
       <c r="C51" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B51,тип_интерполяции_)</f>
-        <v>5.5342431818181756</v>
+        <v>5.7362869528311204</v>
       </c>
       <c r="D51" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B51,тип_интерполяции_)</f>
-        <v>3.5454627727272729</v>
+        <v>3.2255495618650905</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -11907,11 +11929,11 @@
       </c>
       <c r="C52" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B52,тип_интерполяции_)</f>
-        <v>5.7479382499999936</v>
+        <v>6.0392932962437218</v>
       </c>
       <c r="D52" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B52,тип_интерполяции_)</f>
-        <v>3.5399440160454549</v>
+        <v>3.2248704218898752</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -11951,11 +11973,11 @@
       </c>
       <c r="C53" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B53,тип_интерполяции_)</f>
-        <v>5.9571607272727203</v>
+        <v>6.3407216356452354</v>
       </c>
       <c r="D53" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B53,тип_интерполяции_)</f>
-        <v>3.5358059520000005</v>
+        <v>3.2276945794829266</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -11995,11 +12017,11 @@
       </c>
       <c r="C54" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B54,тип_интерполяции_)</f>
-        <v>6.1619106136363566</v>
+        <v>6.6403065037929947</v>
       </c>
       <c r="D54" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B54,тип_интерполяции_)</f>
-        <v>3.5340263577727278</v>
+        <v>3.2348788247919127</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -12039,11 +12061,11 @@
       </c>
       <c r="C55" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B55,тип_интерполяции_)</f>
-        <v>6.3621879090909017</v>
+        <v>6.9377824334443332</v>
       </c>
       <c r="D55" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B55,тип_интерполяции_)</f>
-        <v>3.5355830105454547</v>
+        <v>3.2472799479645023</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -12083,11 +12105,11 @@
       </c>
       <c r="C56" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B56,тип_интерполяции_)</f>
-        <v>6.5579926136363555</v>
+        <v>7.2328839573565844</v>
       </c>
       <c r="D56" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B56,тип_интерполяции_)</f>
-        <v>3.5414536875000002</v>
+        <v>3.2657547391483632</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -12127,11 +12149,11 @@
       </c>
       <c r="C57" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B57,тип_интерполяции_)</f>
-        <v>6.749324727272719</v>
+        <v>7.5253456082870835</v>
       </c>
       <c r="D57" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B57,тип_интерполяции_)</f>
-        <v>3.5526161658181814</v>
+        <v>3.291159988491164</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -12171,11 +12193,11 @@
       </c>
       <c r="C58" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B58,тип_интерполяции_)</f>
-        <v>6.9361842499999913</v>
+        <v>7.8149019189931641</v>
       </c>
       <c r="D58" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B58,тип_интерполяции_)</f>
-        <v>3.5700482226818178</v>
+        <v>3.3243524861405724</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -12215,11 +12237,11 @@
       </c>
       <c r="C59" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B59,тип_интерполяции_)</f>
-        <v>7.1185711818181723</v>
+        <v>8.1012874222321596</v>
       </c>
       <c r="D59" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B59,тип_интерполяции_)</f>
-        <v>3.5947276352727262</v>
+        <v>3.3661890222442574</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -12259,11 +12281,11 @@
       </c>
       <c r="C60" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B60,тип_интерполяции_)</f>
-        <v>7.2964855227272629</v>
+        <v>8.3842366507614052</v>
       </c>
       <c r="D60" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B60,тип_интерполяции_)</f>
-        <v>3.6276321807727259</v>
+        <v>3.4175263869498869</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -12284,11 +12306,11 @@
       </c>
       <c r="C61" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B61,тип_интерполяции_)</f>
-        <v>7.4699272727272632</v>
+        <v>8.6634841373382336</v>
       </c>
       <c r="D61" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B61,тип_интерполяции_)</f>
-        <v>3.6697396363636341</v>
+        <v>3.4792213704051291</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -12309,11 +12331,11 @@
       </c>
       <c r="C62" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B62,тип_интерполяции_)</f>
-        <v>7.6388964318181714</v>
+        <v>8.9387644147199783</v>
       </c>
       <c r="D62" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B62,тип_интерполяции_)</f>
-        <v>3.72202777922727</v>
+        <v>3.5521307627576526</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -12334,11 +12356,11 @@
       </c>
       <c r="C63" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B63,тип_интерполяции_)</f>
-        <v>7.80339299999999</v>
+        <v>9.2098120156639744</v>
       </c>
       <c r="D63" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B63,тип_интерполяции_)</f>
-        <v>3.785474386545451</v>
+        <v>3.6371113541551252</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -12359,11 +12381,11 @@
       </c>
       <c r="C64" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B64,тип_интерполяции_)</f>
-        <v>7.9634169772727166</v>
+        <v>9.4763614729275556</v>
       </c>
       <c r="D64" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B64,тип_интерполяции_)</f>
-        <v>3.8610572354999952</v>
+        <v>3.7350199347452153</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -12384,11 +12406,11 @@
       </c>
       <c r="C65" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B65,тип_интерполяции_)</f>
-        <v>8.1189683636363537</v>
+        <v>9.7381473192680552</v>
       </c>
       <c r="D65" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B65,тип_интерполяции_)</f>
-        <v>3.9497541032727215</v>
+        <v>3.8467132946755913</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -12409,11 +12431,11 @@
       </c>
       <c r="C66" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B66,тип_интерполяции_)</f>
-        <v>8.2700471590908986</v>
+        <v>9.9949040874428068</v>
       </c>
       <c r="D66" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B66,тип_интерполяции_)</f>
-        <v>4.0525427670454475</v>
+        <v>3.9730482240939216</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -12434,11 +12456,11 @@
       </c>
       <c r="C67" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B67,тип_интерполяции_)</f>
-        <v>8.4166533636363532</v>
+        <v>10.246366310209147</v>
       </c>
       <c r="D67" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B67,тип_интерполяции_)</f>
-        <v>4.1704010039999915</v>
+        <v>4.114881513147874</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -12459,11 +12481,11 @@
       </c>
       <c r="C68" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B68,тип_интерполяции_)</f>
-        <v>8.5587869772727156</v>
+        <v>10.492268520324407</v>
       </c>
       <c r="D68" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B68,тип_интерполяции_)</f>
-        <v>4.3043065913181717</v>
+        <v>4.273069951985117</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -12484,11 +12506,11 @@
       </c>
       <c r="C69" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B69,тип_интерполяции_)</f>
-        <v>8.6964479999999895</v>
+        <v>10.732345250545922</v>
       </c>
       <c r="D69" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B69,тип_интерполяции_)</f>
-        <v>4.4552373061818065</v>
+        <v>4.4484703307533193</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -12509,11 +12531,11 @@
       </c>
       <c r="C70" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B70,тип_интерполяции_)</f>
-        <v>8.8296364318181713</v>
+        <v>10.966331033631025</v>
       </c>
       <c r="D70" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B70,тип_интерполяции_)</f>
-        <v>4.6259779461926813</v>
+        <v>4.6417851204921385</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -12534,11 +12556,11 @@
       </c>
       <c r="C71" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B71,тип_интерполяции_)</f>
-        <v>8.9583522727272609</v>
+        <v>11.193960402337051</v>
       </c>
       <c r="D71" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B71,тип_интерполяции_)</f>
-        <v>4.820680990819862</v>
+        <v>4.8522511523034257</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -12559,11 +12581,11 @@
       </c>
       <c r="C72" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B72,тип_интерполяции_)</f>
-        <v>9.0825955227272619</v>
+        <v>11.414967889421332</v>
       </c>
       <c r="D72" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B72,тип_интерполяции_)</f>
-        <v>5.0373020942401014</v>
+        <v>5.0782953360877778</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -12584,11 +12606,11 @@
       </c>
       <c r="C73" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B73,тип_интерполяции_)</f>
-        <v>9.2023661818181708</v>
+        <v>11.629088027641204</v>
       </c>
       <c r="D73" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B73,тип_интерполяции_)</f>
-        <v>5.2734924755244528</v>
+        <v>5.3183360501203412</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -12609,11 +12631,11 @@
       </c>
       <c r="C74" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B74,тип_интерполяции_)</f>
-        <v>9.3176642499999893</v>
+        <v>11.836055349754002</v>
       </c>
       <c r="D74" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B74,тип_интерполяции_)</f>
-        <v>5.5269033537439682</v>
+        <v>5.5707916726762647</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -12634,11 +12656,11 @@
       </c>
       <c r="C75" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B75,тип_интерполяции_)</f>
-        <v>9.4284897272727157</v>
+        <v>12.035604388517058</v>
       </c>
       <c r="D75" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B75,тип_интерполяции_)</f>
-        <v>5.7951859479696992</v>
+        <v>5.8340805820306931</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -12659,11 +12681,11 @@
       </c>
       <c r="C76" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B76,тип_интерполяции_)</f>
-        <v>9.5348426136363535</v>
+        <v>12.227469676687704</v>
       </c>
       <c r="D76" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B76,тип_интерполяции_)</f>
-        <v>6.0759914772726988</v>
+        <v>6.1066211564587745</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -12684,11 +12706,11 @@
       </c>
       <c r="C77" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B77,тип_интерполяции_)</f>
-        <v>9.6367229090908992</v>
+        <v>12.411385747023278</v>
       </c>
       <c r="D77" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B77,тип_интерполяции_)</f>
-        <v>6.3669711607240194</v>
+        <v>6.3868317742356551</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -12709,11 +12731,11 @@
       </c>
       <c r="C78" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B78,тип_интерполяции_)</f>
-        <v>9.7341306136363528</v>
+        <v>12.587087132281111</v>
       </c>
       <c r="D78" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B78,тип_интерполяции_)</f>
-        <v>6.665776217394713</v>
+        <v>6.6731308136364822</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -12734,11 +12756,11 @@
       </c>
       <c r="C79" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B79,тип_интерполяции_)</f>
-        <v>9.8270657272727178</v>
+        <v>12.754308365218538</v>
       </c>
       <c r="D79" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B79,тип_интерполяции_)</f>
-        <v>6.970057866355833</v>
+        <v>6.9639366529364031</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -12759,11 +12781,11 @@
       </c>
       <c r="C80" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B80,тип_интерполяции_)</f>
-        <v>9.9155282499999906</v>
+        <v>12.912783978592895</v>
       </c>
       <c r="D80" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B80,тип_интерполяции_)</f>
-        <v>7.2774673266784307</v>
+        <v>7.257667670410564</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -12784,11 +12806,11 @@
       </c>
       <c r="C81" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B81,тип_интерполяции_)</f>
-        <v>9.9995181818181713</v>
+        <v>13.062248505161511</v>
       </c>
       <c r="D81" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B81,тип_интерполяции_)</f>
-        <v>7.58565581743356</v>
+        <v>7.5527422443341123</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -12809,11 +12831,11 @@
       </c>
       <c r="C82" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B82,тип_интерполяции_)</f>
-        <v>10.079035522727263</v>
+        <v>13.202436477681724</v>
       </c>
       <c r="D82" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B82,тип_интерполяции_)</f>
-        <v>7.8922745576922715</v>
+        <v>7.8475787529821952</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -12834,11 +12856,11 @@
       </c>
       <c r="C83" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B83,тип_интерполяции_)</f>
-        <v>10.154080272727263</v>
+        <v>13.333082428910867</v>
       </c>
       <c r="D83" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B83,тип_интерполяции_)</f>
-        <v>8.1949747665256183</v>
+        <v>8.140595574629959</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -12859,11 +12881,11 @@
       </c>
       <c r="C84" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B84,тип_интерполяции_)</f>
-        <v>10.224652431818173</v>
+        <v>13.453920891606273</v>
       </c>
       <c r="D84" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B84,тип_интерполяции_)</f>
-        <v>8.4914076630046544</v>
+        <v>8.43021108755255</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -12884,11 +12906,11 @@
       </c>
       <c r="C85" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B85,тип_интерполяции_)</f>
-        <v>10.290751999999992</v>
+        <v>13.564686398525279</v>
       </c>
       <c r="D85" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B85,тип_интерполяции_)</f>
-        <v>8.7792244662004304</v>
+        <v>8.7148436700251164</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -12909,11 +12931,11 @@
       </c>
       <c r="C86" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B86,тип_интерполяции_)</f>
-        <v>10.352378977272719</v>
+        <v>13.665113482425214</v>
       </c>
       <c r="D86" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B86,тип_интерполяции_)</f>
-        <v>9.0560763951839984</v>
+        <v>8.9929117003228054</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -12934,11 +12956,11 @@
       </c>
       <c r="C87" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B87,тип_интерполяции_)</f>
-        <v>10.409533363636356</v>
+        <v>13.754936676063414</v>
       </c>
       <c r="D87" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B87,тип_интерполяции_)</f>
-        <v>9.3196146690264126</v>
+        <v>9.2628335567207625</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -12959,11 +12981,11 @@
       </c>
       <c r="C88" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B88,тип_интерполяции_)</f>
-        <v>10.462215159090903</v>
+        <v>13.833890512197215</v>
       </c>
       <c r="D88" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B88,тип_интерполяции_)</f>
-        <v>9.567490506798725</v>
+        <v>9.5230276174941348</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -12984,11 +13006,11 @@
       </c>
       <c r="C89" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B89,тип_интерполяции_)</f>
-        <v>10.510424363636357</v>
+        <v>13.90170952358395</v>
       </c>
       <c r="D89" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B89,тип_интерполяции_)</f>
-        <v>9.7973551275719863</v>
+        <v>9.7719122609180697</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -13009,11 +13031,11 @@
       </c>
       <c r="C90" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B90,тип_интерполяции_)</f>
-        <v>10.554160977272721</v>
+        <v>13.958128242980951</v>
       </c>
       <c r="D90" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B90,тип_интерполяции_)</f>
-        <v>10.006871365224736</v>
+        <v>10.007905884190327</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -13034,11 +13056,11 @@
       </c>
       <c r="C91" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B91,тип_интерполяции_)</f>
-        <v>10.593424999999995</v>
+        <v>14.002881203145554</v>
       </c>
       <c r="D91" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B91,тип_интерполяции_)</f>
-        <v>10.204562967414502</v>
+        <v>10.229937719369381</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -13059,11 +13081,11 @@
       </c>
       <c r="C92" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B92,тип_интерполяции_)</f>
-        <v>10.628216431818176</v>
+        <v>14.035702936835092</v>
       </c>
       <c r="D92" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B92,тип_интерполяции_)</f>
-        <v>10.399337323626865</v>
+        <v>10.438779777181308</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -13084,11 +13106,11 @@
       </c>
       <c r="C93" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B93,тип_интерполяции_)</f>
-        <v>10.658535272727269</v>
+        <v>14.056327976806898</v>
       </c>
       <c r="D93" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B93,тип_интерполяции_)</f>
-        <v>10.591391339031311</v>
+        <v>10.635619457552895</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -13109,11 +13131,11 @@
       </c>
       <c r="C94" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B94,тип_интерполяции_)</f>
-        <v>10.68438152272727</v>
+        <v>14.064490855818308</v>
       </c>
       <c r="D94" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B94,тип_интерполяции_)</f>
-        <v>10.78092191879732</v>
+        <v>10.821644160410932</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -13134,11 +13156,11 @@
       </c>
       <c r="C95" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B95,тип_интерполяции_)</f>
-        <v>10.705755181818178</v>
+        <v>14.059926106626655</v>
       </c>
       <c r="D95" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B95,тип_интерполяции_)</f>
-        <v>10.968125968094377</v>
+        <v>10.998041285682204</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -13159,11 +13181,11 @@
       </c>
       <c r="C96" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B96,тип_интерполяции_)</f>
-        <v>10.722656249999998</v>
+        <v>14.042368261989274</v>
       </c>
       <c r="D96" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B96,тип_интерполяции_)</f>
-        <v>11.153200392091964</v>
+        <v>11.1659982332935</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -13184,11 +13206,11 @@
       </c>
       <c r="C97" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B97,тип_интерполяции_)</f>
-        <v>10.735084727272726</v>
+        <v>14.011551854663496</v>
       </c>
       <c r="D97" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B97,тип_интерполяции_)</f>
-        <v>11.336342095959566</v>
+        <v>11.326702403171609</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -13209,11 +13231,11 @@
       </c>
       <c r="C98" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B98,тип_интерполяции_)</f>
-        <v>10.743040613636362</v>
+        <v>13.967211417406659</v>
       </c>
       <c r="D98" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B98,тип_интерполяции_)</f>
-        <v>11.517747984866666</v>
+        <v>11.481341195243317</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -13234,11 +13256,11 @@
       </c>
       <c r="C99" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B99,тип_интерполяции_)</f>
-        <v>10.746523909090909</v>
+        <v>13.909081482976093</v>
       </c>
       <c r="D99" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B99,тип_интерполяции_)</f>
-        <v>11.697614963982746</v>
+        <v>11.631102009435415</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -13259,11 +13281,11 @@
       </c>
       <c r="C100" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B100,тип_интерполяции_)</f>
-        <v>10.745534613636364</v>
+        <v>13.836896584129134</v>
       </c>
       <c r="D100" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B100,тип_интерполяции_)</f>
-        <v>11.876139938477291</v>
+        <v>11.777172245674686</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -13284,11 +13306,11 @@
       </c>
       <c r="C101" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B101,тип_интерполяции_)</f>
-        <v>10.740072727272729</v>
+        <v>13.750391253623116</v>
       </c>
       <c r="D101" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B101,тип_интерполяции_)</f>
-        <v>12.053519813519783</v>
+        <v>11.920739303887922</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -13309,11 +13331,11 @@
       </c>
       <c r="C102" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B102,тип_интерполяции_)</f>
-        <v>10.730138250000001</v>
+        <v>13.649300024215373</v>
       </c>
       <c r="D102" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B102,тип_интерполяции_)</f>
-        <v>12.229951494279705</v>
+        <v>12.062990584001909</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -13334,11 +13356,11 @@
       </c>
       <c r="C103" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B103,тип_интерполяции_)</f>
-        <v>10.715731181818185</v>
+        <v>13.533357428663237</v>
       </c>
       <c r="D103" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B103,тип_интерполяции_)</f>
-        <v>12.405631885926542</v>
+        <v>12.205113485943434</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -13359,11 +13381,11 @@
       </c>
       <c r="C104" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B104,тип_интерполяции_)</f>
-        <v>10.696851522727277</v>
+        <v>13.402297999724045</v>
       </c>
       <c r="D104" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B104,тип_интерполяции_)</f>
-        <v>12.580757893629777</v>
+        <v>12.348295409639288</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -13384,11 +13406,11 @@
       </c>
       <c r="C105" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B105,тип_интерполяции_)</f>
-        <v>10.673499272727277</v>
+        <v>13.255856270155128</v>
       </c>
       <c r="D105" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B105,тип_интерполяции_)</f>
-        <v>12.755526422558891</v>
+        <v>12.493723755016255</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -13409,11 +13431,11 @@
       </c>
       <c r="C106" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B106,тип_интерполяции_)</f>
-        <v>10.645674431818188</v>
+        <v>13.093766772713824</v>
       </c>
       <c r="D106" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B106,тип_интерполяции_)</f>
-        <v>12.930134377883368</v>
+        <v>12.642585922001127</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -13434,11 +13456,11 @@
       </c>
       <c r="C107" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B107,тип_интерполяции_)</f>
-        <v>10.613377000000007</v>
+        <v>12.915764040157462</v>
       </c>
       <c r="D107" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B107,тип_интерполяции_)</f>
-        <v>13.104778664772693</v>
+        <v>12.796069310520688</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -13459,11 +13481,11 @@
       </c>
       <c r="C108" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B108,тип_интерполяции_)</f>
-        <v>10.576606977272734</v>
+        <v>12.721582605243379</v>
       </c>
       <c r="D108" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B108,тип_интерполяции_)</f>
-        <v>13.27965618839635</v>
+        <v>12.955361320501728</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -13484,11 +13506,11 @@
       </c>
       <c r="C109" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B109,тип_интерполяции_)</f>
-        <v>10.535364363636372</v>
+        <v>12.510957000728908</v>
       </c>
       <c r="D109" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B109,тип_интерполяции_)</f>
-        <v>13.45496385392382</v>
+        <v>13.121649351871033</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -13509,11 +13531,11 @@
       </c>
       <c r="C110" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B110,тип_интерполяции_)</f>
-        <v>10.489649159090918</v>
+        <v>12.283621759371382</v>
       </c>
       <c r="D110" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B110,тип_интерполяции_)</f>
-        <v>13.630898566524586</v>
+        <v>13.296120804555393</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -13534,11 +13556,11 @@
       </c>
       <c r="C111" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B111,тип_интерполяции_)</f>
-        <v>10.439461363636374</v>
+        <v>12.039311413928138</v>
       </c>
       <c r="D111" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B111,тип_интерполяции_)</f>
-        <v>13.807657231368132</v>
+        <v>13.479963078481596</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -13559,11 +13581,11 @@
       </c>
       <c r="C112" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B112,тип_интерполяции_)</f>
-        <v>10.384800977272739</v>
+        <v>11.777760497156507</v>
       </c>
       <c r="D112" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B112,тип_интерполяции_)</f>
-        <v>13.985436753623944</v>
+        <v>13.674363573576427</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -13584,11 +13606,11 @@
       </c>
       <c r="C113" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B113,тип_интерполяции_)</f>
-        <v>10.325668000000013</v>
+        <v>11.498703541813823</v>
       </c>
       <c r="D113" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B113,тип_интерполяции_)</f>
-        <v>14.164434038461501</v>
+        <v>13.880509689766676</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -13609,11 +13631,11 @@
       </c>
       <c r="C114" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B114,тип_интерполяции_)</f>
-        <v>10.262062431818196</v>
+        <v>11.201875080657421</v>
       </c>
       <c r="D114" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B114,тип_интерполяции_)</f>
-        <v>14.344845991050288</v>
+        <v>14.099588826979131</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -13634,11 +13656,11 @@
       </c>
       <c r="C115" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B115,тип_интерполяции_)</f>
-        <v>10.193984272727288</v>
+        <v>10.887009646444636</v>
       </c>
       <c r="D115" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B115,тип_интерполяции_)</f>
-        <v>14.52686951655979</v>
+        <v>14.33278838514058</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -13659,11 +13681,11 @@
       </c>
       <c r="C116" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B116,тип_интерполяции_)</f>
-        <v>10.121433522727289</v>
+        <v>10.553841771932801</v>
       </c>
       <c r="D116" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B116,тип_интерполяции_)</f>
-        <v>14.710701520159487</v>
+        <v>14.58129576417781</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -13684,11 +13706,11 @@
       </c>
       <c r="C117" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B117,тип_интерполяции_)</f>
-        <v>10.044410181818199</v>
+        <v>10.202105989879248</v>
       </c>
       <c r="D117" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B117,тип_интерполяции_)</f>
-        <v>14.896538907018865</v>
+        <v>14.846298364017608</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -13709,11 +13731,11 @@
       </c>
       <c r="C118" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B118,тип_интерполяции_)</f>
-        <v>9.9563324684171928</v>
+        <v>9.8315685866029074</v>
       </c>
       <c r="D118" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B118,тип_интерполяции_)</f>
-        <v>15.085897408793379</v>
+        <v>15.12891701587343</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -13734,11 +13756,11 @@
       </c>
       <c r="C119" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B119,тип_интерполяции_)</f>
-        <v>9.8100620685495059</v>
+        <v>9.4429396388514864</v>
       </c>
       <c r="D119" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B119,тип_интерполяции_)</f>
-        <v>15.288181053163656</v>
+        <v>15.428293972451359</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -13759,11 +13781,11 @@
       </c>
       <c r="C120" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B120,тип_интерполяции_)</f>
-        <v>9.6005604756058371</v>
+        <v>9.0380094659521344</v>
       </c>
       <c r="D120" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B120,тип_интерполяции_)</f>
-        <v>15.503949439173374</v>
+        <v>15.741306847311701</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -13784,11 +13806,11 @@
       </c>
       <c r="C121" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B121,тип_интерполяции_)</f>
-        <v>9.3330227829768955</v>
+        <v>8.6186275873177056</v>
       </c>
       <c r="D121" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B121,тип_интерполяции_)</f>
-        <v>15.731677031877782</v>
+        <v>16.064709145935645</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -13809,11 +13831,11 @@
       </c>
       <c r="C122" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B122,тип_интерполяции_)</f>
-        <v>9.0126440840533899</v>
+        <v>8.1866435223610541</v>
       </c>
       <c r="D122" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B122,тип_интерполяции_)</f>
-        <v>15.969838296332124</v>
+        <v>16.395254373804381</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -13834,11 +13856,11 @@
       </c>
       <c r="C123" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B123,тип_интерполяции_)</f>
-        <v>8.6446194722260294</v>
+        <v>7.7439067904950294</v>
       </c>
       <c r="D123" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B123,тип_интерполяции_)</f>
-        <v>16.216907697591655</v>
+        <v>16.729696036399101</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -13859,11 +13881,11 @@
       </c>
       <c r="C124" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B124,тип_интерполяции_)</f>
-        <v>8.2341440408855213</v>
+        <v>7.2922669111324865</v>
       </c>
       <c r="D124" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B124,тип_интерполяции_)</f>
-        <v>16.471359700711616</v>
+        <v>17.064787639200993</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -13884,11 +13906,11 @@
       </c>
       <c r="C125" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B125,тип_интерполяции_)</f>
-        <v>7.7864128834225674</v>
+        <v>6.8335734036862714</v>
       </c>
       <c r="D125" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B125,тип_интерполяции_)</f>
-        <v>16.731668770747262</v>
+        <v>17.397282687691249</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
@@ -13909,11 +13931,11 @@
       </c>
       <c r="C126" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B126,тип_интерполяции_)</f>
-        <v>7.3066210932278901</v>
+        <v>6.3696757875692471</v>
       </c>
       <c r="D126" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B126,тип_интерполяции_)</f>
-        <v>16.996309372753839</v>
+        <v>17.723934687351054</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -13934,11 +13956,11 @@
       </c>
       <c r="C127" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B127,тип_интерполяции_)</f>
-        <v>6.7999637636921912</v>
+        <v>5.9024235821942623</v>
       </c>
       <c r="D127" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B127,тип_интерполяции_)</f>
-        <v>17.26375597178659</v>
+        <v>18.041497143661601</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -13959,11 +13981,11 @@
       </c>
       <c r="C128" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B128,тип_интерполяции_)</f>
-        <v>6.271635988206179</v>
+        <v>5.4336663069741684</v>
       </c>
       <c r="D128" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B128,тип_интерполяции_)</f>
-        <v>17.532483032900767</v>
+        <v>18.346723562104081</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -13984,11 +14006,11 @@
       </c>
       <c r="C129" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B129,тип_интерполяции_)</f>
-        <v>5.7268328601605623</v>
+        <v>4.9652534813218185</v>
       </c>
       <c r="D129" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B129,тип_интерполяции_)</f>
-        <v>17.800965021151622</v>
+        <v>18.636367448159685</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -14009,11 +14031,11 @@
       </c>
       <c r="C130" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B130,тип_интерполяции_)</f>
-        <v>5.1707494729460493</v>
+        <v>4.499034624650065</v>
       </c>
       <c r="D130" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B130,тип_интерполяции_)</f>
-        <v>18.067676401594397</v>
+        <v>18.907182307309597</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -14034,11 +14056,11 @@
       </c>
       <c r="C131" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B131,тип_интерполяции_)</f>
-        <v>4.6085809199533498</v>
+        <v>4.03685925637176</v>
       </c>
       <c r="D131" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B131,тип_интерполяции_)</f>
-        <v>18.331091639284345</v>
+        <v>19.155921645035011</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -14059,11 +14081,11 @@
       </c>
       <c r="C132" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B132,тип_интерполяции_)</f>
-        <v>4.0455222945731704</v>
+        <v>3.5805768958997568</v>
       </c>
       <c r="D132" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B132,тип_интерполяции_)</f>
-        <v>18.589685199276712</v>
+        <v>19.379338966817119</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -14084,11 +14106,11 @@
       </c>
       <c r="C133" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B133,тип_интерполяции_)</f>
-        <v>3.4867686901962203</v>
+        <v>3.1320370626469076</v>
       </c>
       <c r="D133" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B133,тип_интерполяции_)</f>
-        <v>18.841931546626743</v>
+        <v>19.574187778137109</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -14109,11 +14131,11 @@
       </c>
       <c r="C134" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B134,тип_интерполяции_)</f>
-        <v>2.9375152002132086</v>
+        <v>2.6930892760260647</v>
       </c>
       <c r="D134" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B134,тип_интерполяции_)</f>
-        <v>19.086305146389694</v>
+        <v>19.73722158447617</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -14134,11 +14156,11 @@
       </c>
       <c r="C135" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B135,тип_интерполяции_)</f>
-        <v>2.4029569180148433</v>
+        <v>2.2655830554500818</v>
       </c>
       <c r="D135" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B135,тип_интерполяции_)</f>
-        <v>19.321280463620806</v>
+        <v>19.865193891315492</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -14159,11 +14181,11 @@
       </c>
       <c r="C136" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B136,тип_интерполяции_)</f>
-        <v>1.8882889369918332</v>
+        <v>1.8513679203318101</v>
       </c>
       <c r="D136" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B136,тип_интерполяции_)</f>
-        <v>19.545331963375329</v>
+        <v>19.954858204136269</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -14184,11 +14206,11 @@
       </c>
       <c r="C137" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B137,тип_интерполяции_)</f>
-        <v>1.3987063505348865</v>
+        <v>1.4522933900841031</v>
       </c>
       <c r="D137" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B137,тип_интерполяции_)</f>
-        <v>19.756934110708514</v>
+        <v>20.002968028419684</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -14209,11 +14231,11 @@
       </c>
       <c r="C138" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B138,тип_интерполяции_)</f>
-        <v>0.93940425203471178</v>
+        <v>1.070208984119813</v>
       </c>
       <c r="D138" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B138,тип_интерполяции_)</f>
-        <v>19.954561370675606</v>
+        <v>20.006276869646932</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -14234,11 +14256,11 @@
       </c>
       <c r="C139" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B139,тип_интерполяции_)</f>
-        <v>0.51557773488201775</v>
+        <v>0.70696422185179231</v>
       </c>
       <c r="D139" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B139,тип_интерполяции_)</f>
-        <v>20.121532895693523</v>
+        <v>19.961923630734969</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -14259,11 +14281,11 @@
       </c>
       <c r="C140" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B140,тип_интерполяции_)</f>
-        <v>0.13242189246751274</v>
+        <v>0.3644086226928937</v>
       </c>
       <c r="D140" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B140,тип_интерполяции_)</f>
-        <v>20.222564467236779</v>
+        <v>19.870306841541773</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -14284,11 +14306,11 @@
       </c>
       <c r="C141" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B141,тип_интерполяции_)</f>
-        <v>-0.20486818181809469</v>
+        <v>4.4391706055969843E-2</v>
       </c>
       <c r="D141" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B141,тип_интерполяции_)</f>
-        <v>20.258860352826421</v>
+        <v>19.733464056857823</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -14309,11 +14331,11 @@
       </c>
       <c r="C142" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B142,тип_интерполяции_)</f>
-        <v>-0.49109739458409607</v>
+        <v>-0.2512370086461268</v>
       </c>
       <c r="D142" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B142,тип_интерполяции_)</f>
-        <v>20.233200952301878</v>
+        <v>19.553445246135567</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -14334,11 +14356,11 @@
       </c>
       <c r="C143" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B143,тип_интерполяции_)</f>
-        <v>-0.72107065243978286</v>
+        <v>-0.5206280020005436</v>
       </c>
       <c r="D143" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B143,тип_интерполяции_)</f>
-        <v>20.148366665502589</v>
+        <v>19.332300378827433</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
@@ -14359,11 +14381,11 @@
       </c>
       <c r="C144" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B144,тип_интерполяции_)</f>
-        <v>-0.88959286199444643</v>
+        <v>-0.76193175459442808</v>
       </c>
       <c r="D144" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B144,тип_интерполяции_)</f>
-        <v>20.007137892267988</v>
+        <v>19.072079424385869</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -14384,11 +14406,11 @@
       </c>
       <c r="C145" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B145,тип_интерполяции_)</f>
-        <v>-0.99146892985737844</v>
+        <v>-0.97329874701492758</v>
       </c>
       <c r="D145" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B145,тип_интерполяции_)</f>
-        <v>19.812295032437508</v>
+        <v>18.774832352263306</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -14409,11 +14431,11 @@
       </c>
       <c r="C146" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B146,тип_интерполяции_)</f>
-        <v>-1.0453888152483073</v>
+        <v>-1.1532142606813363</v>
       </c>
       <c r="D146" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B146,тип_интерполяции_)</f>
-        <v>19.566618485850579</v>
+        <v>18.442609131912189</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -14434,11 +14456,11 @@
       </c>
       <c r="C147" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B147,тип_интерполяции_)</f>
-        <v>-1.0889077478991482</v>
+        <v>-1.3021983946912843</v>
       </c>
       <c r="D147" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B147,тип_интерполяции_)</f>
-        <v>19.272888652346641</v>
+        <v>18.077459732784948</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -14459,11 +14481,11 @@
       </c>
       <c r="C148" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B148,тип_интерполяции_)</f>
-        <v>-1.1225607196322887</v>
+        <v>-1.4215357939658801</v>
       </c>
       <c r="D148" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B148,тип_интерполяции_)</f>
-        <v>18.933885931765126</v>
+        <v>17.681434124334029</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -14484,11 +14506,11 @@
       </c>
       <c r="C149" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B149,тип_интерполяции_)</f>
-        <v>-1.146287546840953</v>
+        <v>-1.5125124747704406</v>
       </c>
       <c r="D149" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B149,тип_интерполяции_)</f>
-        <v>18.552390723945464</v>
+        <v>17.256582276011866</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -14509,11 +14531,11 @@
       </c>
       <c r="C150" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B150,тип_интерполяции_)</f>
-        <v>-1.1600280459183647</v>
+        <v>-1.5764144533702829</v>
       </c>
       <c r="D150" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B150,тип_интерполяции_)</f>
-        <v>18.131183428727098</v>
+        <v>16.804954157270899</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -14534,11 +14556,11 @@
       </c>
       <c r="C151" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B151,тип_интерполяции_)</f>
-        <v>-1.163722033257748</v>
+        <v>-1.6145277460307235</v>
       </c>
       <c r="D151" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B151,тип_интерполяции_)</f>
-        <v>17.673044445949451</v>
+        <v>16.328599737563565</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -14559,11 +14581,11 @@
       </c>
       <c r="C152" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B152,тип_интерполяции_)</f>
-        <v>-1.1573093252523268</v>
+        <v>-1.6281383690170796</v>
       </c>
       <c r="D152" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B152,тип_интерполяции_)</f>
-        <v>17.180754175451966</v>
+        <v>15.829568986342302</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
@@ -14584,11 +14606,11 @@
       </c>
       <c r="C153" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B153,тип_интерполяции_)</f>
-        <v>-1.140729738295325</v>
+        <v>-1.6185323385946679</v>
       </c>
       <c r="D153" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B153,тип_интерполяции_)</f>
-        <v>16.657093017074072</v>
+        <v>15.309911873059551</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -14609,11 +14631,11 @@
       </c>
       <c r="C154" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B154,тип_интерполяции_)</f>
-        <v>-1.1139230887799665</v>
+        <v>-1.5869956710288056</v>
       </c>
       <c r="D154" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B154,тип_интерполяции_)</f>
-        <v>16.104841370655205</v>
+        <v>14.771678367167748</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -14634,11 +14656,11 @@
       </c>
       <c r="C155" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B155,тип_интерполяции_)</f>
-        <v>-1.0768291930994756</v>
+        <v>-1.5348143825848093</v>
       </c>
       <c r="D155" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B155,тип_интерполяции_)</f>
-        <v>15.526779636034796</v>
+        <v>14.216918438119333</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -14659,11 +14681,11 @@
       </c>
       <c r="C156" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B156,тип_интерполяции_)</f>
-        <v>-1.0293878676470758</v>
+        <v>-1.4632744895279961</v>
       </c>
       <c r="D156" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B156,тип_интерполяции_)</f>
-        <v>14.925688213052283</v>
+        <v>13.647682055366742</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -14684,11 +14706,11 @@
       </c>
       <c r="C157" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B157,тип_интерполяции_)</f>
-        <v>-0.97153892881599135</v>
+        <v>-1.3736620081236826</v>
       </c>
       <c r="D157" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B157,тип_интерполяции_)</f>
-        <v>14.304347501547097</v>
+        <v>13.066019188362414</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -14709,11 +14731,11 @@
       </c>
       <c r="C158" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B158,тип_интерполяции_)</f>
-        <v>-0.90322219299944617</v>
+        <v>-1.2672629546371859</v>
       </c>
       <c r="D158" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B158,тип_интерполяции_)</f>
-        <v>13.665537901358675</v>
+        <v>12.473979806558789</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -14734,11 +14756,11 @@
       </c>
       <c r="C159" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B159,тип_интерполяции_)</f>
-        <v>-0.82437747659066418</v>
+        <v>-1.1453633453338228</v>
       </c>
       <c r="D159" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B159,тип_интерполяции_)</f>
-        <v>13.012039812326448</v>
+        <v>11.873613879408305</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -14759,11 +14781,11 @@
       </c>
       <c r="C160" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B160,тип_интерполяции_)</f>
-        <v>-0.73494459598286932</v>
+        <v>-1.0092491964789105</v>
       </c>
       <c r="D160" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B160,тип_интерполяции_)</f>
-        <v>12.34663363428985</v>
+        <v>11.266971376363399</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -14784,11 +14806,11 @@
       </c>
       <c r="C161" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B161,тип_интерполяции_)</f>
-        <v>-0.63486336756928552</v>
+        <v>-0.86020652433776545</v>
       </c>
       <c r="D161" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B161,тип_интерполяции_)</f>
-        <v>11.672099767088318</v>
+        <v>10.656102266876511</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -14809,11 +14831,11 @@
       </c>
       <c r="C162" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B162,тип_интерполяции_)</f>
-        <v>-0.52407360774313683</v>
+        <v>-0.69952134517570486</v>
       </c>
       <c r="D162" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B162,тип_интерполяции_)</f>
-        <v>10.991218610561281</v>
+        <v>10.043056520400077</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -14834,11 +14856,11 @@
       </c>
       <c r="C163" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B163,тип_интерполяции_)</f>
-        <v>-0.40251513289764718</v>
+        <v>-0.52847967525804551</v>
       </c>
       <c r="D163" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B163,тип_интерполяции_)</f>
-        <v>10.306770564548179</v>
+        <v>9.4298841063865364</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -14859,11 +14881,11 @@
       </c>
       <c r="C164" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B164,тип_интерполяции_)</f>
-        <v>-0.27012775942604045</v>
+        <v>-0.34836753085010425</v>
       </c>
       <c r="D164" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B164,тип_интерполяции_)</f>
-        <v>9.6215360288884408</v>
+        <v>8.8186349942883275</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -14884,11 +14906,11 @@
       </c>
       <c r="C165" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B165,тип_интерполяции_)</f>
-        <v>-0.12685130372154069</v>
+        <v>-0.16047092821719808</v>
       </c>
       <c r="D165" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B165,тип_интерполяции_)</f>
-        <v>8.9382954034215043</v>
+        <v>8.2113591535578898</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -14909,11 +14931,11 @@
       </c>
       <c r="C166" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B166,тип_интерполяции_)</f>
-        <v>2.7467447916609933E-2</v>
+        <v>3.3924506332920497E-2</v>
       </c>
       <c r="D166" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B166,тип_интерполяции_)</f>
-        <v>8.2598290879867999</v>
+        <v>7.6101065536476602</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -14934,11 +14956,11 @@
       </c>
       <c r="C167" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B167,тип_интерполяции_)</f>
-        <v>0.19643427721082143</v>
+        <v>0.233654201799188</v>
       </c>
       <c r="D167" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B167,тип_интерполяции_)</f>
-        <v>7.5889174824237644</v>
+        <v>7.0169271640100774</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -14959,11 +14981,11 @@
       </c>
       <c r="C168" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B168,тип_интерполяции_)</f>
-        <v>0.3804082366070744</v>
+        <v>0.43784552813134986</v>
       </c>
       <c r="D168" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B168,тип_интерполяции_)</f>
-        <v>6.92834098657183</v>
+        <v>6.4338709540975794</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -14984,11 +15006,11 @@
       </c>
       <c r="C169" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B169,тип_интерполяции_)</f>
-        <v>0.57736727891149131</v>
+        <v>0.64566898146613405</v>
       </c>
       <c r="D169" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B169,тип_интерполяции_)</f>
-        <v>6.2808800002704315</v>
+        <v>5.8629878933626056</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -15009,11 +15031,11 @@
       </c>
       <c r="C170" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B170,тип_интерполяции_)</f>
-        <v>0.78528935693019453</v>
+        <v>0.85629505794026861</v>
       </c>
       <c r="D170" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B170,тип_интерполяции_)</f>
-        <v>5.649314923359003</v>
+        <v>5.3063279512575932</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -15034,11 +15056,11 @@
       </c>
       <c r="C171" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B171,тип_интерполяции_)</f>
-        <v>1.0021524234693067</v>
+        <v>1.0688942536904815</v>
       </c>
       <c r="D171" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B171,тип_интерполяции_)</f>
-        <v>5.0364261556769776</v>
+        <v>4.7659410972349807</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -15059,11 +15081,11 @@
       </c>
       <c r="C172" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B172,тип_интерполяции_)</f>
-        <v>1.2259344313349501</v>
+        <v>1.2826370648535008</v>
       </c>
       <c r="D172" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B172,тип_интерполяции_)</f>
-        <v>4.4449940970637893</v>
+        <v>4.243877300747207</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -15084,11 +15106,11 @@
       </c>
       <c r="C173" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B173,тип_интерполяции_)</f>
-        <v>1.4546133333332472</v>
+        <v>1.4966939875660545</v>
       </c>
       <c r="D173" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B173,тип_интерполяции_)</f>
-        <v>3.8777991473588735</v>
+        <v>3.7421865312467104</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -15109,11 +15131,11 @@
       </c>
       <c r="C174" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B174,тип_интерполяции_)</f>
-        <v>1.6861670822703207</v>
+        <v>1.7102355179648705</v>
       </c>
       <c r="D174" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B174,тип_интерполяции_)</f>
-        <v>3.3376217064016629</v>
+        <v>3.2629187581859282</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -15134,11 +15156,11 @@
       </c>
       <c r="C175" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B175,тип_интерполяции_)</f>
-        <v>1.9185736309522929</v>
+        <v>1.922432152186677</v>
       </c>
       <c r="D175" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B175,тип_интерполяции_)</f>
-        <v>2.8272421740315914</v>
+        <v>2.8081239510172997</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -15159,11 +15181,11 @@
       </c>
       <c r="C176" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B176,тип_интерполяции_)</f>
-        <v>2.1498109321852863</v>
+        <v>2.1324543863682015</v>
       </c>
       <c r="D176" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B176,тип_интерполяции_)</f>
-        <v>2.3494409500880935</v>
+        <v>2.3798520791932631</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -15184,11 +15206,11 @@
       </c>
       <c r="C177" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B177,тип_интерполяции_)</f>
-        <v>2.3778569387754231</v>
+        <v>2.3394727166461728</v>
       </c>
       <c r="D177" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B177,тип_интерполяции_)</f>
-        <v>1.9069984344106032</v>
+        <v>1.9801531121662563</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -15209,11 +15231,11 @@
       </c>
       <c r="C178" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B178,тип_интерполяции_)</f>
-        <v>2.6006896035288265</v>
+        <v>2.5426576391573183</v>
       </c>
       <c r="D178" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B178,тип_интерполяции_)</f>
-        <v>1.5026950268385542</v>
+        <v>1.6110770193887178</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -15234,11 +15256,11 @@
       </c>
       <c r="C179" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B179,тип_интерполяции_)</f>
-        <v>2.816286879251618</v>
+        <v>2.7411796500383665</v>
       </c>
       <c r="D179" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B179,тип_интерполяции_)</f>
-        <v>1.1393111272113803</v>
+        <v>1.2746737703130862</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -15259,11 +15281,11 @@
       </c>
       <c r="C180" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B180,тип_интерполяции_)</f>
-        <v>3.0226267187499207</v>
+        <v>2.9342092454260449</v>
       </c>
       <c r="D180" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B180,тип_интерполяции_)</f>
-        <v>0.81962713536851561</v>
+        <v>0.97299333439179936</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -15284,11 +15306,11 @@
       </c>
       <c r="C181" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B181,тип_интерполяции_)</f>
-        <v>3.2176870748298572</v>
+        <v>3.1209169214570815</v>
       </c>
       <c r="D181" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B181,тип_интерполяции_)</f>
-        <v>0.54642345114939428</v>
+        <v>0.70808568107729597</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -15309,11 +15331,11 @@
       </c>
       <c r="C182" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B182,тип_интерполяции_)</f>
-        <v>3.3994459002975494</v>
+        <v>3.300473174268205</v>
       </c>
       <c r="D182" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B182,тип_интерполяции_)</f>
-        <v>0.32248047439345012</v>
+        <v>0.48200077982201417</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
@@ -15334,11 +15356,11 @@
       </c>
       <c r="C183" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B183,тип_интерполяции_)</f>
-        <v>3.5658811479591201</v>
+        <v>3.4720484999961427</v>
       </c>
       <c r="D183" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B183,тип_интерполяции_)</f>
-        <v>0.1505786049401171</v>
+        <v>0.29678860007839225</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -15359,11 +15381,11 @@
       </c>
       <c r="C184" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B184,тип_интерполяции_)</f>
-        <v>3.7149707706206918</v>
+        <v>3.6348133947776229</v>
       </c>
       <c r="D184" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B184,тип_интерполяции_)</f>
-        <v>3.3498242628829195E-2</v>
+        <v>0.15449911129886867</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -15384,11 +15406,11 @@
       </c>
       <c r="C185" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B185,тип_интерполяции_)</f>
-        <v>3.8446927210883866</v>
+        <v>3.7879383547493735</v>
       </c>
       <c r="D185" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B185,тип_интерполяции_)</f>
-        <v>-2.5980212700979655E-2</v>
+        <v>5.7182282935881651E-2</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -15409,11 +15431,11 @@
       </c>
       <c r="C186" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B186,тип_интерполяции_)</f>
-        <v>3.9530249521683274</v>
+        <v>3.9305938760481225</v>
       </c>
       <c r="D186" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B186,тип_интерполяции_)</f>
-        <v>-2.507636120987547E-2</v>
+        <v>6.8880844418695367E-3</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -15434,11 +15456,11 @@
       </c>
       <c r="C187" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B187,тип_интерполяции_)</f>
-        <v>4.0403452388888548</v>
+        <v>4.0619761201991569</v>
       </c>
       <c r="D187" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B187,тип_интерполяции_)</f>
-        <v>3.6937693732157335E-2</v>
+        <v>5.5553692615704642E-3</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
@@ -15459,11 +15481,11 @@
       </c>
       <c r="C188" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B188,тип_интерполяции_)</f>
-        <v>4.1208493798610784</v>
+        <v>4.1819222380657264</v>
       </c>
       <c r="D188" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B188,тип_интерполяции_)</f>
-        <v>0.14696661128911886</v>
+        <v>5.2347884745025143E-2</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
@@ -15484,11 +15506,11 @@
       </c>
       <c r="C189" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B189,тип_интерполяции_)</f>
-        <v>4.1972991999999687</v>
+        <v>4.2909398607273657</v>
       </c>
       <c r="D189" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B189,тип_интерполяции_)</f>
-        <v>0.29847138461531281</v>
+        <v>0.14352659402357343</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
@@ -15509,11 +15531,11 @@
       </c>
       <c r="C190" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B190,тип_интерполяции_)</f>
-        <v>4.2697963201388589</v>
+        <v>4.3895681865691474</v>
       </c>
       <c r="D190" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B190,тип_интерполяции_)</f>
-        <v>0.48694421777056823</v>
+        <v>0.27521579239838007</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
@@ -15534,11 +15556,11 @@
       </c>
       <c r="C191" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B191,тип_интерполяции_)</f>
-        <v>4.3384423611110829</v>
+        <v>4.4783464139761433</v>
       </c>
       <c r="D191" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B191,тип_интерполяции_)</f>
-        <v>0.70787731481471428</v>
+        <v>0.44353977517060988</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
@@ -15559,11 +15581,11 @@
       </c>
       <c r="C192" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B192,тип_интерполяции_)</f>
-        <v>4.403338943749973</v>
+        <v>4.5578137413334243</v>
       </c>
       <c r="D192" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B192,тип_интерполяции_)</f>
-        <v>0.95676287980758001</v>
+        <v>0.64462283764142769</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -15584,11 +15606,11 @@
       </c>
       <c r="C193" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B193,тип_интерполяции_)</f>
-        <v>4.4645876888888631</v>
+        <v>4.6285093670260622</v>
       </c>
       <c r="D193" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B193,тип_интерполяции_)</f>
-        <v>1.2290931168089947</v>
+        <v>0.87458927511199813</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
@@ -15609,11 +15631,11 @@
       </c>
       <c r="C194" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B194,тип_интерполяции_)</f>
-        <v>4.5222902173610864</v>
+        <v>4.6909724894391287</v>
       </c>
       <c r="D194" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B194,тип_интерполяции_)</f>
-        <v>1.5203602298787871</v>
+        <v>1.1295633828834861</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -15634,11 +15656,11 @@
       </c>
       <c r="C195" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B195,тип_интерполяции_)</f>
-        <v>4.5765481499999767</v>
+        <v>4.7457423069576947</v>
       </c>
       <c r="D195" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B195,тип_интерполяции_)</f>
-        <v>1.8260564230767864</v>
+        <v>1.4056694562570562</v>
       </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
@@ -15659,11 +15681,11 @@
       </c>
       <c r="C196" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B196,тип_интерполяции_)</f>
-        <v>4.6274631076388673</v>
+        <v>4.7933580179668329</v>
       </c>
       <c r="D196" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B196,тип_интерполяции_)</f>
-        <v>2.141673900462822</v>
+        <v>1.6990317905338734</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -15684,11 +15706,11 @@
       </c>
       <c r="C197" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B197,тип_интерполяции_)</f>
-        <v>4.6751367111110902</v>
+        <v>4.8343588208516142</v>
       </c>
       <c r="D197" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B197,тип_интерполяции_)</f>
-        <v>2.4627048660967228</v>
+        <v>2.0057746810151027</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
@@ -15709,11 +15731,11 @@
       </c>
       <c r="C198" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B198,тип_интерполяции_)</f>
-        <v>4.7196705812499804</v>
+        <v>4.8692839139971111</v>
       </c>
       <c r="D198" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B198,тип_интерполяции_)</f>
-        <v>2.7846415240383178</v>
+        <v>2.3220224230019082</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -15734,11 +15756,11 @@
       </c>
       <c r="C199" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B199,тип_интерполяции_)</f>
-        <v>4.761166338888871</v>
+        <v>4.8986724957883929</v>
       </c>
       <c r="D199" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B199,тип_интерполяции_)</f>
-        <v>3.1029760783474365</v>
+        <v>2.643899311795455</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -15759,11 +15781,11 @@
       </c>
       <c r="C200" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B200,тип_интерполяции_)</f>
-        <v>4.7997256048610941</v>
+        <v>4.923063764610534</v>
       </c>
       <c r="D200" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B200,тип_интерполяции_)</f>
-        <v>3.4132007330839071</v>
+        <v>2.967529642696908</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -15784,11 +15806,11 @@
       </c>
       <c r="C201" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B201,тип_интерполяции_)</f>
-        <v>4.8354499999999847</v>
+        <v>4.9429969188486043</v>
       </c>
       <c r="D201" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B201,тип_интерполяции_)</f>
-        <v>3.7108076923075597</v>
+        <v>3.289037711007432</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -15809,11 +15831,11 @@
       </c>
       <c r="C202" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B202,тип_интерполяции_)</f>
-        <v>4.868441145138874</v>
+        <v>4.9590111568876756</v>
       </c>
       <c r="D202" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B202,тип_интерполяции_)</f>
-        <v>3.9912891600782232</v>
+        <v>3.6045478120281915</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -15834,11 +15856,11 @@
       </c>
       <c r="C203" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B203,тип_интерполяции_)</f>
-        <v>4.8988006611110979</v>
+        <v>4.9716456771128188</v>
       </c>
       <c r="D203" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B203,тип_интерполяции_)</f>
-        <v>4.2501373404557263</v>
+        <v>3.9101842410603518</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -15859,11 +15881,11 @@
       </c>
       <c r="C204" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B204,тип_интерполяции_)</f>
-        <v>4.9266301687499876</v>
+        <v>4.9814396779091075</v>
       </c>
       <c r="D204" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B204,тип_интерполяции_)</f>
-        <v>4.4828444374998977</v>
+        <v>4.2020712934050772</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -15884,11 +15906,11 @@
       </c>
       <c r="C205" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B205,тип_интерполяции_)</f>
-        <v>4.952031288888878</v>
+        <v>4.9889323576616107</v>
       </c>
       <c r="D205" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B205,тип_интерполяции_)</f>
-        <v>4.6849026552705677</v>
+        <v>4.4763332643635323</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -15909,11 +15931,11 @@
       </c>
       <c r="C206" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B206,тип_интерполяции_)</f>
-        <v>4.9751056423611004</v>
+        <v>4.994662914755402</v>
       </c>
       <c r="D206" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B206,тип_интерполяции_)</f>
-        <v>4.8518041978275654</v>
+        <v>4.7290944492368823</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -15934,11 +15956,11 @@
       </c>
       <c r="C207" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B207,тип_интерполяции_)</f>
-        <v>4.9959548499999906</v>
+        <v>4.9991705475755523</v>
       </c>
       <c r="D207" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B207,тип_интерполяции_)</f>
-        <v>4.9790412692307182</v>
+        <v>4.956479143326292</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -15959,11 +15981,11 @@
       </c>
       <c r="C208" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B208,тип_интерполяции_)</f>
-        <v>5.0144516666666581</v>
+        <v>5.0029496226379084</v>
       </c>
       <c r="D208" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B208,тип_интерполяции_)</f>
-        <v>5.0722583333332922</v>
+        <v>5.1549338889778413</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -15984,11 +16006,11 @@
       </c>
       <c r="C209" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B209,тип_интерполяции_)</f>
-        <v>5.0301599999999933</v>
+        <v>5.0061557342008545</v>
       </c>
       <c r="D209" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B209,тип_интерполяции_)</f>
-        <v>5.1507999999999656</v>
+        <v>5.3233402900408207</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -16009,11 +16031,11 @@
       </c>
       <c r="C210" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B210,тип_интерполяции_)</f>
-        <v>5.0430649999999941</v>
+        <v>5.008789678161798</v>
       </c>
       <c r="D210" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B210,тип_интерполяции_)</f>
-        <v>5.2153249999999725</v>
+        <v>5.4616926256833329</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -16034,11 +16056,11 @@
       </c>
       <c r="C211" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B211,тип_интерполяции_)</f>
-        <v>5.0531666666666624</v>
+        <v>5.010851454520739</v>
       </c>
       <c r="D211" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B211,тип_интерполяции_)</f>
-        <v>5.2658333333333118</v>
+        <v>5.5699908959053772</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -16059,11 +16081,11 @@
       </c>
       <c r="C212" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B212,тип_интерполяции_)</f>
-        <v>5.0604649999999971</v>
+        <v>5.0123410632776775</v>
       </c>
       <c r="D212" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B212,тип_интерполяции_)</f>
-        <v>5.3023249999999855</v>
+        <v>5.6482351007069544</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -16084,11 +16106,11 @@
       </c>
       <c r="C213" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B213,тип_интерполяции_)</f>
-        <v>5.0649599999999984</v>
+        <v>5.0132585044326134</v>
       </c>
       <c r="D213" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B213,тип_интерполяции_)</f>
-        <v>5.3247999999999927</v>
+        <v>5.6964252400880637</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
@@ -16109,11 +16131,11 @@
       </c>
       <c r="C214" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B214,тип_интерполяции_)</f>
-        <v>5.0666516666666661</v>
+        <v>5.013603777985546</v>
       </c>
       <c r="D214" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B214,тип_интерполяции_)</f>
-        <v>5.3332583333333323</v>
+        <v>5.7145613140487059</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -16134,11 +16156,11 @@
       </c>
       <c r="C215" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B215,тип_интерполяции_)</f>
-        <v>5.0655400000000013</v>
+        <v>5.0133768839364761</v>
       </c>
       <c r="D215" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B215,тип_интерполяции_)</f>
-        <v>5.3277000000000063</v>
+        <v>5.7026433225888802</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
@@ -16159,11 +16181,11 @@
       </c>
       <c r="C216" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B216,тип_интерполяции_)</f>
-        <v>5.0616250000000029</v>
+        <v>5.0125778222854036</v>
       </c>
       <c r="D216" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B216,тип_интерполяции_)</f>
-        <v>5.3081250000000129</v>
+        <v>5.6606712657085865</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -16184,11 +16206,11 @@
       </c>
       <c r="C217" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B217,тип_интерполяции_)</f>
-        <v>5.0549066666666711</v>
+        <v>5.0112065930323286</v>
       </c>
       <c r="D217" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B217,тип_интерполяции_)</f>
-        <v>5.2745333333333537</v>
+        <v>5.5886451434078257</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -16209,11 +16231,11 @@
       </c>
       <c r="C218" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B218,тип_интерполяции_)</f>
-        <v>5.0453850000000058</v>
+        <v>5.0092631961772511</v>
       </c>
       <c r="D218" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B218,тип_интерполяции_)</f>
-        <v>5.226925000000028</v>
+        <v>5.486564955686597</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -16234,11 +16256,11 @@
       </c>
       <c r="C219" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B219,тип_интерполяции_)</f>
-        <v>5.033060000000007</v>
+        <v>5.0067476317201711</v>
       </c>
       <c r="D219" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B219,тип_интерполяции_)</f>
-        <v>5.1653000000000349</v>
+        <v>5.3544307025449012</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -16259,11 +16281,11 @@
       </c>
       <c r="C220" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B220,тип_интерполяции_)</f>
-        <v>5.0179316666666756</v>
+        <v>5.0036598996610877</v>
       </c>
       <c r="D220" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B220,тип_интерполяции_)</f>
-        <v>5.089658333333376</v>
+        <v>5.1922423839827374</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
@@ -16284,11 +16306,11 @@
       </c>
       <c r="C221" s="15">
         <f>[1]!crv_interpolation(x_,fx_,B221,тип_интерполяции_)</f>
-        <v>5.0000000000000098</v>
+        <v>5.0000000000000018</v>
       </c>
       <c r="D221" s="15">
         <f>[1]!crv_interpolation(x2_,gx2_,B221,тип_интерполяции_)</f>
-        <v>5.0000000000000497</v>
+        <v>5.0000000000001066</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
